--- a/pet-simulator/Excel/DropPoint_资源生成点表.xlsx
+++ b/pet-simulator/Excel/DropPoint_资源生成点表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="1519">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -3551,196 +3551,97 @@
     <t xml:space="preserve">-10244.05|83548|77542</t>
   </si>
   <si>
-    <t xml:space="preserve">-16471.7890625|93692.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17056.7890625|94152.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15706.779296875|93877.5390625|-453.4658203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14636.7900390625|94152.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14636.7900390625|95857.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15421.7890625|95472.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13881.7900390625|95472.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14156.8017578125|96427.546875|-453.49420166015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14716.826171875|97152.5546875|-453.54345703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13961.8203125|96977.578125|-453.55511474609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13326.8408203125|97327.609375|-453.5419006347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17636.833984375|97087.59375|-453.5310974121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18341.837890625|97207.5625|-453.53729248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18511.7890625|95327.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17411.7890625|95157.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16851.7890625|95432.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17811.7890625|94787.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18126.7890625|94152.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17601.7890625|93777.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17811.7890625|96047.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15411.7890625|96047.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16586.7890625|95157.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17981.7890625|95597.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17481.7890625|96532.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13646.779296875|96212.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13771.7861328125|94972.546875|-453.4949951171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14256.779296875|94607.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14581.7890625|95257.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13231.779296875|95257.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13101.7900390625|95952.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16701.7890625|96607.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13566.80078125|96737.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15886.7900390625|96457.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15216.7919921875|94267.5390625|-453.48101806640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13906.80078125|94092.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17176.7890625|94732.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18561.7890625|95952.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18561.7890625|94622.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15401.791015625|96872.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15751.7900390625|97342.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16461.7890625|97117.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17201.779296875|96932.546875|-453.486328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15286.787109375|95082.5546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16226.8544921875|96802.5859375|-453.44793701171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16051.7900390625|94827.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16316.7900390625|95842.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15931.7900390625|95537.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14836.7900390625|96657.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18341.7890625|96657.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17231.7890625|96027.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17361.7890625|95617.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18206.7890625|95047.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17611.791015625|94252.5390625|-453.4888610839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17241.7890625|93482.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16566.7890625|96132.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14896.7900390625|96247.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14896.7900390625|93747.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15231.7900390625|97542.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14076.7900390625|95767.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14816.791015625|94742.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15571.7958984375|94692.5546875|-453.504638671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13271.779296875|94612.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13111.7900390625|96602.546875|-453.489990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18021.7890625|96372.546875|-453.489990234375</t>
+    <t xml:space="preserve">-16093.66|96202.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15277.66|96688.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15095.66|96109.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15610.66|96109.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14865.66|95578.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15433.66|95419.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15113.66|94932.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14591.66|94932.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14951.66|94315.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15564.66|94187.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16008.66|94486.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16555.66|94351.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16228.66|93962.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16980.66|93962.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17186.66|94623.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17106.66|95099.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16850.66|95487.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17046.66|96108.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17511.66|95868.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17749.66|95299.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17323.66|95484.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17484.66|94426.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17705.66|94909.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16869.66|94805.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17027.66|96649.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16430.66|97064.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15797.66|96746.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16450.66|96524.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16251.66|95022.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16251.66|95760.72|93382.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17652.66|96290.72|93382.24</t>
   </si>
   <si>
     <t xml:space="preserve">2248|101750|-20628</t>
@@ -3758,7 +3659,7 @@
     <t xml:space="preserve">-14174|98077|-281</t>
   </si>
   <si>
-    <t xml:space="preserve">-16041|106676|-450</t>
+    <t xml:space="preserve">-16338.5|105409|93482</t>
   </si>
   <si>
     <t xml:space="preserve">115013.55|-30644.79|9802.63</t>
@@ -4930,7 +4831,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5189,8 +5090,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1070" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1081" activeCellId="0" sqref="B1081"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1184" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1203" activeCellId="0" sqref="B1203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19580,7 +19481,7 @@
       <c r="A1167" s="4" t="n">
         <v>1163</v>
       </c>
-      <c r="B1167" s="3" t="s">
+      <c r="B1167" s="0" t="s">
         <v>1170</v>
       </c>
       <c r="C1167" s="3" t="n">
@@ -19591,7 +19492,7 @@
       <c r="A1168" s="4" t="n">
         <v>1164</v>
       </c>
-      <c r="B1168" s="3" t="s">
+      <c r="B1168" s="0" t="s">
         <v>1171</v>
       </c>
       <c r="C1168" s="3" t="n">
@@ -19602,7 +19503,7 @@
       <c r="A1169" s="4" t="n">
         <v>1165</v>
       </c>
-      <c r="B1169" s="3" t="s">
+      <c r="B1169" s="0" t="s">
         <v>1172</v>
       </c>
       <c r="C1169" s="3" t="n">
@@ -19613,7 +19514,7 @@
       <c r="A1170" s="4" t="n">
         <v>1166</v>
       </c>
-      <c r="B1170" s="3" t="s">
+      <c r="B1170" s="0" t="s">
         <v>1173</v>
       </c>
       <c r="C1170" s="3" t="n">
@@ -19624,7 +19525,7 @@
       <c r="A1171" s="4" t="n">
         <v>1167</v>
       </c>
-      <c r="B1171" s="3" t="s">
+      <c r="B1171" s="0" t="s">
         <v>1174</v>
       </c>
       <c r="C1171" s="3" t="n">
@@ -19635,7 +19536,7 @@
       <c r="A1172" s="4" t="n">
         <v>1168</v>
       </c>
-      <c r="B1172" s="3" t="s">
+      <c r="B1172" s="0" t="s">
         <v>1175</v>
       </c>
       <c r="C1172" s="3" t="n">
@@ -19646,7 +19547,7 @@
       <c r="A1173" s="4" t="n">
         <v>1169</v>
       </c>
-      <c r="B1173" s="3" t="s">
+      <c r="B1173" s="0" t="s">
         <v>1176</v>
       </c>
       <c r="C1173" s="3" t="n">
@@ -19657,7 +19558,7 @@
       <c r="A1174" s="4" t="n">
         <v>1170</v>
       </c>
-      <c r="B1174" s="3" t="s">
+      <c r="B1174" s="0" t="s">
         <v>1177</v>
       </c>
       <c r="C1174" s="3" t="n">
@@ -19668,7 +19569,7 @@
       <c r="A1175" s="4" t="n">
         <v>1171</v>
       </c>
-      <c r="B1175" s="3" t="s">
+      <c r="B1175" s="0" t="s">
         <v>1178</v>
       </c>
       <c r="C1175" s="3" t="n">
@@ -19679,7 +19580,7 @@
       <c r="A1176" s="4" t="n">
         <v>1172</v>
       </c>
-      <c r="B1176" s="3" t="s">
+      <c r="B1176" s="0" t="s">
         <v>1179</v>
       </c>
       <c r="C1176" s="3" t="n">
@@ -19690,7 +19591,7 @@
       <c r="A1177" s="4" t="n">
         <v>1173</v>
       </c>
-      <c r="B1177" s="3" t="s">
+      <c r="B1177" s="0" t="s">
         <v>1180</v>
       </c>
       <c r="C1177" s="3" t="n">
@@ -19701,7 +19602,7 @@
       <c r="A1178" s="4" t="n">
         <v>1174</v>
       </c>
-      <c r="B1178" s="3" t="s">
+      <c r="B1178" s="0" t="s">
         <v>1181</v>
       </c>
       <c r="C1178" s="3" t="n">
@@ -19712,7 +19613,7 @@
       <c r="A1179" s="4" t="n">
         <v>1175</v>
       </c>
-      <c r="B1179" s="3" t="s">
+      <c r="B1179" s="0" t="s">
         <v>1182</v>
       </c>
       <c r="C1179" s="3" t="n">
@@ -19723,7 +19624,7 @@
       <c r="A1180" s="4" t="n">
         <v>1176</v>
       </c>
-      <c r="B1180" s="3" t="s">
+      <c r="B1180" s="0" t="s">
         <v>1183</v>
       </c>
       <c r="C1180" s="3" t="n">
@@ -19734,7 +19635,7 @@
       <c r="A1181" s="4" t="n">
         <v>1177</v>
       </c>
-      <c r="B1181" s="3" t="s">
+      <c r="B1181" s="0" t="s">
         <v>1184</v>
       </c>
       <c r="C1181" s="3" t="n">
@@ -19745,7 +19646,7 @@
       <c r="A1182" s="4" t="n">
         <v>1178</v>
       </c>
-      <c r="B1182" s="3" t="s">
+      <c r="B1182" s="0" t="s">
         <v>1185</v>
       </c>
       <c r="C1182" s="3" t="n">
@@ -19756,7 +19657,7 @@
       <c r="A1183" s="4" t="n">
         <v>1179</v>
       </c>
-      <c r="B1183" s="3" t="s">
+      <c r="B1183" s="0" t="s">
         <v>1186</v>
       </c>
       <c r="C1183" s="3" t="n">
@@ -19767,7 +19668,7 @@
       <c r="A1184" s="4" t="n">
         <v>1180</v>
       </c>
-      <c r="B1184" s="3" t="s">
+      <c r="B1184" s="0" t="s">
         <v>1187</v>
       </c>
       <c r="C1184" s="3" t="n">
@@ -19778,7 +19679,7 @@
       <c r="A1185" s="4" t="n">
         <v>1181</v>
       </c>
-      <c r="B1185" s="3" t="s">
+      <c r="B1185" s="0" t="s">
         <v>1188</v>
       </c>
       <c r="C1185" s="3" t="n">
@@ -19789,7 +19690,7 @@
       <c r="A1186" s="4" t="n">
         <v>1182</v>
       </c>
-      <c r="B1186" s="3" t="s">
+      <c r="B1186" s="0" t="s">
         <v>1189</v>
       </c>
       <c r="C1186" s="3" t="n">
@@ -19800,7 +19701,7 @@
       <c r="A1187" s="4" t="n">
         <v>1183</v>
       </c>
-      <c r="B1187" s="3" t="s">
+      <c r="B1187" s="0" t="s">
         <v>1190</v>
       </c>
       <c r="C1187" s="3" t="n">
@@ -19811,7 +19712,7 @@
       <c r="A1188" s="4" t="n">
         <v>1184</v>
       </c>
-      <c r="B1188" s="3" t="s">
+      <c r="B1188" s="0" t="s">
         <v>1191</v>
       </c>
       <c r="C1188" s="3" t="n">
@@ -19822,7 +19723,7 @@
       <c r="A1189" s="4" t="n">
         <v>1185</v>
       </c>
-      <c r="B1189" s="3" t="s">
+      <c r="B1189" s="0" t="s">
         <v>1192</v>
       </c>
       <c r="C1189" s="3" t="n">
@@ -19833,7 +19734,7 @@
       <c r="A1190" s="4" t="n">
         <v>1186</v>
       </c>
-      <c r="B1190" s="3" t="s">
+      <c r="B1190" s="0" t="s">
         <v>1193</v>
       </c>
       <c r="C1190" s="3" t="n">
@@ -19844,7 +19745,7 @@
       <c r="A1191" s="4" t="n">
         <v>1187</v>
       </c>
-      <c r="B1191" s="3" t="s">
+      <c r="B1191" s="0" t="s">
         <v>1194</v>
       </c>
       <c r="C1191" s="3" t="n">
@@ -19855,7 +19756,7 @@
       <c r="A1192" s="4" t="n">
         <v>1188</v>
       </c>
-      <c r="B1192" s="3" t="s">
+      <c r="B1192" s="0" t="s">
         <v>1195</v>
       </c>
       <c r="C1192" s="3" t="n">
@@ -19866,7 +19767,7 @@
       <c r="A1193" s="4" t="n">
         <v>1189</v>
       </c>
-      <c r="B1193" s="3" t="s">
+      <c r="B1193" s="0" t="s">
         <v>1196</v>
       </c>
       <c r="C1193" s="3" t="n">
@@ -19877,7 +19778,7 @@
       <c r="A1194" s="4" t="n">
         <v>1190</v>
       </c>
-      <c r="B1194" s="3" t="s">
+      <c r="B1194" s="0" t="s">
         <v>1197</v>
       </c>
       <c r="C1194" s="3" t="n">
@@ -19888,7 +19789,7 @@
       <c r="A1195" s="4" t="n">
         <v>1191</v>
       </c>
-      <c r="B1195" s="3" t="s">
+      <c r="B1195" s="0" t="s">
         <v>1198</v>
       </c>
       <c r="C1195" s="3" t="n">
@@ -19899,7 +19800,7 @@
       <c r="A1196" s="4" t="n">
         <v>1192</v>
       </c>
-      <c r="B1196" s="3" t="s">
+      <c r="B1196" s="0" t="s">
         <v>1199</v>
       </c>
       <c r="C1196" s="3" t="n">
@@ -19910,7 +19811,7 @@
       <c r="A1197" s="4" t="n">
         <v>1193</v>
       </c>
-      <c r="B1197" s="3" t="s">
+      <c r="B1197" s="0" t="s">
         <v>1200</v>
       </c>
       <c r="C1197" s="3" t="n">
@@ -19925,7 +19826,7 @@
         <v>1201</v>
       </c>
       <c r="C1198" s="3" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19936,7 +19837,7 @@
         <v>1202</v>
       </c>
       <c r="C1199" s="3" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19947,7 +19848,7 @@
         <v>1203</v>
       </c>
       <c r="C1200" s="3" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19980,7 +19881,7 @@
         <v>1206</v>
       </c>
       <c r="C1203" s="3" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19991,7 +19892,7 @@
         <v>1207</v>
       </c>
       <c r="C1204" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1205" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20002,7 +19903,7 @@
         <v>1208</v>
       </c>
       <c r="C1205" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1206" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20013,7 +19914,7 @@
         <v>1209</v>
       </c>
       <c r="C1206" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20024,7 +19925,7 @@
         <v>1210</v>
       </c>
       <c r="C1207" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1208" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20035,7 +19936,7 @@
         <v>1211</v>
       </c>
       <c r="C1208" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1209" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20046,7 +19947,7 @@
         <v>1212</v>
       </c>
       <c r="C1209" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1210" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20057,7 +19958,7 @@
         <v>1213</v>
       </c>
       <c r="C1210" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1211" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20068,7 +19969,7 @@
         <v>1214</v>
       </c>
       <c r="C1211" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1212" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20079,7 +19980,7 @@
         <v>1215</v>
       </c>
       <c r="C1212" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20090,7 +19991,7 @@
         <v>1216</v>
       </c>
       <c r="C1213" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1214" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20101,7 +20002,7 @@
         <v>1217</v>
       </c>
       <c r="C1214" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1215" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20112,7 +20013,7 @@
         <v>1218</v>
       </c>
       <c r="C1215" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20123,7 +20024,7 @@
         <v>1219</v>
       </c>
       <c r="C1216" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1217" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20134,7 +20035,7 @@
         <v>1220</v>
       </c>
       <c r="C1217" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1218" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20145,7 +20046,7 @@
         <v>1221</v>
       </c>
       <c r="C1218" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1219" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20156,7 +20057,7 @@
         <v>1222</v>
       </c>
       <c r="C1219" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1220" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20167,7 +20068,7 @@
         <v>1223</v>
       </c>
       <c r="C1220" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1221" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20178,7 +20079,7 @@
         <v>1224</v>
       </c>
       <c r="C1221" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1222" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20189,7 +20090,7 @@
         <v>1225</v>
       </c>
       <c r="C1222" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1223" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20200,7 +20101,7 @@
         <v>1226</v>
       </c>
       <c r="C1223" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1224" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20211,7 +20112,7 @@
         <v>1227</v>
       </c>
       <c r="C1224" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1225" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20222,7 +20123,7 @@
         <v>1228</v>
       </c>
       <c r="C1225" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1226" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20233,7 +20134,7 @@
         <v>1229</v>
       </c>
       <c r="C1226" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1227" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20244,7 +20145,7 @@
         <v>1230</v>
       </c>
       <c r="C1227" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20255,7 +20156,7 @@
         <v>1231</v>
       </c>
       <c r="C1228" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20266,7 +20167,7 @@
         <v>1232</v>
       </c>
       <c r="C1229" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20277,7 +20178,7 @@
         <v>1233</v>
       </c>
       <c r="C1230" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1231" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20288,7 +20189,7 @@
         <v>1234</v>
       </c>
       <c r="C1231" s="3" t="n">
-        <v>2007</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1232" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20299,7 +20200,7 @@
         <v>1235</v>
       </c>
       <c r="C1232" s="3" t="n">
-        <v>2008</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1233" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20310,7 +20211,7 @@
         <v>1236</v>
       </c>
       <c r="C1233" s="3" t="n">
-        <v>2008</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1234" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20321,7 +20222,7 @@
         <v>1237</v>
       </c>
       <c r="C1234" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1235" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20332,7 +20233,7 @@
         <v>1238</v>
       </c>
       <c r="C1235" s="3" t="n">
-        <v>2009</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1236" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20343,7 +20244,7 @@
         <v>1239</v>
       </c>
       <c r="C1236" s="3" t="n">
-        <v>2010</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1237" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20673,7 +20574,7 @@
         <v>1269</v>
       </c>
       <c r="C1266" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1267" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20684,7 +20585,7 @@
         <v>1270</v>
       </c>
       <c r="C1267" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1268" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20695,7 +20596,7 @@
         <v>1271</v>
       </c>
       <c r="C1268" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1269" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20706,7 +20607,7 @@
         <v>1272</v>
       </c>
       <c r="C1269" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1270" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20717,7 +20618,7 @@
         <v>1273</v>
       </c>
       <c r="C1270" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1271" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20728,7 +20629,7 @@
         <v>1274</v>
       </c>
       <c r="C1271" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1272" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20739,7 +20640,7 @@
         <v>1275</v>
       </c>
       <c r="C1272" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1273" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20750,7 +20651,7 @@
         <v>1276</v>
       </c>
       <c r="C1273" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1274" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20761,7 +20662,7 @@
         <v>1277</v>
       </c>
       <c r="C1274" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1275" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20772,7 +20673,7 @@
         <v>1278</v>
       </c>
       <c r="C1275" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1276" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20783,7 +20684,7 @@
         <v>1279</v>
       </c>
       <c r="C1276" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1277" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20794,7 +20695,7 @@
         <v>1280</v>
       </c>
       <c r="C1277" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1278" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20805,7 +20706,7 @@
         <v>1281</v>
       </c>
       <c r="C1278" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1279" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20816,7 +20717,7 @@
         <v>1282</v>
       </c>
       <c r="C1279" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1280" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20827,7 +20728,7 @@
         <v>1283</v>
       </c>
       <c r="C1280" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1281" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20838,7 +20739,7 @@
         <v>1284</v>
       </c>
       <c r="C1281" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1282" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20849,7 +20750,7 @@
         <v>1285</v>
       </c>
       <c r="C1282" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1283" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20860,7 +20761,7 @@
         <v>1286</v>
       </c>
       <c r="C1283" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1284" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20871,7 +20772,7 @@
         <v>1287</v>
       </c>
       <c r="C1284" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1285" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20882,7 +20783,7 @@
         <v>1288</v>
       </c>
       <c r="C1285" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1286" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20893,7 +20794,7 @@
         <v>1289</v>
       </c>
       <c r="C1286" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1287" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20904,7 +20805,7 @@
         <v>1290</v>
       </c>
       <c r="C1287" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1288" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20915,7 +20816,7 @@
         <v>1291</v>
       </c>
       <c r="C1288" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1289" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20926,7 +20827,7 @@
         <v>1292</v>
       </c>
       <c r="C1289" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1290" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20937,7 +20838,7 @@
         <v>1293</v>
       </c>
       <c r="C1290" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1291" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20948,7 +20849,7 @@
         <v>1294</v>
       </c>
       <c r="C1291" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1292" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20959,7 +20860,7 @@
         <v>1295</v>
       </c>
       <c r="C1292" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1293" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20970,7 +20871,7 @@
         <v>1296</v>
       </c>
       <c r="C1293" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1294" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20981,7 +20882,7 @@
         <v>1297</v>
       </c>
       <c r="C1294" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1295" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20992,7 +20893,7 @@
         <v>1298</v>
       </c>
       <c r="C1295" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1296" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21003,7 +20904,7 @@
         <v>1299</v>
       </c>
       <c r="C1296" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1297" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21014,7 +20915,7 @@
         <v>1300</v>
       </c>
       <c r="C1297" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1298" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21025,7 +20926,7 @@
         <v>1301</v>
       </c>
       <c r="C1298" s="3" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1299" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21355,7 +21256,7 @@
         <v>1331</v>
       </c>
       <c r="C1328" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1329" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21366,7 +21267,7 @@
         <v>1332</v>
       </c>
       <c r="C1329" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1330" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21377,7 +21278,7 @@
         <v>1333</v>
       </c>
       <c r="C1330" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1331" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21388,7 +21289,7 @@
         <v>1334</v>
       </c>
       <c r="C1331" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1332" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21399,7 +21300,7 @@
         <v>1335</v>
       </c>
       <c r="C1332" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1333" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21410,7 +21311,7 @@
         <v>1336</v>
       </c>
       <c r="C1333" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1334" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21421,7 +21322,7 @@
         <v>1337</v>
       </c>
       <c r="C1334" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1335" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21432,7 +21333,7 @@
         <v>1338</v>
       </c>
       <c r="C1335" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1336" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21443,7 +21344,7 @@
         <v>1339</v>
       </c>
       <c r="C1336" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1337" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21454,7 +21355,7 @@
         <v>1340</v>
       </c>
       <c r="C1337" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1338" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21465,7 +21366,7 @@
         <v>1341</v>
       </c>
       <c r="C1338" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1339" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21476,7 +21377,7 @@
         <v>1342</v>
       </c>
       <c r="C1339" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1340" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21487,7 +21388,7 @@
         <v>1343</v>
       </c>
       <c r="C1340" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1341" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21498,7 +21399,7 @@
         <v>1344</v>
       </c>
       <c r="C1341" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1342" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21509,7 +21410,7 @@
         <v>1345</v>
       </c>
       <c r="C1342" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1343" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21520,7 +21421,7 @@
         <v>1346</v>
       </c>
       <c r="C1343" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1344" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21531,7 +21432,7 @@
         <v>1347</v>
       </c>
       <c r="C1344" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1345" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21542,7 +21443,7 @@
         <v>1348</v>
       </c>
       <c r="C1345" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1346" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21553,7 +21454,7 @@
         <v>1349</v>
       </c>
       <c r="C1346" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1347" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21564,7 +21465,7 @@
         <v>1350</v>
       </c>
       <c r="C1347" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1348" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21575,7 +21476,7 @@
         <v>1351</v>
       </c>
       <c r="C1348" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1349" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21586,7 +21487,7 @@
         <v>1352</v>
       </c>
       <c r="C1349" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1350" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21597,7 +21498,7 @@
         <v>1353</v>
       </c>
       <c r="C1350" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1351" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21608,7 +21509,7 @@
         <v>1354</v>
       </c>
       <c r="C1351" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1352" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21619,7 +21520,7 @@
         <v>1355</v>
       </c>
       <c r="C1352" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1353" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21630,7 +21531,7 @@
         <v>1356</v>
       </c>
       <c r="C1353" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1354" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21641,7 +21542,7 @@
         <v>1357</v>
       </c>
       <c r="C1354" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1355" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21652,7 +21553,7 @@
         <v>1358</v>
       </c>
       <c r="C1355" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1356" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21663,7 +21564,7 @@
         <v>1359</v>
       </c>
       <c r="C1356" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1357" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21674,7 +21575,7 @@
         <v>1360</v>
       </c>
       <c r="C1357" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1358" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21685,7 +21586,7 @@
         <v>1361</v>
       </c>
       <c r="C1358" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1359" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21696,7 +21597,7 @@
         <v>1362</v>
       </c>
       <c r="C1359" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1360" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21707,7 +21608,7 @@
         <v>1363</v>
       </c>
       <c r="C1360" s="3" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1361" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22037,7 +21938,7 @@
         <v>1393</v>
       </c>
       <c r="C1390" s="3" t="n">
-        <v>3004</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="1391" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22048,7 +21949,7 @@
         <v>1394</v>
       </c>
       <c r="C1391" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1392" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22059,7 +21960,7 @@
         <v>1395</v>
       </c>
       <c r="C1392" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1393" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22070,7 +21971,7 @@
         <v>1396</v>
       </c>
       <c r="C1393" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1394" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22081,7 +21982,7 @@
         <v>1397</v>
       </c>
       <c r="C1394" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1395" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22092,7 +21993,7 @@
         <v>1398</v>
       </c>
       <c r="C1395" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1396" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22103,7 +22004,7 @@
         <v>1399</v>
       </c>
       <c r="C1396" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1397" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22114,7 +22015,7 @@
         <v>1400</v>
       </c>
       <c r="C1397" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1398" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22125,7 +22026,7 @@
         <v>1401</v>
       </c>
       <c r="C1398" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1399" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22136,7 +22037,7 @@
         <v>1402</v>
       </c>
       <c r="C1399" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1400" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22147,7 +22048,7 @@
         <v>1403</v>
       </c>
       <c r="C1400" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1401" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22158,7 +22059,7 @@
         <v>1404</v>
       </c>
       <c r="C1401" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1402" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22169,7 +22070,7 @@
         <v>1405</v>
       </c>
       <c r="C1402" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1403" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22180,7 +22081,7 @@
         <v>1406</v>
       </c>
       <c r="C1403" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1404" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22191,7 +22092,7 @@
         <v>1407</v>
       </c>
       <c r="C1404" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1405" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22202,7 +22103,7 @@
         <v>1408</v>
       </c>
       <c r="C1405" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1406" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22213,7 +22114,7 @@
         <v>1409</v>
       </c>
       <c r="C1406" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1407" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22224,7 +22125,7 @@
         <v>1410</v>
       </c>
       <c r="C1407" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1408" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22235,7 +22136,7 @@
         <v>1411</v>
       </c>
       <c r="C1408" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1409" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22246,7 +22147,7 @@
         <v>1412</v>
       </c>
       <c r="C1409" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1410" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22257,7 +22158,7 @@
         <v>1413</v>
       </c>
       <c r="C1410" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1411" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22268,7 +22169,7 @@
         <v>1414</v>
       </c>
       <c r="C1411" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1412" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22279,7 +22180,7 @@
         <v>1415</v>
       </c>
       <c r="C1412" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1413" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22290,7 +22191,7 @@
         <v>1416</v>
       </c>
       <c r="C1413" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1414" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22301,7 +22202,7 @@
         <v>1417</v>
       </c>
       <c r="C1414" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1415" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22312,7 +22213,7 @@
         <v>1418</v>
       </c>
       <c r="C1415" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1416" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22323,7 +22224,7 @@
         <v>1419</v>
       </c>
       <c r="C1416" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1417" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22334,7 +22235,7 @@
         <v>1420</v>
       </c>
       <c r="C1417" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1418" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22345,7 +22246,7 @@
         <v>1421</v>
       </c>
       <c r="C1418" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1419" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22356,7 +22257,7 @@
         <v>1422</v>
       </c>
       <c r="C1419" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1420" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22367,7 +22268,7 @@
         <v>1423</v>
       </c>
       <c r="C1420" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1421" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22378,7 +22279,7 @@
         <v>1424</v>
       </c>
       <c r="C1421" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1422" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22389,7 +22290,7 @@
         <v>1425</v>
       </c>
       <c r="C1422" s="3" t="n">
-        <v>3004</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1423" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22400,7 +22301,7 @@
         <v>1426</v>
       </c>
       <c r="C1423" s="3" t="n">
-        <v>3005</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1424" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22730,7 +22631,7 @@
         <v>1456</v>
       </c>
       <c r="C1453" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1454" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22741,7 +22642,7 @@
         <v>1457</v>
       </c>
       <c r="C1454" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1455" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22752,7 +22653,7 @@
         <v>1458</v>
       </c>
       <c r="C1455" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1456" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22763,7 +22664,7 @@
         <v>1459</v>
       </c>
       <c r="C1456" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1457" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22774,7 +22675,7 @@
         <v>1460</v>
       </c>
       <c r="C1457" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1458" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22785,7 +22686,7 @@
         <v>1461</v>
       </c>
       <c r="C1458" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1459" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22796,7 +22697,7 @@
         <v>1462</v>
       </c>
       <c r="C1459" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1460" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22807,7 +22708,7 @@
         <v>1463</v>
       </c>
       <c r="C1460" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1461" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22818,7 +22719,7 @@
         <v>1464</v>
       </c>
       <c r="C1461" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1462" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22829,7 +22730,7 @@
         <v>1465</v>
       </c>
       <c r="C1462" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1463" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22840,7 +22741,7 @@
         <v>1466</v>
       </c>
       <c r="C1463" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1464" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22851,7 +22752,7 @@
         <v>1467</v>
       </c>
       <c r="C1464" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1465" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22862,7 +22763,7 @@
         <v>1468</v>
       </c>
       <c r="C1465" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1466" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22873,7 +22774,7 @@
         <v>1469</v>
       </c>
       <c r="C1466" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1467" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22884,7 +22785,7 @@
         <v>1470</v>
       </c>
       <c r="C1467" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1468" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22895,7 +22796,7 @@
         <v>1471</v>
       </c>
       <c r="C1468" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1469" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22906,7 +22807,7 @@
         <v>1472</v>
       </c>
       <c r="C1469" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1470" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22917,7 +22818,7 @@
         <v>1473</v>
       </c>
       <c r="C1470" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1471" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22928,7 +22829,7 @@
         <v>1474</v>
       </c>
       <c r="C1471" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1472" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22939,7 +22840,7 @@
         <v>1475</v>
       </c>
       <c r="C1472" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1473" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22950,7 +22851,7 @@
         <v>1476</v>
       </c>
       <c r="C1473" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1474" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22961,7 +22862,7 @@
         <v>1477</v>
       </c>
       <c r="C1474" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1475" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22972,7 +22873,7 @@
         <v>1478</v>
       </c>
       <c r="C1475" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1476" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22983,7 +22884,7 @@
         <v>1479</v>
       </c>
       <c r="C1476" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1477" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22994,7 +22895,7 @@
         <v>1480</v>
       </c>
       <c r="C1477" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1478" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23005,7 +22906,7 @@
         <v>1481</v>
       </c>
       <c r="C1478" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1479" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23016,7 +22917,7 @@
         <v>1482</v>
       </c>
       <c r="C1479" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1480" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23027,7 +22928,7 @@
         <v>1483</v>
       </c>
       <c r="C1480" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1481" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23038,7 +22939,7 @@
         <v>1484</v>
       </c>
       <c r="C1481" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1482" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23049,7 +22950,7 @@
         <v>1485</v>
       </c>
       <c r="C1482" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1483" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23060,7 +22961,7 @@
         <v>1486</v>
       </c>
       <c r="C1483" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1484" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23071,7 +22972,7 @@
         <v>1487</v>
       </c>
       <c r="C1484" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1485" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23082,7 +22983,7 @@
         <v>1488</v>
       </c>
       <c r="C1485" s="3" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1486" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23412,372 +23313,42 @@
         <v>1518</v>
       </c>
       <c r="C1515" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1516" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1516" s="4" t="n">
-        <v>1512</v>
-      </c>
-      <c r="B1516" s="3" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C1516" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1517" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1517" s="4" t="n">
-        <v>1513</v>
-      </c>
-      <c r="B1517" s="3" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C1517" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1518" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1518" s="4" t="n">
-        <v>1514</v>
-      </c>
-      <c r="B1518" s="3" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C1518" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1519" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1519" s="4" t="n">
-        <v>1515</v>
-      </c>
-      <c r="B1519" s="3" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C1519" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1520" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1520" s="4" t="n">
-        <v>1516</v>
-      </c>
-      <c r="B1520" s="3" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C1520" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1521" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1521" s="4" t="n">
-        <v>1517</v>
-      </c>
-      <c r="B1521" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C1521" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1522" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1522" s="4" t="n">
-        <v>1518</v>
-      </c>
-      <c r="B1522" s="3" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C1522" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1523" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1523" s="4" t="n">
-        <v>1519</v>
-      </c>
-      <c r="B1523" s="3" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C1523" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1524" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1524" s="4" t="n">
-        <v>1520</v>
-      </c>
-      <c r="B1524" s="3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C1524" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1525" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1525" s="4" t="n">
-        <v>1521</v>
-      </c>
-      <c r="B1525" s="3" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C1525" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1526" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1526" s="4" t="n">
-        <v>1522</v>
-      </c>
-      <c r="B1526" s="3" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C1526" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1527" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1527" s="4" t="n">
-        <v>1523</v>
-      </c>
-      <c r="B1527" s="3" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C1527" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1528" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1528" s="4" t="n">
-        <v>1524</v>
-      </c>
-      <c r="B1528" s="3" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C1528" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1529" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1529" s="4" t="n">
-        <v>1525</v>
-      </c>
-      <c r="B1529" s="3" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C1529" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1530" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1530" s="4" t="n">
-        <v>1526</v>
-      </c>
-      <c r="B1530" s="3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C1530" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1531" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1531" s="4" t="n">
-        <v>1527</v>
-      </c>
-      <c r="B1531" s="3" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C1531" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1532" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1532" s="4" t="n">
-        <v>1528</v>
-      </c>
-      <c r="B1532" s="3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C1532" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1533" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1533" s="4" t="n">
-        <v>1529</v>
-      </c>
-      <c r="B1533" s="3" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C1533" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1534" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1534" s="4" t="n">
-        <v>1530</v>
-      </c>
-      <c r="B1534" s="3" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C1534" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1535" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1535" s="4" t="n">
-        <v>1531</v>
-      </c>
-      <c r="B1535" s="3" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C1535" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1536" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1536" s="4" t="n">
-        <v>1532</v>
-      </c>
-      <c r="B1536" s="3" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C1536" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1537" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1537" s="4" t="n">
-        <v>1533</v>
-      </c>
-      <c r="B1537" s="3" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C1537" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1538" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1538" s="4" t="n">
-        <v>1534</v>
-      </c>
-      <c r="B1538" s="3" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C1538" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1539" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1539" s="4" t="n">
-        <v>1535</v>
-      </c>
-      <c r="B1539" s="3" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C1539" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1540" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1540" s="4" t="n">
-        <v>1536</v>
-      </c>
-      <c r="B1540" s="3" t="s">
-        <v>1543</v>
-      </c>
-      <c r="C1540" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1541" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1541" s="4" t="n">
-        <v>1537</v>
-      </c>
-      <c r="B1541" s="3" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C1541" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1542" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1542" s="4" t="n">
-        <v>1538</v>
-      </c>
-      <c r="B1542" s="3" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C1542" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1543" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1543" s="4" t="n">
-        <v>1539</v>
-      </c>
-      <c r="B1543" s="3" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C1543" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1544" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1544" s="4" t="n">
-        <v>1540</v>
-      </c>
-      <c r="B1544" s="3" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C1544" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1545" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1545" s="4" t="n">
-        <v>1541</v>
-      </c>
-      <c r="B1545" s="3" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C1545" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1546" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1546" s="4" t="n">
-        <v>1542</v>
-      </c>
-      <c r="B1546" s="3" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C1546" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1547" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1547" s="4" t="n">
-        <v>1543</v>
-      </c>
-      <c r="B1547" s="3" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C1547" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1548" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1548" s="4" t="n">
-        <v>1544</v>
-      </c>
-      <c r="B1548" s="3" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C1548" s="3" t="n">
         <v>3008</v>
       </c>
     </row>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/pet-simulator/Excel/DropPoint_资源生成点表.xlsx
+++ b/pet-simulator/Excel/DropPoint_资源生成点表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="1928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="1614">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -3446,13 +3446,10 @@
     <t xml:space="preserve">-37177|93965|78633</t>
   </si>
   <si>
-    <t xml:space="preserve">-100|-51768|175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5317|-37213|347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7700|114015|-14056</t>
+    <t xml:space="preserve">440.43|-48850|295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7966|118688|66010</t>
   </si>
   <si>
     <t xml:space="preserve">-31141|120733|79629</t>
@@ -4874,963 +4871,25 @@
     <t xml:space="preserve">-16711.59|96659.08|93366.95</t>
   </si>
   <si>
-    <t xml:space="preserve">3321.05|101656.36|73130.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7392|81823|-16265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9002|80538|-16265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17718|97989|-281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16338.5|105409|93482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115013.55|-30644.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115178.55|-34614.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112368.55|-34959.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116163.55|-31154.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113948.55|-31154.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113583.55|-30684.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114253.55|-30369.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112953.55|-30599.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116518.55|-30684.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116753.55|-32114.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115633.55|-31364.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112553.55|-32004.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112828.55|-31474.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113398.55|-31694.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114453.55|-31349.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114673.55|-32084.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114023.55|-31979.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113698.55|-32299.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116063.55|-31869.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116358.55|-32504.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116628.55|-31699.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116703.55|-33394.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115498.55|-32164.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115113.55|-31319.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115113.55|-33509.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115803.55|-32979.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116278.55|-33639.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115023.55|-32524.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114798.55|-33989.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114513.55|-32979.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112888.55|-32499.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113158.55|-33139.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113683.55|-32944.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114048.55|-33714.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112643.55|-33714.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112423.55|-32989.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112423.55|-34334.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113523.55|-33709.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115908.55|-34544.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116488.55|-34339.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115593.55|-33904.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116633.55|-35269.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115738.55|-35034.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114998.55|-35319.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116993.55|-32809.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114153.55|-32629.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113333.55|-30079.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116183.55|-30079.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115023.55|-29964.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116188.55|-35589.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112718.55|-35589.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113368.55|-35589.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113703.55|-34769.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113083.55|-34979.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112438.55|-35984.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116658.55|-35984.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115528.55|-35734.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114503.55|-34584.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114483.55|-35739.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114078.55|-35454.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116888.55|-34439.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113213.55|-34324.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115288.55|-37259.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115453.55|-41229.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112723.55|-41574.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116438.55|-37769.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114223.55|-37769.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113858.55|-37299.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114528.55|-36984.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113228.55|-37214.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116273.55|-37299.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113523.55|-37774.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115628.55|-37844.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112828.55|-38619.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113103.55|-38089.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113673.55|-38309.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114693.55|-38169.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114948.55|-38699.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114298.55|-38594.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113973.55|-38914.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116338.55|-38484.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116633.55|-39119.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115258.55|-38314.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116088.55|-40009.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115773.55|-38779.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114723.55|-37589.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115388.55|-40124.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115618.55|-39594.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116553.55|-40254.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115298.55|-39139.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115073.55|-40604.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114788.55|-39594.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113163.55|-39114.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113433.55|-39754.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113958.55|-39559.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114323.55|-40329.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112918.55|-40329.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112868.55|-39604.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112818.55|-40949.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113798.55|-40324.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116183.55|-41159.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116763.55|-40954.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115868.55|-40519.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116658.55|-41404.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116013.55|-41649.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115273.55|-41934.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112743.55|-37419.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116028.55|-39349.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113608.55|-36694.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116458.55|-36694.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115298.55|-36684.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116463.55|-42204.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112993.55|-42204.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113643.55|-42204.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113978.55|-41384.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113358.55|-41594.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112713.55|-42599.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113948.55|-42599.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115803.55|-42349.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114778.55|-41199.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114758.55|-42354.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114353.55|-42069.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114128.55|-40894.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113488.55|-40939.79|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114742.1|-43719.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114137.1|-44269.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114002.1|-49089.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115422.1|-44559.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116717.1|-45089.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116397.1|-44089.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116397.1|-45814.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113767.1|-45814.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112777.1|-43809.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116012.1|-47669.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115562.1|-45664.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113332.1|-45239.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116137.1|-46949.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114877.1|-46949.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113592.1|-46949.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114267.1|-47139.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114337.1|-49564.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115947.1|-49084.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116097.1|-48544.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112377.1|-47384.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113107.1|-45809.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114412.1|-45834.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113692.1|-43644.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115817.1|-49589.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115142.1|-48709.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113472.1|-46454.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113572.1|-48139.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114987.1|-48139.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116377.1|-48139.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116542.1|-48659.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114417.1|-48619.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114417.1|-46474.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113162.1|-47204.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112722.1|-46474.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113017.1|-44649.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113457.1|-44069.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113582.1|-49039.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115442.1|-47444.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116602.1|-47444.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116732.1|-46374.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116002.1|-46369.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116272.1|-44884.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115782.1|-45109.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115877.1|-44299.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114917.1|-44749.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113832.1|-44904.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114297.1|-45249.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115177.1|-46009.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115437.1|-46494.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115602.1|-48319.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114597.1|-47819.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114052.1|-47589.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112957.1|-47849.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112927.1|-48549.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112602.1|-49124.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115377.1|-49124.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116702.1|-49389.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114837.1|-49389.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113347.1|-49389.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112617.1|-45384.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116797.1|-44454.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114957.1|-45434.83|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110591|-46283|9807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114696.83|-50374.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114091.83|-50924.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113956.83|-55495.48|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115074.59|-50874.61|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116763.97|-52094.06|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116351.83|-50744.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116351.83|-52469.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113721.83|-52469.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112731.83|-50464.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115966.83|-54324.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115753.92|-52319.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113286.83|-51894.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116091.83|-53604.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114831.83|-53604.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113729.48|-53604.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114237.13|-53985.19|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114291.83|-56219.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115901.83|-55819.41|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116138.85|-55410.76|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112579.73|-53949.67|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113061.83|-52464.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114366.83|-52489.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113646.83|-50299.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115771.83|-56244.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114930.38|-55182.6|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113426.83|-53109.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113526.83|-54794.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115294.93|-51448.07|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116331.83|-54794.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116606.85|-55314.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114371.83|-55274.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114371.83|-53129.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113383.48|-54035.08|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112676.83|-53129.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112971.83|-51304.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113411.83|-50724.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112794.98|-56469.01|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115396.83|-54099.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116556.83|-54099.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116686.83|-53029.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115956.83|-53024.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116357.37|-51539.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115736.83|-51764.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115831.83|-50954.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114456.44|-51404.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113675.62|-51338.99|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114251.83|-51904.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115131.83|-52664.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115391.83|-53149.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115556.83|-54974.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114717.25|-54474.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114006.83|-54540.42|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112911.83|-54504.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112881.83|-55204.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112556.83|-55779.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115165.38|-55597.6|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116656.83|-56044.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115002.63|-56270.07|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113301.83|-56044.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112571.83|-52039.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116751.83|-51109.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114911.83|-52089.69|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114604.63|-57162.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113999.63|-57712.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113864.63|-62489.68|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114982.39|-57662.62|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116671.77|-58882.07|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116259.63|-57162.24|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116259.63|-59257.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113629.63|-59257.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112746.48|-57201.57|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115874.63|-61112.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115661.73|-59107.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113194.63|-58682.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115999.63|-60392.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114739.63|-60392.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113637.28|-60392.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114144.93|-60773.2|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114199.63|-63007.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116003.86|-62607.42|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116046.66|-62198.77|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112487.54|-60737.68|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112969.63|-59252.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114274.63|-59277.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113554.63|-57087.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115873.86|-63032.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114838.18|-62073.56|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113334.63|-59897.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113434.63|-61582.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115202.73|-58236.08|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116239.63|-61582.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116728.59|-61482.94|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114279.63|-62062.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114279.63|-59917.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113291.29|-60823.09|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112584.63|-59917.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112879.63|-58092.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113319.63|-57512.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113392.84|-62925.2|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115304.63|-60887.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116464.63|-60887.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116594.63|-59817.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115864.63|-59812.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116265.17|-58327.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115644.63|-58552.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115739.63|-57742.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114582.49|-58026.61|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113583.42|-58127|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114159.63|-58692.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115039.63|-59452.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115299.63|-59937.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115464.63|-61762.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114625.05|-61262.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113914.63|-61328.43|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112819.63|-61292.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112789.63|-61992.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113256.07|-62347.47|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115243.75|-62425.74|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116558.86|-62732.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114910.43|-63058.08|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112747.18|-62832.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112479.63|-58827.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116659.63|-57527.24|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114819.63|-58877.7|9802.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110552|-60132|9804</t>
+    <t xml:space="preserve">1681.57|98581.88|73130.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8035.7|83434|77570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16210|95290|93577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16330|105395|93552</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -5901,7 +4960,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5936,6 +4995,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
         <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -5973,7 +5038,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6022,8 +5087,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -6082,7 +5159,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF70AD47"/>
       <rgbColor rgb="FF003366"/>
@@ -6275,10 +5352,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1924"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1599" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1611" activeCellId="0" sqref="B1611"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1120" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1135" activeCellId="0" sqref="B1135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20455,11 +19532,11 @@
       <c r="A1132" s="3" t="n">
         <v>1128</v>
       </c>
-      <c r="B1132" s="5" t="s">
+      <c r="B1132" s="12" t="s">
         <v>1135</v>
       </c>
       <c r="C1132" s="5" t="n">
-        <v>1009</v>
+        <v>3001</v>
       </c>
       <c r="D1132" s="5"/>
       <c r="E1132" s="5"/>
@@ -20468,11 +19545,11 @@
       <c r="A1133" s="3" t="n">
         <v>1129</v>
       </c>
-      <c r="B1133" s="5" t="s">
+      <c r="B1133" s="12" t="s">
         <v>1136</v>
       </c>
       <c r="C1133" s="5" t="n">
-        <v>1011</v>
+        <v>3002</v>
       </c>
       <c r="D1133" s="5"/>
       <c r="E1133" s="5"/>
@@ -20481,14 +19558,12 @@
       <c r="A1134" s="3" t="n">
         <v>1130</v>
       </c>
-      <c r="B1134" s="5" t="s">
+      <c r="B1134" s="11" t="s">
         <v>1137</v>
       </c>
-      <c r="C1134" s="5" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D1134" s="5"/>
-      <c r="E1134" s="5"/>
+      <c r="C1134" s="3" t="n">
+        <v>2006</v>
+      </c>
     </row>
     <row r="1135" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1135" s="3" t="n">
@@ -22133,18 +21208,18 @@
       <c r="A1284" s="3" t="n">
         <v>1280</v>
       </c>
-      <c r="B1284" s="11" t="s">
+      <c r="B1284" s="13" t="s">
         <v>1287</v>
       </c>
       <c r="C1284" s="3" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1285" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1285" s="3" t="n">
         <v>1281</v>
       </c>
-      <c r="B1285" s="12" t="s">
+      <c r="B1285" s="13" t="s">
         <v>1288</v>
       </c>
       <c r="C1285" s="3" t="n">
@@ -22155,7 +21230,7 @@
       <c r="A1286" s="3" t="n">
         <v>1282</v>
       </c>
-      <c r="B1286" s="12" t="s">
+      <c r="B1286" s="13" t="s">
         <v>1289</v>
       </c>
       <c r="C1286" s="3" t="n">
@@ -22166,7 +21241,7 @@
       <c r="A1287" s="3" t="n">
         <v>1283</v>
       </c>
-      <c r="B1287" s="12" t="s">
+      <c r="B1287" s="13" t="s">
         <v>1290</v>
       </c>
       <c r="C1287" s="3" t="n">
@@ -22177,7 +21252,7 @@
       <c r="A1288" s="3" t="n">
         <v>1284</v>
       </c>
-      <c r="B1288" s="12" t="s">
+      <c r="B1288" s="13" t="s">
         <v>1291</v>
       </c>
       <c r="C1288" s="3" t="n">
@@ -22188,7 +21263,7 @@
       <c r="A1289" s="3" t="n">
         <v>1285</v>
       </c>
-      <c r="B1289" s="12" t="s">
+      <c r="B1289" s="13" t="s">
         <v>1292</v>
       </c>
       <c r="C1289" s="3" t="n">
@@ -22199,7 +21274,7 @@
       <c r="A1290" s="3" t="n">
         <v>1286</v>
       </c>
-      <c r="B1290" s="12" t="s">
+      <c r="B1290" s="13" t="s">
         <v>1293</v>
       </c>
       <c r="C1290" s="3" t="n">
@@ -22210,7 +21285,7 @@
       <c r="A1291" s="3" t="n">
         <v>1287</v>
       </c>
-      <c r="B1291" s="12" t="s">
+      <c r="B1291" s="13" t="s">
         <v>1294</v>
       </c>
       <c r="C1291" s="3" t="n">
@@ -22221,7 +21296,7 @@
       <c r="A1292" s="3" t="n">
         <v>1288</v>
       </c>
-      <c r="B1292" s="12" t="s">
+      <c r="B1292" s="13" t="s">
         <v>1295</v>
       </c>
       <c r="C1292" s="3" t="n">
@@ -22232,7 +21307,7 @@
       <c r="A1293" s="3" t="n">
         <v>1289</v>
       </c>
-      <c r="B1293" s="12" t="s">
+      <c r="B1293" s="13" t="s">
         <v>1296</v>
       </c>
       <c r="C1293" s="3" t="n">
@@ -22243,7 +21318,7 @@
       <c r="A1294" s="3" t="n">
         <v>1290</v>
       </c>
-      <c r="B1294" s="12" t="s">
+      <c r="B1294" s="13" t="s">
         <v>1297</v>
       </c>
       <c r="C1294" s="3" t="n">
@@ -22254,7 +21329,7 @@
       <c r="A1295" s="3" t="n">
         <v>1291</v>
       </c>
-      <c r="B1295" s="12" t="s">
+      <c r="B1295" s="13" t="s">
         <v>1298</v>
       </c>
       <c r="C1295" s="3" t="n">
@@ -22265,7 +21340,7 @@
       <c r="A1296" s="3" t="n">
         <v>1292</v>
       </c>
-      <c r="B1296" s="12" t="s">
+      <c r="B1296" s="13" t="s">
         <v>1299</v>
       </c>
       <c r="C1296" s="3" t="n">
@@ -22276,7 +21351,7 @@
       <c r="A1297" s="3" t="n">
         <v>1293</v>
       </c>
-      <c r="B1297" s="12" t="s">
+      <c r="B1297" s="13" t="s">
         <v>1300</v>
       </c>
       <c r="C1297" s="3" t="n">
@@ -22287,7 +21362,7 @@
       <c r="A1298" s="3" t="n">
         <v>1294</v>
       </c>
-      <c r="B1298" s="12" t="s">
+      <c r="B1298" s="13" t="s">
         <v>1301</v>
       </c>
       <c r="C1298" s="3" t="n">
@@ -22298,7 +21373,7 @@
       <c r="A1299" s="3" t="n">
         <v>1295</v>
       </c>
-      <c r="B1299" s="12" t="s">
+      <c r="B1299" s="13" t="s">
         <v>1302</v>
       </c>
       <c r="C1299" s="3" t="n">
@@ -22309,7 +21384,7 @@
       <c r="A1300" s="3" t="n">
         <v>1296</v>
       </c>
-      <c r="B1300" s="12" t="s">
+      <c r="B1300" s="13" t="s">
         <v>1303</v>
       </c>
       <c r="C1300" s="3" t="n">
@@ -22320,7 +21395,7 @@
       <c r="A1301" s="3" t="n">
         <v>1297</v>
       </c>
-      <c r="B1301" s="12" t="s">
+      <c r="B1301" s="13" t="s">
         <v>1304</v>
       </c>
       <c r="C1301" s="3" t="n">
@@ -22331,7 +21406,7 @@
       <c r="A1302" s="3" t="n">
         <v>1298</v>
       </c>
-      <c r="B1302" s="12" t="s">
+      <c r="B1302" s="13" t="s">
         <v>1305</v>
       </c>
       <c r="C1302" s="3" t="n">
@@ -22342,7 +21417,7 @@
       <c r="A1303" s="3" t="n">
         <v>1299</v>
       </c>
-      <c r="B1303" s="12" t="s">
+      <c r="B1303" s="13" t="s">
         <v>1306</v>
       </c>
       <c r="C1303" s="3" t="n">
@@ -22353,7 +21428,7 @@
       <c r="A1304" s="3" t="n">
         <v>1300</v>
       </c>
-      <c r="B1304" s="12" t="s">
+      <c r="B1304" s="13" t="s">
         <v>1307</v>
       </c>
       <c r="C1304" s="3" t="n">
@@ -22364,7 +21439,7 @@
       <c r="A1305" s="3" t="n">
         <v>1301</v>
       </c>
-      <c r="B1305" s="12" t="s">
+      <c r="B1305" s="13" t="s">
         <v>1308</v>
       </c>
       <c r="C1305" s="3" t="n">
@@ -22375,7 +21450,7 @@
       <c r="A1306" s="3" t="n">
         <v>1302</v>
       </c>
-      <c r="B1306" s="12" t="s">
+      <c r="B1306" s="13" t="s">
         <v>1309</v>
       </c>
       <c r="C1306" s="3" t="n">
@@ -22386,7 +21461,7 @@
       <c r="A1307" s="3" t="n">
         <v>1303</v>
       </c>
-      <c r="B1307" s="12" t="s">
+      <c r="B1307" s="13" t="s">
         <v>1310</v>
       </c>
       <c r="C1307" s="3" t="n">
@@ -22397,7 +21472,7 @@
       <c r="A1308" s="3" t="n">
         <v>1304</v>
       </c>
-      <c r="B1308" s="12" t="s">
+      <c r="B1308" s="13" t="s">
         <v>1311</v>
       </c>
       <c r="C1308" s="3" t="n">
@@ -22408,7 +21483,7 @@
       <c r="A1309" s="3" t="n">
         <v>1305</v>
       </c>
-      <c r="B1309" s="12" t="s">
+      <c r="B1309" s="13" t="s">
         <v>1312</v>
       </c>
       <c r="C1309" s="3" t="n">
@@ -22419,7 +21494,7 @@
       <c r="A1310" s="3" t="n">
         <v>1306</v>
       </c>
-      <c r="B1310" s="12" t="s">
+      <c r="B1310" s="13" t="s">
         <v>1313</v>
       </c>
       <c r="C1310" s="3" t="n">
@@ -22430,7 +21505,7 @@
       <c r="A1311" s="3" t="n">
         <v>1307</v>
       </c>
-      <c r="B1311" s="12" t="s">
+      <c r="B1311" s="13" t="s">
         <v>1314</v>
       </c>
       <c r="C1311" s="3" t="n">
@@ -22441,7 +21516,7 @@
       <c r="A1312" s="3" t="n">
         <v>1308</v>
       </c>
-      <c r="B1312" s="12" t="s">
+      <c r="B1312" s="13" t="s">
         <v>1315</v>
       </c>
       <c r="C1312" s="3" t="n">
@@ -22452,7 +21527,7 @@
       <c r="A1313" s="3" t="n">
         <v>1309</v>
       </c>
-      <c r="B1313" s="12" t="s">
+      <c r="B1313" s="13" t="s">
         <v>1316</v>
       </c>
       <c r="C1313" s="3" t="n">
@@ -22463,7 +21538,7 @@
       <c r="A1314" s="3" t="n">
         <v>1310</v>
       </c>
-      <c r="B1314" s="12" t="s">
+      <c r="B1314" s="13" t="s">
         <v>1317</v>
       </c>
       <c r="C1314" s="3" t="n">
@@ -22474,7 +21549,7 @@
       <c r="A1315" s="3" t="n">
         <v>1311</v>
       </c>
-      <c r="B1315" s="12" t="s">
+      <c r="B1315" s="13" t="s">
         <v>1318</v>
       </c>
       <c r="C1315" s="3" t="n">
@@ -22485,7 +21560,7 @@
       <c r="A1316" s="3" t="n">
         <v>1312</v>
       </c>
-      <c r="B1316" s="12" t="s">
+      <c r="B1316" s="13" t="s">
         <v>1319</v>
       </c>
       <c r="C1316" s="3" t="n">
@@ -22496,7 +21571,7 @@
       <c r="A1317" s="3" t="n">
         <v>1313</v>
       </c>
-      <c r="B1317" s="12" t="s">
+      <c r="B1317" s="13" t="s">
         <v>1320</v>
       </c>
       <c r="C1317" s="3" t="n">
@@ -22507,7 +21582,7 @@
       <c r="A1318" s="3" t="n">
         <v>1314</v>
       </c>
-      <c r="B1318" s="12" t="s">
+      <c r="B1318" s="13" t="s">
         <v>1321</v>
       </c>
       <c r="C1318" s="3" t="n">
@@ -22518,7 +21593,7 @@
       <c r="A1319" s="3" t="n">
         <v>1315</v>
       </c>
-      <c r="B1319" s="12" t="s">
+      <c r="B1319" s="13" t="s">
         <v>1322</v>
       </c>
       <c r="C1319" s="3" t="n">
@@ -22529,7 +21604,7 @@
       <c r="A1320" s="3" t="n">
         <v>1316</v>
       </c>
-      <c r="B1320" s="12" t="s">
+      <c r="B1320" s="13" t="s">
         <v>1323</v>
       </c>
       <c r="C1320" s="3" t="n">
@@ -22540,7 +21615,7 @@
       <c r="A1321" s="3" t="n">
         <v>1317</v>
       </c>
-      <c r="B1321" s="12" t="s">
+      <c r="B1321" s="13" t="s">
         <v>1324</v>
       </c>
       <c r="C1321" s="3" t="n">
@@ -22551,7 +21626,7 @@
       <c r="A1322" s="3" t="n">
         <v>1318</v>
       </c>
-      <c r="B1322" s="12" t="s">
+      <c r="B1322" s="13" t="s">
         <v>1325</v>
       </c>
       <c r="C1322" s="3" t="n">
@@ -22562,7 +21637,7 @@
       <c r="A1323" s="3" t="n">
         <v>1319</v>
       </c>
-      <c r="B1323" s="12" t="s">
+      <c r="B1323" s="13" t="s">
         <v>1326</v>
       </c>
       <c r="C1323" s="3" t="n">
@@ -22573,7 +21648,7 @@
       <c r="A1324" s="3" t="n">
         <v>1320</v>
       </c>
-      <c r="B1324" s="12" t="s">
+      <c r="B1324" s="13" t="s">
         <v>1327</v>
       </c>
       <c r="C1324" s="3" t="n">
@@ -22584,7 +21659,7 @@
       <c r="A1325" s="3" t="n">
         <v>1321</v>
       </c>
-      <c r="B1325" s="12" t="s">
+      <c r="B1325" s="13" t="s">
         <v>1328</v>
       </c>
       <c r="C1325" s="3" t="n">
@@ -22595,7 +21670,7 @@
       <c r="A1326" s="3" t="n">
         <v>1322</v>
       </c>
-      <c r="B1326" s="12" t="s">
+      <c r="B1326" s="13" t="s">
         <v>1329</v>
       </c>
       <c r="C1326" s="3" t="n">
@@ -22606,7 +21681,7 @@
       <c r="A1327" s="3" t="n">
         <v>1323</v>
       </c>
-      <c r="B1327" s="12" t="s">
+      <c r="B1327" s="13" t="s">
         <v>1330</v>
       </c>
       <c r="C1327" s="3" t="n">
@@ -22617,7 +21692,7 @@
       <c r="A1328" s="3" t="n">
         <v>1324</v>
       </c>
-      <c r="B1328" s="12" t="s">
+      <c r="B1328" s="13" t="s">
         <v>1331</v>
       </c>
       <c r="C1328" s="3" t="n">
@@ -22628,7 +21703,7 @@
       <c r="A1329" s="3" t="n">
         <v>1325</v>
       </c>
-      <c r="B1329" s="12" t="s">
+      <c r="B1329" s="13" t="s">
         <v>1332</v>
       </c>
       <c r="C1329" s="3" t="n">
@@ -22639,7 +21714,7 @@
       <c r="A1330" s="3" t="n">
         <v>1326</v>
       </c>
-      <c r="B1330" s="12" t="s">
+      <c r="B1330" s="13" t="s">
         <v>1333</v>
       </c>
       <c r="C1330" s="3" t="n">
@@ -22650,7 +21725,7 @@
       <c r="A1331" s="3" t="n">
         <v>1327</v>
       </c>
-      <c r="B1331" s="12" t="s">
+      <c r="B1331" s="13" t="s">
         <v>1334</v>
       </c>
       <c r="C1331" s="3" t="n">
@@ -22661,7 +21736,7 @@
       <c r="A1332" s="3" t="n">
         <v>1328</v>
       </c>
-      <c r="B1332" s="12" t="s">
+      <c r="B1332" s="13" t="s">
         <v>1335</v>
       </c>
       <c r="C1332" s="3" t="n">
@@ -22672,7 +21747,7 @@
       <c r="A1333" s="3" t="n">
         <v>1329</v>
       </c>
-      <c r="B1333" s="12" t="s">
+      <c r="B1333" s="13" t="s">
         <v>1336</v>
       </c>
       <c r="C1333" s="3" t="n">
@@ -22683,7 +21758,7 @@
       <c r="A1334" s="3" t="n">
         <v>1330</v>
       </c>
-      <c r="B1334" s="12" t="s">
+      <c r="B1334" s="13" t="s">
         <v>1337</v>
       </c>
       <c r="C1334" s="3" t="n">
@@ -22694,7 +21769,7 @@
       <c r="A1335" s="3" t="n">
         <v>1331</v>
       </c>
-      <c r="B1335" s="12" t="s">
+      <c r="B1335" s="13" t="s">
         <v>1338</v>
       </c>
       <c r="C1335" s="3" t="n">
@@ -22705,7 +21780,7 @@
       <c r="A1336" s="3" t="n">
         <v>1332</v>
       </c>
-      <c r="B1336" s="12" t="s">
+      <c r="B1336" s="13" t="s">
         <v>1339</v>
       </c>
       <c r="C1336" s="3" t="n">
@@ -22716,7 +21791,7 @@
       <c r="A1337" s="3" t="n">
         <v>1333</v>
       </c>
-      <c r="B1337" s="12" t="s">
+      <c r="B1337" s="13" t="s">
         <v>1340</v>
       </c>
       <c r="C1337" s="3" t="n">
@@ -22727,7 +21802,7 @@
       <c r="A1338" s="3" t="n">
         <v>1334</v>
       </c>
-      <c r="B1338" s="12" t="s">
+      <c r="B1338" s="13" t="s">
         <v>1341</v>
       </c>
       <c r="C1338" s="3" t="n">
@@ -22738,7 +21813,7 @@
       <c r="A1339" s="3" t="n">
         <v>1335</v>
       </c>
-      <c r="B1339" s="12" t="s">
+      <c r="B1339" s="13" t="s">
         <v>1342</v>
       </c>
       <c r="C1339" s="3" t="n">
@@ -22749,7 +21824,7 @@
       <c r="A1340" s="3" t="n">
         <v>1336</v>
       </c>
-      <c r="B1340" s="12" t="s">
+      <c r="B1340" s="13" t="s">
         <v>1343</v>
       </c>
       <c r="C1340" s="3" t="n">
@@ -22760,7 +21835,7 @@
       <c r="A1341" s="3" t="n">
         <v>1337</v>
       </c>
-      <c r="B1341" s="12" t="s">
+      <c r="B1341" s="13" t="s">
         <v>1344</v>
       </c>
       <c r="C1341" s="3" t="n">
@@ -22771,7 +21846,7 @@
       <c r="A1342" s="3" t="n">
         <v>1338</v>
       </c>
-      <c r="B1342" s="12" t="s">
+      <c r="B1342" s="13" t="s">
         <v>1345</v>
       </c>
       <c r="C1342" s="3" t="n">
@@ -22782,7 +21857,7 @@
       <c r="A1343" s="3" t="n">
         <v>1339</v>
       </c>
-      <c r="B1343" s="12" t="s">
+      <c r="B1343" s="13" t="s">
         <v>1346</v>
       </c>
       <c r="C1343" s="3" t="n">
@@ -22793,7 +21868,7 @@
       <c r="A1344" s="3" t="n">
         <v>1340</v>
       </c>
-      <c r="B1344" s="12" t="s">
+      <c r="B1344" s="13" t="s">
         <v>1347</v>
       </c>
       <c r="C1344" s="3" t="n">
@@ -22804,7 +21879,7 @@
       <c r="A1345" s="3" t="n">
         <v>1341</v>
       </c>
-      <c r="B1345" s="12" t="s">
+      <c r="B1345" s="13" t="s">
         <v>1348</v>
       </c>
       <c r="C1345" s="3" t="n">
@@ -22815,7 +21890,7 @@
       <c r="A1346" s="3" t="n">
         <v>1342</v>
       </c>
-      <c r="B1346" s="12" t="s">
+      <c r="B1346" s="13" t="s">
         <v>1349</v>
       </c>
       <c r="C1346" s="3" t="n">
@@ -22826,7 +21901,7 @@
       <c r="A1347" s="3" t="n">
         <v>1343</v>
       </c>
-      <c r="B1347" s="12" t="s">
+      <c r="B1347" s="13" t="s">
         <v>1350</v>
       </c>
       <c r="C1347" s="3" t="n">
@@ -22837,7 +21912,7 @@
       <c r="A1348" s="3" t="n">
         <v>1344</v>
       </c>
-      <c r="B1348" s="12" t="s">
+      <c r="B1348" s="13" t="s">
         <v>1351</v>
       </c>
       <c r="C1348" s="3" t="n">
@@ -22848,7 +21923,7 @@
       <c r="A1349" s="3" t="n">
         <v>1345</v>
       </c>
-      <c r="B1349" s="12" t="s">
+      <c r="B1349" s="13" t="s">
         <v>1352</v>
       </c>
       <c r="C1349" s="3" t="n">
@@ -22859,7 +21934,7 @@
       <c r="A1350" s="3" t="n">
         <v>1346</v>
       </c>
-      <c r="B1350" s="12" t="s">
+      <c r="B1350" s="13" t="s">
         <v>1353</v>
       </c>
       <c r="C1350" s="3" t="n">
@@ -22870,7 +21945,7 @@
       <c r="A1351" s="3" t="n">
         <v>1347</v>
       </c>
-      <c r="B1351" s="12" t="s">
+      <c r="B1351" s="13" t="s">
         <v>1354</v>
       </c>
       <c r="C1351" s="3" t="n">
@@ -22881,7 +21956,7 @@
       <c r="A1352" s="3" t="n">
         <v>1348</v>
       </c>
-      <c r="B1352" s="12" t="s">
+      <c r="B1352" s="13" t="s">
         <v>1355</v>
       </c>
       <c r="C1352" s="3" t="n">
@@ -22892,7 +21967,7 @@
       <c r="A1353" s="3" t="n">
         <v>1349</v>
       </c>
-      <c r="B1353" s="12" t="s">
+      <c r="B1353" s="13" t="s">
         <v>1356</v>
       </c>
       <c r="C1353" s="3" t="n">
@@ -22903,7 +21978,7 @@
       <c r="A1354" s="3" t="n">
         <v>1350</v>
       </c>
-      <c r="B1354" s="12" t="s">
+      <c r="B1354" s="13" t="s">
         <v>1357</v>
       </c>
       <c r="C1354" s="3" t="n">
@@ -22914,7 +21989,7 @@
       <c r="A1355" s="3" t="n">
         <v>1351</v>
       </c>
-      <c r="B1355" s="12" t="s">
+      <c r="B1355" s="13" t="s">
         <v>1358</v>
       </c>
       <c r="C1355" s="3" t="n">
@@ -22925,7 +22000,7 @@
       <c r="A1356" s="3" t="n">
         <v>1352</v>
       </c>
-      <c r="B1356" s="12" t="s">
+      <c r="B1356" s="13" t="s">
         <v>1359</v>
       </c>
       <c r="C1356" s="3" t="n">
@@ -22936,7 +22011,7 @@
       <c r="A1357" s="3" t="n">
         <v>1353</v>
       </c>
-      <c r="B1357" s="12" t="s">
+      <c r="B1357" s="13" t="s">
         <v>1360</v>
       </c>
       <c r="C1357" s="3" t="n">
@@ -22947,7 +22022,7 @@
       <c r="A1358" s="3" t="n">
         <v>1354</v>
       </c>
-      <c r="B1358" s="12" t="s">
+      <c r="B1358" s="13" t="s">
         <v>1361</v>
       </c>
       <c r="C1358" s="3" t="n">
@@ -22958,7 +22033,7 @@
       <c r="A1359" s="3" t="n">
         <v>1355</v>
       </c>
-      <c r="B1359" s="12" t="s">
+      <c r="B1359" s="13" t="s">
         <v>1362</v>
       </c>
       <c r="C1359" s="3" t="n">
@@ -22969,7 +22044,7 @@
       <c r="A1360" s="3" t="n">
         <v>1356</v>
       </c>
-      <c r="B1360" s="12" t="s">
+      <c r="B1360" s="13" t="s">
         <v>1363</v>
       </c>
       <c r="C1360" s="3" t="n">
@@ -22980,7 +22055,7 @@
       <c r="A1361" s="3" t="n">
         <v>1357</v>
       </c>
-      <c r="B1361" s="12" t="s">
+      <c r="B1361" s="13" t="s">
         <v>1364</v>
       </c>
       <c r="C1361" s="3" t="n">
@@ -22991,7 +22066,7 @@
       <c r="A1362" s="3" t="n">
         <v>1358</v>
       </c>
-      <c r="B1362" s="12" t="s">
+      <c r="B1362" s="13" t="s">
         <v>1365</v>
       </c>
       <c r="C1362" s="3" t="n">
@@ -23002,7 +22077,7 @@
       <c r="A1363" s="3" t="n">
         <v>1359</v>
       </c>
-      <c r="B1363" s="12" t="s">
+      <c r="B1363" s="13" t="s">
         <v>1366</v>
       </c>
       <c r="C1363" s="3" t="n">
@@ -23013,7 +22088,7 @@
       <c r="A1364" s="3" t="n">
         <v>1360</v>
       </c>
-      <c r="B1364" s="12" t="s">
+      <c r="B1364" s="13" t="s">
         <v>1367</v>
       </c>
       <c r="C1364" s="3" t="n">
@@ -23024,7 +22099,7 @@
       <c r="A1365" s="3" t="n">
         <v>1361</v>
       </c>
-      <c r="B1365" s="12" t="s">
+      <c r="B1365" s="13" t="s">
         <v>1368</v>
       </c>
       <c r="C1365" s="3" t="n">
@@ -23035,7 +22110,7 @@
       <c r="A1366" s="3" t="n">
         <v>1362</v>
       </c>
-      <c r="B1366" s="12" t="s">
+      <c r="B1366" s="13" t="s">
         <v>1369</v>
       </c>
       <c r="C1366" s="3" t="n">
@@ -23046,7 +22121,7 @@
       <c r="A1367" s="3" t="n">
         <v>1363</v>
       </c>
-      <c r="B1367" s="12" t="s">
+      <c r="B1367" s="13" t="s">
         <v>1370</v>
       </c>
       <c r="C1367" s="3" t="n">
@@ -23057,7 +22132,7 @@
       <c r="A1368" s="3" t="n">
         <v>1364</v>
       </c>
-      <c r="B1368" s="12" t="s">
+      <c r="B1368" s="13" t="s">
         <v>1371</v>
       </c>
       <c r="C1368" s="3" t="n">
@@ -23068,7 +22143,7 @@
       <c r="A1369" s="3" t="n">
         <v>1365</v>
       </c>
-      <c r="B1369" s="12" t="s">
+      <c r="B1369" s="13" t="s">
         <v>1372</v>
       </c>
       <c r="C1369" s="3" t="n">
@@ -23079,7 +22154,7 @@
       <c r="A1370" s="3" t="n">
         <v>1366</v>
       </c>
-      <c r="B1370" s="12" t="s">
+      <c r="B1370" s="13" t="s">
         <v>1373</v>
       </c>
       <c r="C1370" s="3" t="n">
@@ -23090,7 +22165,7 @@
       <c r="A1371" s="3" t="n">
         <v>1367</v>
       </c>
-      <c r="B1371" s="12" t="s">
+      <c r="B1371" s="13" t="s">
         <v>1374</v>
       </c>
       <c r="C1371" s="3" t="n">
@@ -23101,7 +22176,7 @@
       <c r="A1372" s="3" t="n">
         <v>1368</v>
       </c>
-      <c r="B1372" s="12" t="s">
+      <c r="B1372" s="13" t="s">
         <v>1375</v>
       </c>
       <c r="C1372" s="3" t="n">
@@ -23112,7 +22187,7 @@
       <c r="A1373" s="3" t="n">
         <v>1369</v>
       </c>
-      <c r="B1373" s="12" t="s">
+      <c r="B1373" s="13" t="s">
         <v>1376</v>
       </c>
       <c r="C1373" s="3" t="n">
@@ -23123,7 +22198,7 @@
       <c r="A1374" s="3" t="n">
         <v>1370</v>
       </c>
-      <c r="B1374" s="12" t="s">
+      <c r="B1374" s="13" t="s">
         <v>1377</v>
       </c>
       <c r="C1374" s="3" t="n">
@@ -23134,7 +22209,7 @@
       <c r="A1375" s="3" t="n">
         <v>1371</v>
       </c>
-      <c r="B1375" s="12" t="s">
+      <c r="B1375" s="13" t="s">
         <v>1378</v>
       </c>
       <c r="C1375" s="3" t="n">
@@ -23145,7 +22220,7 @@
       <c r="A1376" s="3" t="n">
         <v>1372</v>
       </c>
-      <c r="B1376" s="12" t="s">
+      <c r="B1376" s="13" t="s">
         <v>1379</v>
       </c>
       <c r="C1376" s="3" t="n">
@@ -23156,7 +22231,7 @@
       <c r="A1377" s="3" t="n">
         <v>1373</v>
       </c>
-      <c r="B1377" s="12" t="s">
+      <c r="B1377" s="13" t="s">
         <v>1380</v>
       </c>
       <c r="C1377" s="3" t="n">
@@ -23167,7 +22242,7 @@
       <c r="A1378" s="3" t="n">
         <v>1374</v>
       </c>
-      <c r="B1378" s="12" t="s">
+      <c r="B1378" s="13" t="s">
         <v>1381</v>
       </c>
       <c r="C1378" s="3" t="n">
@@ -23178,7 +22253,7 @@
       <c r="A1379" s="3" t="n">
         <v>1375</v>
       </c>
-      <c r="B1379" s="12" t="s">
+      <c r="B1379" s="13" t="s">
         <v>1382</v>
       </c>
       <c r="C1379" s="3" t="n">
@@ -23189,7 +22264,7 @@
       <c r="A1380" s="3" t="n">
         <v>1376</v>
       </c>
-      <c r="B1380" s="12" t="s">
+      <c r="B1380" s="13" t="s">
         <v>1383</v>
       </c>
       <c r="C1380" s="3" t="n">
@@ -23200,7 +22275,7 @@
       <c r="A1381" s="3" t="n">
         <v>1377</v>
       </c>
-      <c r="B1381" s="12" t="s">
+      <c r="B1381" s="13" t="s">
         <v>1384</v>
       </c>
       <c r="C1381" s="3" t="n">
@@ -23211,7 +22286,7 @@
       <c r="A1382" s="3" t="n">
         <v>1378</v>
       </c>
-      <c r="B1382" s="12" t="s">
+      <c r="B1382" s="13" t="s">
         <v>1385</v>
       </c>
       <c r="C1382" s="3" t="n">
@@ -23222,7 +22297,7 @@
       <c r="A1383" s="3" t="n">
         <v>1379</v>
       </c>
-      <c r="B1383" s="12" t="s">
+      <c r="B1383" s="13" t="s">
         <v>1386</v>
       </c>
       <c r="C1383" s="3" t="n">
@@ -23233,7 +22308,7 @@
       <c r="A1384" s="3" t="n">
         <v>1380</v>
       </c>
-      <c r="B1384" s="12" t="s">
+      <c r="B1384" s="13" t="s">
         <v>1387</v>
       </c>
       <c r="C1384" s="3" t="n">
@@ -23244,7 +22319,7 @@
       <c r="A1385" s="3" t="n">
         <v>1381</v>
       </c>
-      <c r="B1385" s="12" t="s">
+      <c r="B1385" s="13" t="s">
         <v>1388</v>
       </c>
       <c r="C1385" s="3" t="n">
@@ -23255,7 +22330,7 @@
       <c r="A1386" s="3" t="n">
         <v>1382</v>
       </c>
-      <c r="B1386" s="12" t="s">
+      <c r="B1386" s="13" t="s">
         <v>1389</v>
       </c>
       <c r="C1386" s="3" t="n">
@@ -23266,7 +22341,7 @@
       <c r="A1387" s="3" t="n">
         <v>1383</v>
       </c>
-      <c r="B1387" s="12" t="s">
+      <c r="B1387" s="13" t="s">
         <v>1390</v>
       </c>
       <c r="C1387" s="3" t="n">
@@ -23277,7 +22352,7 @@
       <c r="A1388" s="3" t="n">
         <v>1384</v>
       </c>
-      <c r="B1388" s="12" t="s">
+      <c r="B1388" s="13" t="s">
         <v>1391</v>
       </c>
       <c r="C1388" s="3" t="n">
@@ -23288,7 +22363,7 @@
       <c r="A1389" s="3" t="n">
         <v>1385</v>
       </c>
-      <c r="B1389" s="12" t="s">
+      <c r="B1389" s="13" t="s">
         <v>1392</v>
       </c>
       <c r="C1389" s="3" t="n">
@@ -23299,7 +22374,7 @@
       <c r="A1390" s="3" t="n">
         <v>1386</v>
       </c>
-      <c r="B1390" s="12" t="s">
+      <c r="B1390" s="13" t="s">
         <v>1393</v>
       </c>
       <c r="C1390" s="3" t="n">
@@ -23310,7 +22385,7 @@
       <c r="A1391" s="3" t="n">
         <v>1387</v>
       </c>
-      <c r="B1391" s="12" t="s">
+      <c r="B1391" s="13" t="s">
         <v>1394</v>
       </c>
       <c r="C1391" s="3" t="n">
@@ -23321,7 +22396,7 @@
       <c r="A1392" s="3" t="n">
         <v>1388</v>
       </c>
-      <c r="B1392" s="12" t="s">
+      <c r="B1392" s="13" t="s">
         <v>1395</v>
       </c>
       <c r="C1392" s="3" t="n">
@@ -23332,7 +22407,7 @@
       <c r="A1393" s="3" t="n">
         <v>1389</v>
       </c>
-      <c r="B1393" s="12" t="s">
+      <c r="B1393" s="13" t="s">
         <v>1396</v>
       </c>
       <c r="C1393" s="3" t="n">
@@ -23343,7 +22418,7 @@
       <c r="A1394" s="3" t="n">
         <v>1390</v>
       </c>
-      <c r="B1394" s="12" t="s">
+      <c r="B1394" s="13" t="s">
         <v>1397</v>
       </c>
       <c r="C1394" s="3" t="n">
@@ -23354,7 +22429,7 @@
       <c r="A1395" s="3" t="n">
         <v>1391</v>
       </c>
-      <c r="B1395" s="12" t="s">
+      <c r="B1395" s="13" t="s">
         <v>1398</v>
       </c>
       <c r="C1395" s="3" t="n">
@@ -23365,7 +22440,7 @@
       <c r="A1396" s="3" t="n">
         <v>1392</v>
       </c>
-      <c r="B1396" s="12" t="s">
+      <c r="B1396" s="13" t="s">
         <v>1399</v>
       </c>
       <c r="C1396" s="3" t="n">
@@ -23376,7 +22451,7 @@
       <c r="A1397" s="3" t="n">
         <v>1393</v>
       </c>
-      <c r="B1397" s="12" t="s">
+      <c r="B1397" s="13" t="s">
         <v>1400</v>
       </c>
       <c r="C1397" s="3" t="n">
@@ -23387,7 +22462,7 @@
       <c r="A1398" s="3" t="n">
         <v>1394</v>
       </c>
-      <c r="B1398" s="12" t="s">
+      <c r="B1398" s="13" t="s">
         <v>1401</v>
       </c>
       <c r="C1398" s="3" t="n">
@@ -23398,7 +22473,7 @@
       <c r="A1399" s="3" t="n">
         <v>1395</v>
       </c>
-      <c r="B1399" s="12" t="s">
+      <c r="B1399" s="13" t="s">
         <v>1402</v>
       </c>
       <c r="C1399" s="3" t="n">
@@ -23409,7 +22484,7 @@
       <c r="A1400" s="3" t="n">
         <v>1396</v>
       </c>
-      <c r="B1400" s="12" t="s">
+      <c r="B1400" s="13" t="s">
         <v>1403</v>
       </c>
       <c r="C1400" s="3" t="n">
@@ -23420,7 +22495,7 @@
       <c r="A1401" s="3" t="n">
         <v>1397</v>
       </c>
-      <c r="B1401" s="12" t="s">
+      <c r="B1401" s="13" t="s">
         <v>1404</v>
       </c>
       <c r="C1401" s="3" t="n">
@@ -23431,7 +22506,7 @@
       <c r="A1402" s="3" t="n">
         <v>1398</v>
       </c>
-      <c r="B1402" s="12" t="s">
+      <c r="B1402" s="13" t="s">
         <v>1405</v>
       </c>
       <c r="C1402" s="3" t="n">
@@ -23442,7 +22517,7 @@
       <c r="A1403" s="3" t="n">
         <v>1399</v>
       </c>
-      <c r="B1403" s="12" t="s">
+      <c r="B1403" s="13" t="s">
         <v>1406</v>
       </c>
       <c r="C1403" s="3" t="n">
@@ -23453,7 +22528,7 @@
       <c r="A1404" s="3" t="n">
         <v>1400</v>
       </c>
-      <c r="B1404" s="12" t="s">
+      <c r="B1404" s="13" t="s">
         <v>1407</v>
       </c>
       <c r="C1404" s="3" t="n">
@@ -23464,7 +22539,7 @@
       <c r="A1405" s="3" t="n">
         <v>1401</v>
       </c>
-      <c r="B1405" s="12" t="s">
+      <c r="B1405" s="13" t="s">
         <v>1408</v>
       </c>
       <c r="C1405" s="3" t="n">
@@ -23475,7 +22550,7 @@
       <c r="A1406" s="3" t="n">
         <v>1402</v>
       </c>
-      <c r="B1406" s="12" t="s">
+      <c r="B1406" s="13" t="s">
         <v>1409</v>
       </c>
       <c r="C1406" s="3" t="n">
@@ -23486,7 +22561,7 @@
       <c r="A1407" s="3" t="n">
         <v>1403</v>
       </c>
-      <c r="B1407" s="12" t="s">
+      <c r="B1407" s="13" t="s">
         <v>1410</v>
       </c>
       <c r="C1407" s="3" t="n">
@@ -23497,7 +22572,7 @@
       <c r="A1408" s="3" t="n">
         <v>1404</v>
       </c>
-      <c r="B1408" s="12" t="s">
+      <c r="B1408" s="13" t="s">
         <v>1411</v>
       </c>
       <c r="C1408" s="3" t="n">
@@ -23508,7 +22583,7 @@
       <c r="A1409" s="3" t="n">
         <v>1405</v>
       </c>
-      <c r="B1409" s="12" t="s">
+      <c r="B1409" s="13" t="s">
         <v>1412</v>
       </c>
       <c r="C1409" s="3" t="n">
@@ -23519,7 +22594,7 @@
       <c r="A1410" s="3" t="n">
         <v>1406</v>
       </c>
-      <c r="B1410" s="12" t="s">
+      <c r="B1410" s="13" t="s">
         <v>1413</v>
       </c>
       <c r="C1410" s="3" t="n">
@@ -23530,7 +22605,7 @@
       <c r="A1411" s="3" t="n">
         <v>1407</v>
       </c>
-      <c r="B1411" s="12" t="s">
+      <c r="B1411" s="13" t="s">
         <v>1414</v>
       </c>
       <c r="C1411" s="3" t="n">
@@ -23541,7 +22616,7 @@
       <c r="A1412" s="3" t="n">
         <v>1408</v>
       </c>
-      <c r="B1412" s="12" t="s">
+      <c r="B1412" s="13" t="s">
         <v>1415</v>
       </c>
       <c r="C1412" s="3" t="n">
@@ -23552,7 +22627,7 @@
       <c r="A1413" s="3" t="n">
         <v>1409</v>
       </c>
-      <c r="B1413" s="12" t="s">
+      <c r="B1413" s="13" t="s">
         <v>1416</v>
       </c>
       <c r="C1413" s="3" t="n">
@@ -23563,7 +22638,7 @@
       <c r="A1414" s="3" t="n">
         <v>1410</v>
       </c>
-      <c r="B1414" s="12" t="s">
+      <c r="B1414" s="13" t="s">
         <v>1417</v>
       </c>
       <c r="C1414" s="3" t="n">
@@ -23574,7 +22649,7 @@
       <c r="A1415" s="3" t="n">
         <v>1411</v>
       </c>
-      <c r="B1415" s="12" t="s">
+      <c r="B1415" s="13" t="s">
         <v>1418</v>
       </c>
       <c r="C1415" s="3" t="n">
@@ -23585,7 +22660,7 @@
       <c r="A1416" s="3" t="n">
         <v>1412</v>
       </c>
-      <c r="B1416" s="12" t="s">
+      <c r="B1416" s="13" t="s">
         <v>1419</v>
       </c>
       <c r="C1416" s="3" t="n">
@@ -23596,7 +22671,7 @@
       <c r="A1417" s="3" t="n">
         <v>1413</v>
       </c>
-      <c r="B1417" s="12" t="s">
+      <c r="B1417" s="13" t="s">
         <v>1420</v>
       </c>
       <c r="C1417" s="3" t="n">
@@ -23607,7 +22682,7 @@
       <c r="A1418" s="3" t="n">
         <v>1414</v>
       </c>
-      <c r="B1418" s="12" t="s">
+      <c r="B1418" s="13" t="s">
         <v>1421</v>
       </c>
       <c r="C1418" s="3" t="n">
@@ -23618,7 +22693,7 @@
       <c r="A1419" s="3" t="n">
         <v>1415</v>
       </c>
-      <c r="B1419" s="12" t="s">
+      <c r="B1419" s="13" t="s">
         <v>1422</v>
       </c>
       <c r="C1419" s="3" t="n">
@@ -23629,7 +22704,7 @@
       <c r="A1420" s="3" t="n">
         <v>1416</v>
       </c>
-      <c r="B1420" s="12" t="s">
+      <c r="B1420" s="13" t="s">
         <v>1423</v>
       </c>
       <c r="C1420" s="3" t="n">
@@ -23640,7 +22715,7 @@
       <c r="A1421" s="3" t="n">
         <v>1417</v>
       </c>
-      <c r="B1421" s="12" t="s">
+      <c r="B1421" s="13" t="s">
         <v>1424</v>
       </c>
       <c r="C1421" s="3" t="n">
@@ -23651,7 +22726,7 @@
       <c r="A1422" s="3" t="n">
         <v>1418</v>
       </c>
-      <c r="B1422" s="12" t="s">
+      <c r="B1422" s="13" t="s">
         <v>1425</v>
       </c>
       <c r="C1422" s="3" t="n">
@@ -23662,7 +22737,7 @@
       <c r="A1423" s="3" t="n">
         <v>1419</v>
       </c>
-      <c r="B1423" s="12" t="s">
+      <c r="B1423" s="13" t="s">
         <v>1426</v>
       </c>
       <c r="C1423" s="3" t="n">
@@ -23673,7 +22748,7 @@
       <c r="A1424" s="3" t="n">
         <v>1420</v>
       </c>
-      <c r="B1424" s="12" t="s">
+      <c r="B1424" s="13" t="s">
         <v>1427</v>
       </c>
       <c r="C1424" s="3" t="n">
@@ -23684,18 +22759,18 @@
       <c r="A1425" s="3" t="n">
         <v>1421</v>
       </c>
-      <c r="B1425" s="12" t="s">
+      <c r="B1425" s="13" t="s">
         <v>1428</v>
       </c>
       <c r="C1425" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1426" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1426" s="3" t="n">
         <v>1422</v>
       </c>
-      <c r="B1426" s="12" t="s">
+      <c r="B1426" s="13" t="s">
         <v>1429</v>
       </c>
       <c r="C1426" s="3" t="n">
@@ -23706,7 +22781,7 @@
       <c r="A1427" s="3" t="n">
         <v>1423</v>
       </c>
-      <c r="B1427" s="12" t="s">
+      <c r="B1427" s="13" t="s">
         <v>1430</v>
       </c>
       <c r="C1427" s="3" t="n">
@@ -23717,7 +22792,7 @@
       <c r="A1428" s="3" t="n">
         <v>1424</v>
       </c>
-      <c r="B1428" s="12" t="s">
+      <c r="B1428" s="13" t="s">
         <v>1431</v>
       </c>
       <c r="C1428" s="3" t="n">
@@ -23728,7 +22803,7 @@
       <c r="A1429" s="3" t="n">
         <v>1425</v>
       </c>
-      <c r="B1429" s="12" t="s">
+      <c r="B1429" s="13" t="s">
         <v>1432</v>
       </c>
       <c r="C1429" s="3" t="n">
@@ -23739,7 +22814,7 @@
       <c r="A1430" s="3" t="n">
         <v>1426</v>
       </c>
-      <c r="B1430" s="12" t="s">
+      <c r="B1430" s="13" t="s">
         <v>1433</v>
       </c>
       <c r="C1430" s="3" t="n">
@@ -23750,7 +22825,7 @@
       <c r="A1431" s="3" t="n">
         <v>1427</v>
       </c>
-      <c r="B1431" s="12" t="s">
+      <c r="B1431" s="13" t="s">
         <v>1434</v>
       </c>
       <c r="C1431" s="3" t="n">
@@ -23761,7 +22836,7 @@
       <c r="A1432" s="3" t="n">
         <v>1428</v>
       </c>
-      <c r="B1432" s="12" t="s">
+      <c r="B1432" s="13" t="s">
         <v>1435</v>
       </c>
       <c r="C1432" s="3" t="n">
@@ -23772,7 +22847,7 @@
       <c r="A1433" s="3" t="n">
         <v>1429</v>
       </c>
-      <c r="B1433" s="12" t="s">
+      <c r="B1433" s="13" t="s">
         <v>1436</v>
       </c>
       <c r="C1433" s="3" t="n">
@@ -23783,7 +22858,7 @@
       <c r="A1434" s="3" t="n">
         <v>1430</v>
       </c>
-      <c r="B1434" s="12" t="s">
+      <c r="B1434" s="13" t="s">
         <v>1437</v>
       </c>
       <c r="C1434" s="3" t="n">
@@ -23794,7 +22869,7 @@
       <c r="A1435" s="3" t="n">
         <v>1431</v>
       </c>
-      <c r="B1435" s="12" t="s">
+      <c r="B1435" s="13" t="s">
         <v>1438</v>
       </c>
       <c r="C1435" s="3" t="n">
@@ -23805,7 +22880,7 @@
       <c r="A1436" s="3" t="n">
         <v>1432</v>
       </c>
-      <c r="B1436" s="12" t="s">
+      <c r="B1436" s="13" t="s">
         <v>1439</v>
       </c>
       <c r="C1436" s="3" t="n">
@@ -23816,7 +22891,7 @@
       <c r="A1437" s="3" t="n">
         <v>1433</v>
       </c>
-      <c r="B1437" s="12" t="s">
+      <c r="B1437" s="13" t="s">
         <v>1440</v>
       </c>
       <c r="C1437" s="3" t="n">
@@ -23827,7 +22902,7 @@
       <c r="A1438" s="3" t="n">
         <v>1434</v>
       </c>
-      <c r="B1438" s="12" t="s">
+      <c r="B1438" s="13" t="s">
         <v>1441</v>
       </c>
       <c r="C1438" s="3" t="n">
@@ -23838,7 +22913,7 @@
       <c r="A1439" s="3" t="n">
         <v>1435</v>
       </c>
-      <c r="B1439" s="12" t="s">
+      <c r="B1439" s="13" t="s">
         <v>1442</v>
       </c>
       <c r="C1439" s="3" t="n">
@@ -23849,7 +22924,7 @@
       <c r="A1440" s="3" t="n">
         <v>1436</v>
       </c>
-      <c r="B1440" s="12" t="s">
+      <c r="B1440" s="13" t="s">
         <v>1443</v>
       </c>
       <c r="C1440" s="3" t="n">
@@ -23860,7 +22935,7 @@
       <c r="A1441" s="3" t="n">
         <v>1437</v>
       </c>
-      <c r="B1441" s="12" t="s">
+      <c r="B1441" s="13" t="s">
         <v>1444</v>
       </c>
       <c r="C1441" s="3" t="n">
@@ -23871,7 +22946,7 @@
       <c r="A1442" s="3" t="n">
         <v>1438</v>
       </c>
-      <c r="B1442" s="12" t="s">
+      <c r="B1442" s="13" t="s">
         <v>1445</v>
       </c>
       <c r="C1442" s="3" t="n">
@@ -23882,7 +22957,7 @@
       <c r="A1443" s="3" t="n">
         <v>1439</v>
       </c>
-      <c r="B1443" s="12" t="s">
+      <c r="B1443" s="13" t="s">
         <v>1446</v>
       </c>
       <c r="C1443" s="3" t="n">
@@ -23893,7 +22968,7 @@
       <c r="A1444" s="3" t="n">
         <v>1440</v>
       </c>
-      <c r="B1444" s="12" t="s">
+      <c r="B1444" s="13" t="s">
         <v>1447</v>
       </c>
       <c r="C1444" s="3" t="n">
@@ -23904,7 +22979,7 @@
       <c r="A1445" s="3" t="n">
         <v>1441</v>
       </c>
-      <c r="B1445" s="12" t="s">
+      <c r="B1445" s="13" t="s">
         <v>1448</v>
       </c>
       <c r="C1445" s="3" t="n">
@@ -23915,7 +22990,7 @@
       <c r="A1446" s="3" t="n">
         <v>1442</v>
       </c>
-      <c r="B1446" s="12" t="s">
+      <c r="B1446" s="13" t="s">
         <v>1449</v>
       </c>
       <c r="C1446" s="3" t="n">
@@ -23926,7 +23001,7 @@
       <c r="A1447" s="3" t="n">
         <v>1443</v>
       </c>
-      <c r="B1447" s="12" t="s">
+      <c r="B1447" s="13" t="s">
         <v>1450</v>
       </c>
       <c r="C1447" s="3" t="n">
@@ -23937,7 +23012,7 @@
       <c r="A1448" s="3" t="n">
         <v>1444</v>
       </c>
-      <c r="B1448" s="12" t="s">
+      <c r="B1448" s="13" t="s">
         <v>1451</v>
       </c>
       <c r="C1448" s="3" t="n">
@@ -23948,7 +23023,7 @@
       <c r="A1449" s="3" t="n">
         <v>1445</v>
       </c>
-      <c r="B1449" s="12" t="s">
+      <c r="B1449" s="13" t="s">
         <v>1452</v>
       </c>
       <c r="C1449" s="3" t="n">
@@ -23959,7 +23034,7 @@
       <c r="A1450" s="3" t="n">
         <v>1446</v>
       </c>
-      <c r="B1450" s="12" t="s">
+      <c r="B1450" s="13" t="s">
         <v>1453</v>
       </c>
       <c r="C1450" s="3" t="n">
@@ -23970,7 +23045,7 @@
       <c r="A1451" s="3" t="n">
         <v>1447</v>
       </c>
-      <c r="B1451" s="12" t="s">
+      <c r="B1451" s="13" t="s">
         <v>1454</v>
       </c>
       <c r="C1451" s="3" t="n">
@@ -23981,7 +23056,7 @@
       <c r="A1452" s="3" t="n">
         <v>1448</v>
       </c>
-      <c r="B1452" s="12" t="s">
+      <c r="B1452" s="13" t="s">
         <v>1455</v>
       </c>
       <c r="C1452" s="3" t="n">
@@ -23992,7 +23067,7 @@
       <c r="A1453" s="3" t="n">
         <v>1449</v>
       </c>
-      <c r="B1453" s="12" t="s">
+      <c r="B1453" s="13" t="s">
         <v>1456</v>
       </c>
       <c r="C1453" s="3" t="n">
@@ -24003,7 +23078,7 @@
       <c r="A1454" s="3" t="n">
         <v>1450</v>
       </c>
-      <c r="B1454" s="12" t="s">
+      <c r="B1454" s="13" t="s">
         <v>1457</v>
       </c>
       <c r="C1454" s="3" t="n">
@@ -24014,7 +23089,7 @@
       <c r="A1455" s="3" t="n">
         <v>1451</v>
       </c>
-      <c r="B1455" s="12" t="s">
+      <c r="B1455" s="13" t="s">
         <v>1458</v>
       </c>
       <c r="C1455" s="3" t="n">
@@ -24025,7 +23100,7 @@
       <c r="A1456" s="3" t="n">
         <v>1452</v>
       </c>
-      <c r="B1456" s="12" t="s">
+      <c r="B1456" s="13" t="s">
         <v>1459</v>
       </c>
       <c r="C1456" s="3" t="n">
@@ -24036,7 +23111,7 @@
       <c r="A1457" s="3" t="n">
         <v>1453</v>
       </c>
-      <c r="B1457" s="12" t="s">
+      <c r="B1457" s="13" t="s">
         <v>1460</v>
       </c>
       <c r="C1457" s="3" t="n">
@@ -24047,7 +23122,7 @@
       <c r="A1458" s="3" t="n">
         <v>1454</v>
       </c>
-      <c r="B1458" s="12" t="s">
+      <c r="B1458" s="13" t="s">
         <v>1461</v>
       </c>
       <c r="C1458" s="3" t="n">
@@ -24058,7 +23133,7 @@
       <c r="A1459" s="3" t="n">
         <v>1455</v>
       </c>
-      <c r="B1459" s="12" t="s">
+      <c r="B1459" s="13" t="s">
         <v>1462</v>
       </c>
       <c r="C1459" s="3" t="n">
@@ -24069,7 +23144,7 @@
       <c r="A1460" s="3" t="n">
         <v>1456</v>
       </c>
-      <c r="B1460" s="12" t="s">
+      <c r="B1460" s="13" t="s">
         <v>1463</v>
       </c>
       <c r="C1460" s="3" t="n">
@@ -24080,7 +23155,7 @@
       <c r="A1461" s="3" t="n">
         <v>1457</v>
       </c>
-      <c r="B1461" s="12" t="s">
+      <c r="B1461" s="13" t="s">
         <v>1464</v>
       </c>
       <c r="C1461" s="3" t="n">
@@ -24091,7 +23166,7 @@
       <c r="A1462" s="3" t="n">
         <v>1458</v>
       </c>
-      <c r="B1462" s="12" t="s">
+      <c r="B1462" s="13" t="s">
         <v>1465</v>
       </c>
       <c r="C1462" s="3" t="n">
@@ -24102,7 +23177,7 @@
       <c r="A1463" s="3" t="n">
         <v>1459</v>
       </c>
-      <c r="B1463" s="12" t="s">
+      <c r="B1463" s="13" t="s">
         <v>1466</v>
       </c>
       <c r="C1463" s="3" t="n">
@@ -24113,7 +23188,7 @@
       <c r="A1464" s="3" t="n">
         <v>1460</v>
       </c>
-      <c r="B1464" s="12" t="s">
+      <c r="B1464" s="13" t="s">
         <v>1467</v>
       </c>
       <c r="C1464" s="3" t="n">
@@ -24124,7 +23199,7 @@
       <c r="A1465" s="3" t="n">
         <v>1461</v>
       </c>
-      <c r="B1465" s="12" t="s">
+      <c r="B1465" s="13" t="s">
         <v>1468</v>
       </c>
       <c r="C1465" s="3" t="n">
@@ -24135,7 +23210,7 @@
       <c r="A1466" s="3" t="n">
         <v>1462</v>
       </c>
-      <c r="B1466" s="12" t="s">
+      <c r="B1466" s="13" t="s">
         <v>1469</v>
       </c>
       <c r="C1466" s="3" t="n">
@@ -24146,7 +23221,7 @@
       <c r="A1467" s="3" t="n">
         <v>1463</v>
       </c>
-      <c r="B1467" s="12" t="s">
+      <c r="B1467" s="13" t="s">
         <v>1470</v>
       </c>
       <c r="C1467" s="3" t="n">
@@ -24157,7 +23232,7 @@
       <c r="A1468" s="3" t="n">
         <v>1464</v>
       </c>
-      <c r="B1468" s="12" t="s">
+      <c r="B1468" s="13" t="s">
         <v>1471</v>
       </c>
       <c r="C1468" s="3" t="n">
@@ -24168,7 +23243,7 @@
       <c r="A1469" s="3" t="n">
         <v>1465</v>
       </c>
-      <c r="B1469" s="12" t="s">
+      <c r="B1469" s="13" t="s">
         <v>1472</v>
       </c>
       <c r="C1469" s="3" t="n">
@@ -24179,7 +23254,7 @@
       <c r="A1470" s="3" t="n">
         <v>1466</v>
       </c>
-      <c r="B1470" s="12" t="s">
+      <c r="B1470" s="13" t="s">
         <v>1473</v>
       </c>
       <c r="C1470" s="3" t="n">
@@ -24190,7 +23265,7 @@
       <c r="A1471" s="3" t="n">
         <v>1467</v>
       </c>
-      <c r="B1471" s="12" t="s">
+      <c r="B1471" s="13" t="s">
         <v>1474</v>
       </c>
       <c r="C1471" s="3" t="n">
@@ -24201,7 +23276,7 @@
       <c r="A1472" s="3" t="n">
         <v>1468</v>
       </c>
-      <c r="B1472" s="12" t="s">
+      <c r="B1472" s="13" t="s">
         <v>1475</v>
       </c>
       <c r="C1472" s="3" t="n">
@@ -24212,7 +23287,7 @@
       <c r="A1473" s="3" t="n">
         <v>1469</v>
       </c>
-      <c r="B1473" s="12" t="s">
+      <c r="B1473" s="13" t="s">
         <v>1476</v>
       </c>
       <c r="C1473" s="3" t="n">
@@ -24223,7 +23298,7 @@
       <c r="A1474" s="3" t="n">
         <v>1470</v>
       </c>
-      <c r="B1474" s="12" t="s">
+      <c r="B1474" s="13" t="s">
         <v>1477</v>
       </c>
       <c r="C1474" s="3" t="n">
@@ -24234,7 +23309,7 @@
       <c r="A1475" s="3" t="n">
         <v>1471</v>
       </c>
-      <c r="B1475" s="12" t="s">
+      <c r="B1475" s="13" t="s">
         <v>1478</v>
       </c>
       <c r="C1475" s="3" t="n">
@@ -24245,7 +23320,7 @@
       <c r="A1476" s="3" t="n">
         <v>1472</v>
       </c>
-      <c r="B1476" s="12" t="s">
+      <c r="B1476" s="13" t="s">
         <v>1479</v>
       </c>
       <c r="C1476" s="3" t="n">
@@ -24256,7 +23331,7 @@
       <c r="A1477" s="3" t="n">
         <v>1473</v>
       </c>
-      <c r="B1477" s="12" t="s">
+      <c r="B1477" s="13" t="s">
         <v>1480</v>
       </c>
       <c r="C1477" s="3" t="n">
@@ -24267,7 +23342,7 @@
       <c r="A1478" s="3" t="n">
         <v>1474</v>
       </c>
-      <c r="B1478" s="12" t="s">
+      <c r="B1478" s="13" t="s">
         <v>1481</v>
       </c>
       <c r="C1478" s="3" t="n">
@@ -24278,7 +23353,7 @@
       <c r="A1479" s="3" t="n">
         <v>1475</v>
       </c>
-      <c r="B1479" s="12" t="s">
+      <c r="B1479" s="13" t="s">
         <v>1482</v>
       </c>
       <c r="C1479" s="3" t="n">
@@ -24289,7 +23364,7 @@
       <c r="A1480" s="3" t="n">
         <v>1476</v>
       </c>
-      <c r="B1480" s="12" t="s">
+      <c r="B1480" s="13" t="s">
         <v>1483</v>
       </c>
       <c r="C1480" s="3" t="n">
@@ -24300,7 +23375,7 @@
       <c r="A1481" s="3" t="n">
         <v>1477</v>
       </c>
-      <c r="B1481" s="12" t="s">
+      <c r="B1481" s="13" t="s">
         <v>1484</v>
       </c>
       <c r="C1481" s="3" t="n">
@@ -24311,7 +23386,7 @@
       <c r="A1482" s="3" t="n">
         <v>1478</v>
       </c>
-      <c r="B1482" s="12" t="s">
+      <c r="B1482" s="13" t="s">
         <v>1485</v>
       </c>
       <c r="C1482" s="3" t="n">
@@ -24322,7 +23397,7 @@
       <c r="A1483" s="3" t="n">
         <v>1479</v>
       </c>
-      <c r="B1483" s="12" t="s">
+      <c r="B1483" s="13" t="s">
         <v>1486</v>
       </c>
       <c r="C1483" s="3" t="n">
@@ -24333,7 +23408,7 @@
       <c r="A1484" s="3" t="n">
         <v>1480</v>
       </c>
-      <c r="B1484" s="12" t="s">
+      <c r="B1484" s="13" t="s">
         <v>1487</v>
       </c>
       <c r="C1484" s="3" t="n">
@@ -24344,7 +23419,7 @@
       <c r="A1485" s="3" t="n">
         <v>1481</v>
       </c>
-      <c r="B1485" s="12" t="s">
+      <c r="B1485" s="13" t="s">
         <v>1488</v>
       </c>
       <c r="C1485" s="3" t="n">
@@ -24355,7 +23430,7 @@
       <c r="A1486" s="3" t="n">
         <v>1482</v>
       </c>
-      <c r="B1486" s="12" t="s">
+      <c r="B1486" s="13" t="s">
         <v>1489</v>
       </c>
       <c r="C1486" s="3" t="n">
@@ -24366,7 +23441,7 @@
       <c r="A1487" s="3" t="n">
         <v>1483</v>
       </c>
-      <c r="B1487" s="12" t="s">
+      <c r="B1487" s="13" t="s">
         <v>1490</v>
       </c>
       <c r="C1487" s="3" t="n">
@@ -24377,7 +23452,7 @@
       <c r="A1488" s="3" t="n">
         <v>1484</v>
       </c>
-      <c r="B1488" s="12" t="s">
+      <c r="B1488" s="13" t="s">
         <v>1491</v>
       </c>
       <c r="C1488" s="3" t="n">
@@ -24388,7 +23463,7 @@
       <c r="A1489" s="3" t="n">
         <v>1485</v>
       </c>
-      <c r="B1489" s="12" t="s">
+      <c r="B1489" s="13" t="s">
         <v>1492</v>
       </c>
       <c r="C1489" s="3" t="n">
@@ -24399,7 +23474,7 @@
       <c r="A1490" s="3" t="n">
         <v>1486</v>
       </c>
-      <c r="B1490" s="12" t="s">
+      <c r="B1490" s="13" t="s">
         <v>1493</v>
       </c>
       <c r="C1490" s="3" t="n">
@@ -24410,7 +23485,7 @@
       <c r="A1491" s="3" t="n">
         <v>1487</v>
       </c>
-      <c r="B1491" s="12" t="s">
+      <c r="B1491" s="13" t="s">
         <v>1494</v>
       </c>
       <c r="C1491" s="3" t="n">
@@ -24421,7 +23496,7 @@
       <c r="A1492" s="3" t="n">
         <v>1488</v>
       </c>
-      <c r="B1492" s="12" t="s">
+      <c r="B1492" s="13" t="s">
         <v>1495</v>
       </c>
       <c r="C1492" s="3" t="n">
@@ -24432,7 +23507,7 @@
       <c r="A1493" s="3" t="n">
         <v>1489</v>
       </c>
-      <c r="B1493" s="12" t="s">
+      <c r="B1493" s="13" t="s">
         <v>1496</v>
       </c>
       <c r="C1493" s="3" t="n">
@@ -24443,7 +23518,7 @@
       <c r="A1494" s="3" t="n">
         <v>1490</v>
       </c>
-      <c r="B1494" s="12" t="s">
+      <c r="B1494" s="13" t="s">
         <v>1497</v>
       </c>
       <c r="C1494" s="3" t="n">
@@ -24454,7 +23529,7 @@
       <c r="A1495" s="3" t="n">
         <v>1491</v>
       </c>
-      <c r="B1495" s="12" t="s">
+      <c r="B1495" s="13" t="s">
         <v>1498</v>
       </c>
       <c r="C1495" s="3" t="n">
@@ -24465,7 +23540,7 @@
       <c r="A1496" s="3" t="n">
         <v>1492</v>
       </c>
-      <c r="B1496" s="12" t="s">
+      <c r="B1496" s="13" t="s">
         <v>1499</v>
       </c>
       <c r="C1496" s="3" t="n">
@@ -24476,7 +23551,7 @@
       <c r="A1497" s="3" t="n">
         <v>1493</v>
       </c>
-      <c r="B1497" s="12" t="s">
+      <c r="B1497" s="13" t="s">
         <v>1500</v>
       </c>
       <c r="C1497" s="3" t="n">
@@ -24487,7 +23562,7 @@
       <c r="A1498" s="3" t="n">
         <v>1494</v>
       </c>
-      <c r="B1498" s="12" t="s">
+      <c r="B1498" s="13" t="s">
         <v>1501</v>
       </c>
       <c r="C1498" s="3" t="n">
@@ -24498,7 +23573,7 @@
       <c r="A1499" s="3" t="n">
         <v>1495</v>
       </c>
-      <c r="B1499" s="12" t="s">
+      <c r="B1499" s="13" t="s">
         <v>1502</v>
       </c>
       <c r="C1499" s="3" t="n">
@@ -24509,7 +23584,7 @@
       <c r="A1500" s="3" t="n">
         <v>1496</v>
       </c>
-      <c r="B1500" s="12" t="s">
+      <c r="B1500" s="13" t="s">
         <v>1503</v>
       </c>
       <c r="C1500" s="3" t="n">
@@ -24520,7 +23595,7 @@
       <c r="A1501" s="3" t="n">
         <v>1497</v>
       </c>
-      <c r="B1501" s="12" t="s">
+      <c r="B1501" s="13" t="s">
         <v>1504</v>
       </c>
       <c r="C1501" s="3" t="n">
@@ -24531,7 +23606,7 @@
       <c r="A1502" s="3" t="n">
         <v>1498</v>
       </c>
-      <c r="B1502" s="12" t="s">
+      <c r="B1502" s="13" t="s">
         <v>1505</v>
       </c>
       <c r="C1502" s="3" t="n">
@@ -24542,7 +23617,7 @@
       <c r="A1503" s="3" t="n">
         <v>1499</v>
       </c>
-      <c r="B1503" s="12" t="s">
+      <c r="B1503" s="13" t="s">
         <v>1506</v>
       </c>
       <c r="C1503" s="3" t="n">
@@ -24553,7 +23628,7 @@
       <c r="A1504" s="3" t="n">
         <v>1500</v>
       </c>
-      <c r="B1504" s="12" t="s">
+      <c r="B1504" s="13" t="s">
         <v>1507</v>
       </c>
       <c r="C1504" s="3" t="n">
@@ -24564,7 +23639,7 @@
       <c r="A1505" s="3" t="n">
         <v>1501</v>
       </c>
-      <c r="B1505" s="12" t="s">
+      <c r="B1505" s="13" t="s">
         <v>1508</v>
       </c>
       <c r="C1505" s="3" t="n">
@@ -24575,7 +23650,7 @@
       <c r="A1506" s="3" t="n">
         <v>1502</v>
       </c>
-      <c r="B1506" s="12" t="s">
+      <c r="B1506" s="13" t="s">
         <v>1509</v>
       </c>
       <c r="C1506" s="3" t="n">
@@ -24586,7 +23661,7 @@
       <c r="A1507" s="3" t="n">
         <v>1503</v>
       </c>
-      <c r="B1507" s="12" t="s">
+      <c r="B1507" s="13" t="s">
         <v>1510</v>
       </c>
       <c r="C1507" s="3" t="n">
@@ -24597,7 +23672,7 @@
       <c r="A1508" s="3" t="n">
         <v>1504</v>
       </c>
-      <c r="B1508" s="12" t="s">
+      <c r="B1508" s="13" t="s">
         <v>1511</v>
       </c>
       <c r="C1508" s="3" t="n">
@@ -24608,7 +23683,7 @@
       <c r="A1509" s="3" t="n">
         <v>1505</v>
       </c>
-      <c r="B1509" s="12" t="s">
+      <c r="B1509" s="13" t="s">
         <v>1512</v>
       </c>
       <c r="C1509" s="3" t="n">
@@ -24619,7 +23694,7 @@
       <c r="A1510" s="3" t="n">
         <v>1506</v>
       </c>
-      <c r="B1510" s="12" t="s">
+      <c r="B1510" s="13" t="s">
         <v>1513</v>
       </c>
       <c r="C1510" s="3" t="n">
@@ -24630,7 +23705,7 @@
       <c r="A1511" s="3" t="n">
         <v>1507</v>
       </c>
-      <c r="B1511" s="12" t="s">
+      <c r="B1511" s="13" t="s">
         <v>1514</v>
       </c>
       <c r="C1511" s="3" t="n">
@@ -24641,7 +23716,7 @@
       <c r="A1512" s="3" t="n">
         <v>1508</v>
       </c>
-      <c r="B1512" s="12" t="s">
+      <c r="B1512" s="13" t="s">
         <v>1515</v>
       </c>
       <c r="C1512" s="3" t="n">
@@ -24652,7 +23727,7 @@
       <c r="A1513" s="3" t="n">
         <v>1509</v>
       </c>
-      <c r="B1513" s="12" t="s">
+      <c r="B1513" s="13" t="s">
         <v>1516</v>
       </c>
       <c r="C1513" s="3" t="n">
@@ -24663,7 +23738,7 @@
       <c r="A1514" s="3" t="n">
         <v>1510</v>
       </c>
-      <c r="B1514" s="12" t="s">
+      <c r="B1514" s="13" t="s">
         <v>1517</v>
       </c>
       <c r="C1514" s="3" t="n">
@@ -24674,7 +23749,7 @@
       <c r="A1515" s="3" t="n">
         <v>1511</v>
       </c>
-      <c r="B1515" s="12" t="s">
+      <c r="B1515" s="13" t="s">
         <v>1518</v>
       </c>
       <c r="C1515" s="3" t="n">
@@ -24685,7 +23760,7 @@
       <c r="A1516" s="3" t="n">
         <v>1512</v>
       </c>
-      <c r="B1516" s="12" t="s">
+      <c r="B1516" s="13" t="s">
         <v>1519</v>
       </c>
       <c r="C1516" s="3" t="n">
@@ -24696,7 +23771,7 @@
       <c r="A1517" s="3" t="n">
         <v>1513</v>
       </c>
-      <c r="B1517" s="12" t="s">
+      <c r="B1517" s="13" t="s">
         <v>1520</v>
       </c>
       <c r="C1517" s="3" t="n">
@@ -24707,7 +23782,7 @@
       <c r="A1518" s="3" t="n">
         <v>1514</v>
       </c>
-      <c r="B1518" s="12" t="s">
+      <c r="B1518" s="13" t="s">
         <v>1521</v>
       </c>
       <c r="C1518" s="3" t="n">
@@ -24718,7 +23793,7 @@
       <c r="A1519" s="3" t="n">
         <v>1515</v>
       </c>
-      <c r="B1519" s="12" t="s">
+      <c r="B1519" s="13" t="s">
         <v>1522</v>
       </c>
       <c r="C1519" s="3" t="n">
@@ -24729,7 +23804,7 @@
       <c r="A1520" s="3" t="n">
         <v>1516</v>
       </c>
-      <c r="B1520" s="12" t="s">
+      <c r="B1520" s="13" t="s">
         <v>1523</v>
       </c>
       <c r="C1520" s="3" t="n">
@@ -24740,7 +23815,7 @@
       <c r="A1521" s="3" t="n">
         <v>1517</v>
       </c>
-      <c r="B1521" s="12" t="s">
+      <c r="B1521" s="13" t="s">
         <v>1524</v>
       </c>
       <c r="C1521" s="3" t="n">
@@ -24751,7 +23826,7 @@
       <c r="A1522" s="3" t="n">
         <v>1518</v>
       </c>
-      <c r="B1522" s="12" t="s">
+      <c r="B1522" s="13" t="s">
         <v>1525</v>
       </c>
       <c r="C1522" s="3" t="n">
@@ -24762,7 +23837,7 @@
       <c r="A1523" s="3" t="n">
         <v>1519</v>
       </c>
-      <c r="B1523" s="12" t="s">
+      <c r="B1523" s="13" t="s">
         <v>1526</v>
       </c>
       <c r="C1523" s="3" t="n">
@@ -24773,7 +23848,7 @@
       <c r="A1524" s="3" t="n">
         <v>1520</v>
       </c>
-      <c r="B1524" s="12" t="s">
+      <c r="B1524" s="13" t="s">
         <v>1527</v>
       </c>
       <c r="C1524" s="3" t="n">
@@ -24784,7 +23859,7 @@
       <c r="A1525" s="3" t="n">
         <v>1521</v>
       </c>
-      <c r="B1525" s="12" t="s">
+      <c r="B1525" s="13" t="s">
         <v>1528</v>
       </c>
       <c r="C1525" s="3" t="n">
@@ -24795,7 +23870,7 @@
       <c r="A1526" s="3" t="n">
         <v>1522</v>
       </c>
-      <c r="B1526" s="12" t="s">
+      <c r="B1526" s="13" t="s">
         <v>1529</v>
       </c>
       <c r="C1526" s="3" t="n">
@@ -24806,7 +23881,7 @@
       <c r="A1527" s="3" t="n">
         <v>1523</v>
       </c>
-      <c r="B1527" s="12" t="s">
+      <c r="B1527" s="13" t="s">
         <v>1530</v>
       </c>
       <c r="C1527" s="3" t="n">
@@ -24817,7 +23892,7 @@
       <c r="A1528" s="3" t="n">
         <v>1524</v>
       </c>
-      <c r="B1528" s="12" t="s">
+      <c r="B1528" s="13" t="s">
         <v>1531</v>
       </c>
       <c r="C1528" s="3" t="n">
@@ -24828,7 +23903,7 @@
       <c r="A1529" s="3" t="n">
         <v>1525</v>
       </c>
-      <c r="B1529" s="12" t="s">
+      <c r="B1529" s="13" t="s">
         <v>1532</v>
       </c>
       <c r="C1529" s="3" t="n">
@@ -24839,7 +23914,7 @@
       <c r="A1530" s="3" t="n">
         <v>1526</v>
       </c>
-      <c r="B1530" s="12" t="s">
+      <c r="B1530" s="13" t="s">
         <v>1533</v>
       </c>
       <c r="C1530" s="3" t="n">
@@ -24850,7 +23925,7 @@
       <c r="A1531" s="3" t="n">
         <v>1527</v>
       </c>
-      <c r="B1531" s="12" t="s">
+      <c r="B1531" s="13" t="s">
         <v>1534</v>
       </c>
       <c r="C1531" s="3" t="n">
@@ -24861,7 +23936,7 @@
       <c r="A1532" s="3" t="n">
         <v>1528</v>
       </c>
-      <c r="B1532" s="12" t="s">
+      <c r="B1532" s="13" t="s">
         <v>1535</v>
       </c>
       <c r="C1532" s="3" t="n">
@@ -24872,7 +23947,7 @@
       <c r="A1533" s="3" t="n">
         <v>1529</v>
       </c>
-      <c r="B1533" s="12" t="s">
+      <c r="B1533" s="13" t="s">
         <v>1536</v>
       </c>
       <c r="C1533" s="3" t="n">
@@ -24883,7 +23958,7 @@
       <c r="A1534" s="3" t="n">
         <v>1530</v>
       </c>
-      <c r="B1534" s="12" t="s">
+      <c r="B1534" s="13" t="s">
         <v>1537</v>
       </c>
       <c r="C1534" s="3" t="n">
@@ -24894,7 +23969,7 @@
       <c r="A1535" s="3" t="n">
         <v>1531</v>
       </c>
-      <c r="B1535" s="12" t="s">
+      <c r="B1535" s="13" t="s">
         <v>1538</v>
       </c>
       <c r="C1535" s="3" t="n">
@@ -24905,7 +23980,7 @@
       <c r="A1536" s="3" t="n">
         <v>1532</v>
       </c>
-      <c r="B1536" s="12" t="s">
+      <c r="B1536" s="13" t="s">
         <v>1539</v>
       </c>
       <c r="C1536" s="3" t="n">
@@ -24916,7 +23991,7 @@
       <c r="A1537" s="3" t="n">
         <v>1533</v>
       </c>
-      <c r="B1537" s="12" t="s">
+      <c r="B1537" s="13" t="s">
         <v>1540</v>
       </c>
       <c r="C1537" s="3" t="n">
@@ -24927,7 +24002,7 @@
       <c r="A1538" s="3" t="n">
         <v>1534</v>
       </c>
-      <c r="B1538" s="12" t="s">
+      <c r="B1538" s="13" t="s">
         <v>1541</v>
       </c>
       <c r="C1538" s="3" t="n">
@@ -24938,7 +24013,7 @@
       <c r="A1539" s="3" t="n">
         <v>1535</v>
       </c>
-      <c r="B1539" s="12" t="s">
+      <c r="B1539" s="13" t="s">
         <v>1542</v>
       </c>
       <c r="C1539" s="3" t="n">
@@ -24949,7 +24024,7 @@
       <c r="A1540" s="3" t="n">
         <v>1536</v>
       </c>
-      <c r="B1540" s="12" t="s">
+      <c r="B1540" s="13" t="s">
         <v>1543</v>
       </c>
       <c r="C1540" s="3" t="n">
@@ -24960,7 +24035,7 @@
       <c r="A1541" s="3" t="n">
         <v>1537</v>
       </c>
-      <c r="B1541" s="12" t="s">
+      <c r="B1541" s="13" t="s">
         <v>1544</v>
       </c>
       <c r="C1541" s="3" t="n">
@@ -24971,7 +24046,7 @@
       <c r="A1542" s="3" t="n">
         <v>1538</v>
       </c>
-      <c r="B1542" s="12" t="s">
+      <c r="B1542" s="13" t="s">
         <v>1545</v>
       </c>
       <c r="C1542" s="3" t="n">
@@ -24982,7 +24057,7 @@
       <c r="A1543" s="3" t="n">
         <v>1539</v>
       </c>
-      <c r="B1543" s="12" t="s">
+      <c r="B1543" s="13" t="s">
         <v>1546</v>
       </c>
       <c r="C1543" s="3" t="n">
@@ -24993,7 +24068,7 @@
       <c r="A1544" s="3" t="n">
         <v>1540</v>
       </c>
-      <c r="B1544" s="12" t="s">
+      <c r="B1544" s="13" t="s">
         <v>1547</v>
       </c>
       <c r="C1544" s="3" t="n">
@@ -25004,7 +24079,7 @@
       <c r="A1545" s="3" t="n">
         <v>1541</v>
       </c>
-      <c r="B1545" s="12" t="s">
+      <c r="B1545" s="13" t="s">
         <v>1548</v>
       </c>
       <c r="C1545" s="3" t="n">
@@ -25015,7 +24090,7 @@
       <c r="A1546" s="3" t="n">
         <v>1542</v>
       </c>
-      <c r="B1546" s="12" t="s">
+      <c r="B1546" s="13" t="s">
         <v>1549</v>
       </c>
       <c r="C1546" s="3" t="n">
@@ -25026,7 +24101,7 @@
       <c r="A1547" s="3" t="n">
         <v>1543</v>
       </c>
-      <c r="B1547" s="12" t="s">
+      <c r="B1547" s="13" t="s">
         <v>1550</v>
       </c>
       <c r="C1547" s="3" t="n">
@@ -25037,7 +24112,7 @@
       <c r="A1548" s="3" t="n">
         <v>1544</v>
       </c>
-      <c r="B1548" s="12" t="s">
+      <c r="B1548" s="13" t="s">
         <v>1551</v>
       </c>
       <c r="C1548" s="3" t="n">
@@ -25048,7 +24123,7 @@
       <c r="A1549" s="3" t="n">
         <v>1545</v>
       </c>
-      <c r="B1549" s="12" t="s">
+      <c r="B1549" s="13" t="s">
         <v>1552</v>
       </c>
       <c r="C1549" s="3" t="n">
@@ -25059,18 +24134,18 @@
       <c r="A1550" s="3" t="n">
         <v>1546</v>
       </c>
-      <c r="B1550" s="12" t="s">
+      <c r="B1550" s="13" t="s">
         <v>1553</v>
       </c>
       <c r="C1550" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1551" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1551" s="3" t="n">
         <v>1547</v>
       </c>
-      <c r="B1551" s="12" t="s">
+      <c r="B1551" s="13" t="s">
         <v>1554</v>
       </c>
       <c r="C1551" s="3" t="n">
@@ -25081,7 +24156,7 @@
       <c r="A1552" s="3" t="n">
         <v>1548</v>
       </c>
-      <c r="B1552" s="12" t="s">
+      <c r="B1552" s="13" t="s">
         <v>1555</v>
       </c>
       <c r="C1552" s="3" t="n">
@@ -25092,7 +24167,7 @@
       <c r="A1553" s="3" t="n">
         <v>1549</v>
       </c>
-      <c r="B1553" s="12" t="s">
+      <c r="B1553" s="13" t="s">
         <v>1556</v>
       </c>
       <c r="C1553" s="3" t="n">
@@ -25103,7 +24178,7 @@
       <c r="A1554" s="3" t="n">
         <v>1550</v>
       </c>
-      <c r="B1554" s="12" t="s">
+      <c r="B1554" s="13" t="s">
         <v>1557</v>
       </c>
       <c r="C1554" s="3" t="n">
@@ -25114,7 +24189,7 @@
       <c r="A1555" s="3" t="n">
         <v>1551</v>
       </c>
-      <c r="B1555" s="12" t="s">
+      <c r="B1555" s="13" t="s">
         <v>1558</v>
       </c>
       <c r="C1555" s="3" t="n">
@@ -25125,7 +24200,7 @@
       <c r="A1556" s="3" t="n">
         <v>1552</v>
       </c>
-      <c r="B1556" s="12" t="s">
+      <c r="B1556" s="13" t="s">
         <v>1559</v>
       </c>
       <c r="C1556" s="3" t="n">
@@ -25136,7 +24211,7 @@
       <c r="A1557" s="3" t="n">
         <v>1553</v>
       </c>
-      <c r="B1557" s="12" t="s">
+      <c r="B1557" s="13" t="s">
         <v>1560</v>
       </c>
       <c r="C1557" s="3" t="n">
@@ -25147,7 +24222,7 @@
       <c r="A1558" s="3" t="n">
         <v>1554</v>
       </c>
-      <c r="B1558" s="12" t="s">
+      <c r="B1558" s="13" t="s">
         <v>1561</v>
       </c>
       <c r="C1558" s="3" t="n">
@@ -25158,7 +24233,7 @@
       <c r="A1559" s="3" t="n">
         <v>1555</v>
       </c>
-      <c r="B1559" s="12" t="s">
+      <c r="B1559" s="13" t="s">
         <v>1562</v>
       </c>
       <c r="C1559" s="3" t="n">
@@ -25169,7 +24244,7 @@
       <c r="A1560" s="3" t="n">
         <v>1556</v>
       </c>
-      <c r="B1560" s="12" t="s">
+      <c r="B1560" s="13" t="s">
         <v>1563</v>
       </c>
       <c r="C1560" s="3" t="n">
@@ -25180,7 +24255,7 @@
       <c r="A1561" s="3" t="n">
         <v>1557</v>
       </c>
-      <c r="B1561" s="12" t="s">
+      <c r="B1561" s="13" t="s">
         <v>1564</v>
       </c>
       <c r="C1561" s="3" t="n">
@@ -25191,7 +24266,7 @@
       <c r="A1562" s="3" t="n">
         <v>1558</v>
       </c>
-      <c r="B1562" s="12" t="s">
+      <c r="B1562" s="13" t="s">
         <v>1565</v>
       </c>
       <c r="C1562" s="3" t="n">
@@ -25202,7 +24277,7 @@
       <c r="A1563" s="3" t="n">
         <v>1559</v>
       </c>
-      <c r="B1563" s="12" t="s">
+      <c r="B1563" s="13" t="s">
         <v>1566</v>
       </c>
       <c r="C1563" s="3" t="n">
@@ -25213,7 +24288,7 @@
       <c r="A1564" s="3" t="n">
         <v>1560</v>
       </c>
-      <c r="B1564" s="12" t="s">
+      <c r="B1564" s="13" t="s">
         <v>1567</v>
       </c>
       <c r="C1564" s="3" t="n">
@@ -25224,7 +24299,7 @@
       <c r="A1565" s="3" t="n">
         <v>1561</v>
       </c>
-      <c r="B1565" s="12" t="s">
+      <c r="B1565" s="13" t="s">
         <v>1568</v>
       </c>
       <c r="C1565" s="3" t="n">
@@ -25235,7 +24310,7 @@
       <c r="A1566" s="3" t="n">
         <v>1562</v>
       </c>
-      <c r="B1566" s="12" t="s">
+      <c r="B1566" s="13" t="s">
         <v>1569</v>
       </c>
       <c r="C1566" s="3" t="n">
@@ -25246,7 +24321,7 @@
       <c r="A1567" s="3" t="n">
         <v>1563</v>
       </c>
-      <c r="B1567" s="12" t="s">
+      <c r="B1567" s="13" t="s">
         <v>1570</v>
       </c>
       <c r="C1567" s="3" t="n">
@@ -25257,7 +24332,7 @@
       <c r="A1568" s="3" t="n">
         <v>1564</v>
       </c>
-      <c r="B1568" s="12" t="s">
+      <c r="B1568" s="13" t="s">
         <v>1571</v>
       </c>
       <c r="C1568" s="3" t="n">
@@ -25268,7 +24343,7 @@
       <c r="A1569" s="3" t="n">
         <v>1565</v>
       </c>
-      <c r="B1569" s="12" t="s">
+      <c r="B1569" s="13" t="s">
         <v>1572</v>
       </c>
       <c r="C1569" s="3" t="n">
@@ -25279,7 +24354,7 @@
       <c r="A1570" s="3" t="n">
         <v>1566</v>
       </c>
-      <c r="B1570" s="12" t="s">
+      <c r="B1570" s="13" t="s">
         <v>1573</v>
       </c>
       <c r="C1570" s="3" t="n">
@@ -25290,7 +24365,7 @@
       <c r="A1571" s="3" t="n">
         <v>1567</v>
       </c>
-      <c r="B1571" s="12" t="s">
+      <c r="B1571" s="13" t="s">
         <v>1574</v>
       </c>
       <c r="C1571" s="3" t="n">
@@ -25301,7 +24376,7 @@
       <c r="A1572" s="3" t="n">
         <v>1568</v>
       </c>
-      <c r="B1572" s="12" t="s">
+      <c r="B1572" s="13" t="s">
         <v>1575</v>
       </c>
       <c r="C1572" s="3" t="n">
@@ -25312,7 +24387,7 @@
       <c r="A1573" s="3" t="n">
         <v>1569</v>
       </c>
-      <c r="B1573" s="12" t="s">
+      <c r="B1573" s="13" t="s">
         <v>1576</v>
       </c>
       <c r="C1573" s="3" t="n">
@@ -25323,7 +24398,7 @@
       <c r="A1574" s="3" t="n">
         <v>1570</v>
       </c>
-      <c r="B1574" s="12" t="s">
+      <c r="B1574" s="13" t="s">
         <v>1577</v>
       </c>
       <c r="C1574" s="3" t="n">
@@ -25334,7 +24409,7 @@
       <c r="A1575" s="3" t="n">
         <v>1571</v>
       </c>
-      <c r="B1575" s="12" t="s">
+      <c r="B1575" s="13" t="s">
         <v>1578</v>
       </c>
       <c r="C1575" s="3" t="n">
@@ -25345,7 +24420,7 @@
       <c r="A1576" s="3" t="n">
         <v>1572</v>
       </c>
-      <c r="B1576" s="12" t="s">
+      <c r="B1576" s="13" t="s">
         <v>1579</v>
       </c>
       <c r="C1576" s="3" t="n">
@@ -25356,7 +24431,7 @@
       <c r="A1577" s="3" t="n">
         <v>1573</v>
       </c>
-      <c r="B1577" s="12" t="s">
+      <c r="B1577" s="13" t="s">
         <v>1580</v>
       </c>
       <c r="C1577" s="3" t="n">
@@ -25367,7 +24442,7 @@
       <c r="A1578" s="3" t="n">
         <v>1574</v>
       </c>
-      <c r="B1578" s="12" t="s">
+      <c r="B1578" s="13" t="s">
         <v>1581</v>
       </c>
       <c r="C1578" s="3" t="n">
@@ -25378,7 +24453,7 @@
       <c r="A1579" s="3" t="n">
         <v>1575</v>
       </c>
-      <c r="B1579" s="12" t="s">
+      <c r="B1579" s="13" t="s">
         <v>1582</v>
       </c>
       <c r="C1579" s="3" t="n">
@@ -25389,7 +24464,7 @@
       <c r="A1580" s="3" t="n">
         <v>1576</v>
       </c>
-      <c r="B1580" s="12" t="s">
+      <c r="B1580" s="13" t="s">
         <v>1583</v>
       </c>
       <c r="C1580" s="3" t="n">
@@ -25400,7 +24475,7 @@
       <c r="A1581" s="3" t="n">
         <v>1577</v>
       </c>
-      <c r="B1581" s="12" t="s">
+      <c r="B1581" s="13" t="s">
         <v>1584</v>
       </c>
       <c r="C1581" s="3" t="n">
@@ -25411,7 +24486,7 @@
       <c r="A1582" s="3" t="n">
         <v>1578</v>
       </c>
-      <c r="B1582" s="12" t="s">
+      <c r="B1582" s="13" t="s">
         <v>1585</v>
       </c>
       <c r="C1582" s="3" t="n">
@@ -25422,7 +24497,7 @@
       <c r="A1583" s="3" t="n">
         <v>1579</v>
       </c>
-      <c r="B1583" s="12" t="s">
+      <c r="B1583" s="13" t="s">
         <v>1586</v>
       </c>
       <c r="C1583" s="3" t="n">
@@ -25433,7 +24508,7 @@
       <c r="A1584" s="3" t="n">
         <v>1580</v>
       </c>
-      <c r="B1584" s="12" t="s">
+      <c r="B1584" s="13" t="s">
         <v>1587</v>
       </c>
       <c r="C1584" s="3" t="n">
@@ -25444,7 +24519,7 @@
       <c r="A1585" s="3" t="n">
         <v>1581</v>
       </c>
-      <c r="B1585" s="12" t="s">
+      <c r="B1585" s="13" t="s">
         <v>1588</v>
       </c>
       <c r="C1585" s="3" t="n">
@@ -25455,7 +24530,7 @@
       <c r="A1586" s="3" t="n">
         <v>1582</v>
       </c>
-      <c r="B1586" s="12" t="s">
+      <c r="B1586" s="13" t="s">
         <v>1589</v>
       </c>
       <c r="C1586" s="3" t="n">
@@ -25466,7 +24541,7 @@
       <c r="A1587" s="3" t="n">
         <v>1583</v>
       </c>
-      <c r="B1587" s="12" t="s">
+      <c r="B1587" s="13" t="s">
         <v>1590</v>
       </c>
       <c r="C1587" s="3" t="n">
@@ -25477,7 +24552,7 @@
       <c r="A1588" s="3" t="n">
         <v>1584</v>
       </c>
-      <c r="B1588" s="12" t="s">
+      <c r="B1588" s="13" t="s">
         <v>1591</v>
       </c>
       <c r="C1588" s="3" t="n">
@@ -25488,7 +24563,7 @@
       <c r="A1589" s="3" t="n">
         <v>1585</v>
       </c>
-      <c r="B1589" s="12" t="s">
+      <c r="B1589" s="13" t="s">
         <v>1592</v>
       </c>
       <c r="C1589" s="3" t="n">
@@ -25499,7 +24574,7 @@
       <c r="A1590" s="3" t="n">
         <v>1586</v>
       </c>
-      <c r="B1590" s="12" t="s">
+      <c r="B1590" s="13" t="s">
         <v>1593</v>
       </c>
       <c r="C1590" s="3" t="n">
@@ -25510,7 +24585,7 @@
       <c r="A1591" s="3" t="n">
         <v>1587</v>
       </c>
-      <c r="B1591" s="12" t="s">
+      <c r="B1591" s="13" t="s">
         <v>1594</v>
       </c>
       <c r="C1591" s="3" t="n">
@@ -25521,7 +24596,7 @@
       <c r="A1592" s="3" t="n">
         <v>1588</v>
       </c>
-      <c r="B1592" s="12" t="s">
+      <c r="B1592" s="13" t="s">
         <v>1595</v>
       </c>
       <c r="C1592" s="3" t="n">
@@ -25532,7 +24607,7 @@
       <c r="A1593" s="3" t="n">
         <v>1589</v>
       </c>
-      <c r="B1593" s="12" t="s">
+      <c r="B1593" s="13" t="s">
         <v>1596</v>
       </c>
       <c r="C1593" s="3" t="n">
@@ -25543,7 +24618,7 @@
       <c r="A1594" s="3" t="n">
         <v>1590</v>
       </c>
-      <c r="B1594" s="12" t="s">
+      <c r="B1594" s="13" t="s">
         <v>1597</v>
       </c>
       <c r="C1594" s="3" t="n">
@@ -25554,7 +24629,7 @@
       <c r="A1595" s="3" t="n">
         <v>1591</v>
       </c>
-      <c r="B1595" s="12" t="s">
+      <c r="B1595" s="13" t="s">
         <v>1598</v>
       </c>
       <c r="C1595" s="3" t="n">
@@ -25565,7 +24640,7 @@
       <c r="A1596" s="3" t="n">
         <v>1592</v>
       </c>
-      <c r="B1596" s="12" t="s">
+      <c r="B1596" s="13" t="s">
         <v>1599</v>
       </c>
       <c r="C1596" s="3" t="n">
@@ -25576,7 +24651,7 @@
       <c r="A1597" s="3" t="n">
         <v>1593</v>
       </c>
-      <c r="B1597" s="12" t="s">
+      <c r="B1597" s="13" t="s">
         <v>1600</v>
       </c>
       <c r="C1597" s="3" t="n">
@@ -25587,7 +24662,7 @@
       <c r="A1598" s="3" t="n">
         <v>1594</v>
       </c>
-      <c r="B1598" s="12" t="s">
+      <c r="B1598" s="13" t="s">
         <v>1601</v>
       </c>
       <c r="C1598" s="3" t="n">
@@ -25598,7 +24673,7 @@
       <c r="A1599" s="3" t="n">
         <v>1595</v>
       </c>
-      <c r="B1599" s="12" t="s">
+      <c r="B1599" s="13" t="s">
         <v>1602</v>
       </c>
       <c r="C1599" s="3" t="n">
@@ -25609,7 +24684,7 @@
       <c r="A1600" s="3" t="n">
         <v>1596</v>
       </c>
-      <c r="B1600" s="12" t="s">
+      <c r="B1600" s="13" t="s">
         <v>1603</v>
       </c>
       <c r="C1600" s="3" t="n">
@@ -25620,7 +24695,7 @@
       <c r="A1601" s="3" t="n">
         <v>1597</v>
       </c>
-      <c r="B1601" s="12" t="s">
+      <c r="B1601" s="13" t="s">
         <v>1604</v>
       </c>
       <c r="C1601" s="3" t="n">
@@ -25631,7 +24706,7 @@
       <c r="A1602" s="3" t="n">
         <v>1598</v>
       </c>
-      <c r="B1602" s="12" t="s">
+      <c r="B1602" s="13" t="s">
         <v>1605</v>
       </c>
       <c r="C1602" s="3" t="n">
@@ -25642,7 +24717,7 @@
       <c r="A1603" s="3" t="n">
         <v>1599</v>
       </c>
-      <c r="B1603" s="12" t="s">
+      <c r="B1603" s="13" t="s">
         <v>1606</v>
       </c>
       <c r="C1603" s="3" t="n">
@@ -25653,7 +24728,7 @@
       <c r="A1604" s="3" t="n">
         <v>1600</v>
       </c>
-      <c r="B1604" s="12" t="s">
+      <c r="B1604" s="13" t="s">
         <v>1607</v>
       </c>
       <c r="C1604" s="3" t="n">
@@ -25664,7 +24739,7 @@
       <c r="A1605" s="3" t="n">
         <v>1601</v>
       </c>
-      <c r="B1605" s="12" t="s">
+      <c r="B1605" s="13" t="s">
         <v>1608</v>
       </c>
       <c r="C1605" s="3" t="n">
@@ -25675,7 +24750,7 @@
       <c r="A1606" s="3" t="n">
         <v>1602</v>
       </c>
-      <c r="B1606" s="12" t="s">
+      <c r="B1606" s="13" t="s">
         <v>1609</v>
       </c>
       <c r="C1606" s="3" t="n">
@@ -25686,3500 +24761,1608 @@
       <c r="A1607" s="3" t="n">
         <v>1603</v>
       </c>
-      <c r="B1607" s="12" t="s">
+      <c r="B1607" s="14" t="s">
         <v>1610</v>
       </c>
-      <c r="C1607" s="3" t="n">
-        <v>2009</v>
+      <c r="C1607" s="15" t="n">
+        <v>3003</v>
       </c>
     </row>
     <row r="1608" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1608" s="3" t="n">
         <v>1604</v>
       </c>
-      <c r="B1608" s="3" t="s">
+      <c r="B1608" s="14" t="s">
         <v>1611</v>
       </c>
-      <c r="C1608" s="3" t="n">
-        <v>2007</v>
+      <c r="C1608" s="15" t="n">
+        <v>3004</v>
       </c>
     </row>
     <row r="1609" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1609" s="3" t="n">
         <v>1605</v>
       </c>
-      <c r="B1609" s="3" t="s">
+      <c r="B1609" s="14" t="s">
         <v>1612</v>
       </c>
-      <c r="C1609" s="3" t="n">
-        <v>2008</v>
+      <c r="C1609" s="15" t="n">
+        <v>3005</v>
       </c>
     </row>
     <row r="1610" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1610" s="3" t="n">
         <v>1606</v>
       </c>
-      <c r="B1610" s="3" t="s">
+      <c r="B1610" s="14" t="s">
         <v>1613</v>
       </c>
-      <c r="C1610" s="3" t="n">
-        <v>2008</v>
+      <c r="C1610" s="15" t="n">
+        <v>3006</v>
       </c>
     </row>
     <row r="1611" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1611" s="3" t="n">
-        <v>1607</v>
-      </c>
-      <c r="B1611" s="3" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C1611" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1611" s="3"/>
+      <c r="B1611" s="3"/>
+      <c r="C1611" s="3"/>
     </row>
     <row r="1612" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1612" s="3" t="n">
-        <v>1608</v>
-      </c>
-      <c r="B1612" s="3" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C1612" s="3" t="n">
-        <v>2010</v>
-      </c>
+      <c r="A1612" s="3"/>
+      <c r="B1612" s="3"/>
+      <c r="C1612" s="3"/>
     </row>
     <row r="1613" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1613" s="3" t="n">
-        <v>1609</v>
-      </c>
-      <c r="B1613" s="3" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C1613" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1613" s="3"/>
+      <c r="B1613" s="3"/>
+      <c r="C1613" s="3"/>
     </row>
     <row r="1614" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1614" s="3" t="n">
-        <v>1610</v>
-      </c>
-      <c r="B1614" s="3" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C1614" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1614" s="3"/>
+      <c r="B1614" s="3"/>
+      <c r="C1614" s="3"/>
     </row>
     <row r="1615" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1615" s="3" t="n">
-        <v>1611</v>
-      </c>
-      <c r="B1615" s="3" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C1615" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1615" s="3"/>
+      <c r="B1615" s="3"/>
+      <c r="C1615" s="3"/>
     </row>
     <row r="1616" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1616" s="3" t="n">
-        <v>1612</v>
-      </c>
-      <c r="B1616" s="3" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C1616" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1616" s="3"/>
+      <c r="B1616" s="3"/>
+      <c r="C1616" s="3"/>
     </row>
     <row r="1617" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1617" s="3" t="n">
-        <v>1613</v>
-      </c>
-      <c r="B1617" s="3" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C1617" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1617" s="3"/>
+      <c r="B1617" s="3"/>
+      <c r="C1617" s="3"/>
     </row>
     <row r="1618" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1618" s="3" t="n">
-        <v>1614</v>
-      </c>
-      <c r="B1618" s="3" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C1618" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1618" s="3"/>
+      <c r="B1618" s="3"/>
+      <c r="C1618" s="3"/>
     </row>
     <row r="1619" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1619" s="3" t="n">
-        <v>1615</v>
-      </c>
-      <c r="B1619" s="3" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C1619" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1619" s="3"/>
+      <c r="B1619" s="3"/>
+      <c r="C1619" s="3"/>
     </row>
     <row r="1620" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1620" s="3" t="n">
-        <v>1616</v>
-      </c>
-      <c r="B1620" s="3" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C1620" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1620" s="3"/>
+      <c r="B1620" s="3"/>
+      <c r="C1620" s="3"/>
     </row>
     <row r="1621" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1621" s="3" t="n">
-        <v>1617</v>
-      </c>
-      <c r="B1621" s="3" t="s">
-        <v>1624</v>
-      </c>
-      <c r="C1621" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1621" s="3"/>
+      <c r="B1621" s="3"/>
+      <c r="C1621" s="3"/>
     </row>
     <row r="1622" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1622" s="3" t="n">
-        <v>1618</v>
-      </c>
-      <c r="B1622" s="3" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C1622" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1622" s="3"/>
+      <c r="B1622" s="3"/>
+      <c r="C1622" s="3"/>
     </row>
     <row r="1623" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1623" s="3" t="n">
-        <v>1619</v>
-      </c>
-      <c r="B1623" s="3" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C1623" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1623" s="3"/>
+      <c r="B1623" s="3"/>
+      <c r="C1623" s="3"/>
     </row>
     <row r="1624" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1624" s="3" t="n">
-        <v>1620</v>
-      </c>
-      <c r="B1624" s="3" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C1624" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1624" s="3"/>
+      <c r="B1624" s="3"/>
+      <c r="C1624" s="3"/>
     </row>
     <row r="1625" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1625" s="3" t="n">
-        <v>1621</v>
-      </c>
-      <c r="B1625" s="3" t="s">
-        <v>1628</v>
-      </c>
-      <c r="C1625" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1625" s="3"/>
+      <c r="B1625" s="3"/>
+      <c r="C1625" s="3"/>
     </row>
     <row r="1626" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1626" s="3" t="n">
-        <v>1622</v>
-      </c>
-      <c r="B1626" s="3" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C1626" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1626" s="3"/>
+      <c r="B1626" s="3"/>
+      <c r="C1626" s="3"/>
     </row>
     <row r="1627" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1627" s="3" t="n">
-        <v>1623</v>
-      </c>
-      <c r="B1627" s="3" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C1627" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1627" s="3"/>
+      <c r="B1627" s="3"/>
+      <c r="C1627" s="3"/>
     </row>
     <row r="1628" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1628" s="3" t="n">
-        <v>1624</v>
-      </c>
-      <c r="B1628" s="3" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C1628" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1628" s="3"/>
+      <c r="B1628" s="3"/>
+      <c r="C1628" s="3"/>
     </row>
     <row r="1629" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1629" s="3" t="n">
-        <v>1625</v>
-      </c>
-      <c r="B1629" s="3" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C1629" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1629" s="3"/>
+      <c r="B1629" s="3"/>
+      <c r="C1629" s="3"/>
     </row>
     <row r="1630" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1630" s="3" t="n">
-        <v>1626</v>
-      </c>
-      <c r="B1630" s="3" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C1630" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1630" s="3"/>
+      <c r="B1630" s="3"/>
+      <c r="C1630" s="3"/>
     </row>
     <row r="1631" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1631" s="3" t="n">
-        <v>1627</v>
-      </c>
-      <c r="B1631" s="3" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C1631" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1631" s="3"/>
+      <c r="B1631" s="3"/>
+      <c r="C1631" s="3"/>
     </row>
     <row r="1632" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1632" s="3" t="n">
-        <v>1628</v>
-      </c>
-      <c r="B1632" s="3" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C1632" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1632" s="3"/>
+      <c r="B1632" s="3"/>
+      <c r="C1632" s="3"/>
     </row>
     <row r="1633" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1633" s="3" t="n">
-        <v>1629</v>
-      </c>
-      <c r="B1633" s="3" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C1633" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1633" s="3"/>
+      <c r="B1633" s="3"/>
+      <c r="C1633" s="3"/>
     </row>
     <row r="1634" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1634" s="3" t="n">
-        <v>1630</v>
-      </c>
-      <c r="B1634" s="3" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C1634" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1634" s="3"/>
+      <c r="B1634" s="3"/>
+      <c r="C1634" s="3"/>
     </row>
     <row r="1635" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1635" s="3" t="n">
-        <v>1631</v>
-      </c>
-      <c r="B1635" s="3" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C1635" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1635" s="3"/>
+      <c r="B1635" s="3"/>
+      <c r="C1635" s="3"/>
     </row>
     <row r="1636" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1636" s="3" t="n">
-        <v>1632</v>
-      </c>
-      <c r="B1636" s="3" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C1636" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1636" s="3"/>
+      <c r="B1636" s="3"/>
+      <c r="C1636" s="3"/>
     </row>
     <row r="1637" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1637" s="3" t="n">
-        <v>1633</v>
-      </c>
-      <c r="B1637" s="3" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C1637" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1637" s="3"/>
+      <c r="B1637" s="3"/>
+      <c r="C1637" s="3"/>
     </row>
     <row r="1638" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1638" s="3" t="n">
-        <v>1634</v>
-      </c>
-      <c r="B1638" s="3" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C1638" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1638" s="3"/>
+      <c r="B1638" s="3"/>
+      <c r="C1638" s="3"/>
     </row>
     <row r="1639" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1639" s="3" t="n">
-        <v>1635</v>
-      </c>
-      <c r="B1639" s="3" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C1639" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1639" s="3"/>
+      <c r="B1639" s="3"/>
+      <c r="C1639" s="3"/>
     </row>
     <row r="1640" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1640" s="3" t="n">
-        <v>1636</v>
-      </c>
-      <c r="B1640" s="3" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C1640" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1640" s="3"/>
+      <c r="B1640" s="3"/>
+      <c r="C1640" s="3"/>
     </row>
     <row r="1641" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1641" s="3" t="n">
-        <v>1637</v>
-      </c>
-      <c r="B1641" s="3" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1641" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1641" s="3"/>
+      <c r="B1641" s="3"/>
+      <c r="C1641" s="3"/>
     </row>
     <row r="1642" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1642" s="3" t="n">
-        <v>1638</v>
-      </c>
-      <c r="B1642" s="3" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C1642" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1642" s="3"/>
+      <c r="B1642" s="3"/>
+      <c r="C1642" s="3"/>
     </row>
     <row r="1643" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1643" s="3" t="n">
-        <v>1639</v>
-      </c>
-      <c r="B1643" s="3" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C1643" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1643" s="3"/>
+      <c r="B1643" s="3"/>
+      <c r="C1643" s="3"/>
     </row>
     <row r="1644" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1644" s="3" t="n">
-        <v>1640</v>
-      </c>
-      <c r="B1644" s="3" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C1644" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1644" s="3"/>
+      <c r="B1644" s="3"/>
+      <c r="C1644" s="3"/>
     </row>
     <row r="1645" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1645" s="3" t="n">
-        <v>1641</v>
-      </c>
-      <c r="B1645" s="3" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C1645" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1645" s="3"/>
+      <c r="B1645" s="3"/>
+      <c r="C1645" s="3"/>
     </row>
     <row r="1646" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1646" s="3" t="n">
-        <v>1642</v>
-      </c>
-      <c r="B1646" s="3" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C1646" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1646" s="3"/>
+      <c r="B1646" s="3"/>
+      <c r="C1646" s="3"/>
     </row>
     <row r="1647" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1647" s="3" t="n">
-        <v>1643</v>
-      </c>
-      <c r="B1647" s="3" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C1647" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1647" s="3"/>
+      <c r="B1647" s="3"/>
+      <c r="C1647" s="3"/>
     </row>
     <row r="1648" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1648" s="3" t="n">
-        <v>1644</v>
-      </c>
-      <c r="B1648" s="3" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C1648" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1648" s="3"/>
+      <c r="B1648" s="3"/>
+      <c r="C1648" s="3"/>
     </row>
     <row r="1649" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1649" s="3" t="n">
-        <v>1645</v>
-      </c>
-      <c r="B1649" s="3" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C1649" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1649" s="3"/>
+      <c r="B1649" s="3"/>
+      <c r="C1649" s="3"/>
     </row>
     <row r="1650" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1650" s="3" t="n">
-        <v>1646</v>
-      </c>
-      <c r="B1650" s="3" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C1650" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1650" s="3"/>
+      <c r="B1650" s="3"/>
+      <c r="C1650" s="3"/>
     </row>
     <row r="1651" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1651" s="3" t="n">
-        <v>1647</v>
-      </c>
-      <c r="B1651" s="3" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C1651" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1651" s="3"/>
+      <c r="B1651" s="3"/>
+      <c r="C1651" s="3"/>
     </row>
     <row r="1652" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1652" s="3" t="n">
-        <v>1648</v>
-      </c>
-      <c r="B1652" s="3" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C1652" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1652" s="3"/>
+      <c r="B1652" s="3"/>
+      <c r="C1652" s="3"/>
     </row>
     <row r="1653" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1653" s="3" t="n">
-        <v>1649</v>
-      </c>
-      <c r="B1653" s="3" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C1653" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1653" s="3"/>
+      <c r="B1653" s="3"/>
+      <c r="C1653" s="3"/>
     </row>
     <row r="1654" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1654" s="3" t="n">
-        <v>1650</v>
-      </c>
-      <c r="B1654" s="3" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C1654" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1654" s="3"/>
+      <c r="B1654" s="3"/>
+      <c r="C1654" s="3"/>
     </row>
     <row r="1655" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1655" s="3" t="n">
-        <v>1651</v>
-      </c>
-      <c r="B1655" s="3" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C1655" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1655" s="3"/>
+      <c r="B1655" s="3"/>
+      <c r="C1655" s="3"/>
     </row>
     <row r="1656" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1656" s="3" t="n">
-        <v>1652</v>
-      </c>
-      <c r="B1656" s="3" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C1656" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1656" s="3"/>
+      <c r="B1656" s="3"/>
+      <c r="C1656" s="3"/>
     </row>
     <row r="1657" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1657" s="3" t="n">
-        <v>1653</v>
-      </c>
-      <c r="B1657" s="3" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C1657" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1657" s="3"/>
+      <c r="B1657" s="3"/>
+      <c r="C1657" s="3"/>
     </row>
     <row r="1658" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1658" s="3" t="n">
-        <v>1654</v>
-      </c>
-      <c r="B1658" s="3" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C1658" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1658" s="3"/>
+      <c r="B1658" s="3"/>
+      <c r="C1658" s="3"/>
     </row>
     <row r="1659" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1659" s="3" t="n">
-        <v>1655</v>
-      </c>
-      <c r="B1659" s="3" t="s">
-        <v>1662</v>
-      </c>
-      <c r="C1659" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1659" s="3"/>
+      <c r="B1659" s="3"/>
+      <c r="C1659" s="3"/>
     </row>
     <row r="1660" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1660" s="3" t="n">
-        <v>1656</v>
-      </c>
-      <c r="B1660" s="3" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C1660" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1660" s="3"/>
+      <c r="B1660" s="3"/>
+      <c r="C1660" s="3"/>
     </row>
     <row r="1661" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1661" s="3" t="n">
-        <v>1657</v>
-      </c>
-      <c r="B1661" s="3" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C1661" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1661" s="3"/>
+      <c r="B1661" s="3"/>
+      <c r="C1661" s="3"/>
     </row>
     <row r="1662" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1662" s="3" t="n">
-        <v>1658</v>
-      </c>
-      <c r="B1662" s="3" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C1662" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1662" s="3"/>
+      <c r="B1662" s="3"/>
+      <c r="C1662" s="3"/>
     </row>
     <row r="1663" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1663" s="3" t="n">
-        <v>1659</v>
-      </c>
-      <c r="B1663" s="3" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C1663" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1663" s="3"/>
+      <c r="B1663" s="3"/>
+      <c r="C1663" s="3"/>
     </row>
     <row r="1664" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1664" s="3" t="n">
-        <v>1660</v>
-      </c>
-      <c r="B1664" s="3" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C1664" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1664" s="3"/>
+      <c r="B1664" s="3"/>
+      <c r="C1664" s="3"/>
     </row>
     <row r="1665" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1665" s="3" t="n">
-        <v>1661</v>
-      </c>
-      <c r="B1665" s="3" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C1665" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1665" s="3"/>
+      <c r="B1665" s="3"/>
+      <c r="C1665" s="3"/>
     </row>
     <row r="1666" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1666" s="3" t="n">
-        <v>1662</v>
-      </c>
-      <c r="B1666" s="3" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C1666" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1666" s="3"/>
+      <c r="B1666" s="3"/>
+      <c r="C1666" s="3"/>
     </row>
     <row r="1667" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1667" s="3" t="n">
-        <v>1663</v>
-      </c>
-      <c r="B1667" s="3" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C1667" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1667" s="3"/>
+      <c r="B1667" s="3"/>
+      <c r="C1667" s="3"/>
     </row>
     <row r="1668" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1668" s="3" t="n">
-        <v>1664</v>
-      </c>
-      <c r="B1668" s="3" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C1668" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1668" s="3"/>
+      <c r="B1668" s="3"/>
+      <c r="C1668" s="3"/>
     </row>
     <row r="1669" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1669" s="3" t="n">
-        <v>1665</v>
-      </c>
-      <c r="B1669" s="3" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C1669" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1669" s="3"/>
+      <c r="B1669" s="3"/>
+      <c r="C1669" s="3"/>
     </row>
     <row r="1670" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1670" s="3" t="n">
-        <v>1666</v>
-      </c>
-      <c r="B1670" s="3" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C1670" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1670" s="3"/>
+      <c r="B1670" s="3"/>
+      <c r="C1670" s="3"/>
     </row>
     <row r="1671" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1671" s="3" t="n">
-        <v>1667</v>
-      </c>
-      <c r="B1671" s="3" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C1671" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1671" s="3"/>
+      <c r="B1671" s="3"/>
+      <c r="C1671" s="3"/>
     </row>
     <row r="1672" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1672" s="3" t="n">
-        <v>1668</v>
-      </c>
-      <c r="B1672" s="3" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C1672" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1672" s="3"/>
+      <c r="B1672" s="3"/>
+      <c r="C1672" s="3"/>
     </row>
     <row r="1673" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1673" s="3" t="n">
-        <v>1669</v>
-      </c>
-      <c r="B1673" s="3" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C1673" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1673" s="3"/>
+      <c r="B1673" s="3"/>
+      <c r="C1673" s="3"/>
     </row>
     <row r="1674" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1674" s="3" t="n">
-        <v>1670</v>
-      </c>
-      <c r="B1674" s="3" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1674" s="3" t="n">
-        <v>3002</v>
-      </c>
+      <c r="A1674" s="3"/>
+      <c r="B1674" s="3"/>
+      <c r="C1674" s="3"/>
     </row>
     <row r="1675" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1675" s="3" t="n">
-        <v>1671</v>
-      </c>
-      <c r="B1675" s="3" t="s">
-        <v>1678</v>
-      </c>
-      <c r="C1675" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1675" s="3"/>
+      <c r="B1675" s="3"/>
+      <c r="C1675" s="3"/>
     </row>
     <row r="1676" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1676" s="3" t="n">
-        <v>1672</v>
-      </c>
-      <c r="B1676" s="3" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C1676" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1676" s="3"/>
+      <c r="B1676" s="3"/>
+      <c r="C1676" s="3"/>
     </row>
     <row r="1677" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1677" s="3" t="n">
-        <v>1673</v>
-      </c>
-      <c r="B1677" s="3" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C1677" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1677" s="3"/>
+      <c r="B1677" s="3"/>
+      <c r="C1677" s="3"/>
     </row>
     <row r="1678" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1678" s="3" t="n">
-        <v>1674</v>
-      </c>
-      <c r="B1678" s="3" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C1678" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1678" s="3"/>
+      <c r="B1678" s="3"/>
+      <c r="C1678" s="3"/>
     </row>
     <row r="1679" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1679" s="3" t="n">
-        <v>1675</v>
-      </c>
-      <c r="B1679" s="3" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C1679" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1679" s="3"/>
+      <c r="B1679" s="3"/>
+      <c r="C1679" s="3"/>
     </row>
     <row r="1680" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1680" s="3" t="n">
-        <v>1676</v>
-      </c>
-      <c r="B1680" s="3" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C1680" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1680" s="3"/>
+      <c r="B1680" s="3"/>
+      <c r="C1680" s="3"/>
     </row>
     <row r="1681" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1681" s="3" t="n">
-        <v>1677</v>
-      </c>
-      <c r="B1681" s="3" t="s">
-        <v>1684</v>
-      </c>
-      <c r="C1681" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1681" s="3"/>
+      <c r="B1681" s="3"/>
+      <c r="C1681" s="3"/>
     </row>
     <row r="1682" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1682" s="3" t="n">
-        <v>1678</v>
-      </c>
-      <c r="B1682" s="3" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C1682" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1682" s="3"/>
+      <c r="B1682" s="3"/>
+      <c r="C1682" s="3"/>
     </row>
     <row r="1683" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1683" s="3" t="n">
-        <v>1679</v>
-      </c>
-      <c r="B1683" s="3" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C1683" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1683" s="3"/>
+      <c r="B1683" s="3"/>
+      <c r="C1683" s="3"/>
     </row>
     <row r="1684" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1684" s="3" t="n">
-        <v>1680</v>
-      </c>
-      <c r="B1684" s="3" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C1684" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1684" s="3"/>
+      <c r="B1684" s="3"/>
+      <c r="C1684" s="3"/>
     </row>
     <row r="1685" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1685" s="3" t="n">
-        <v>1681</v>
-      </c>
-      <c r="B1685" s="3" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C1685" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1685" s="3"/>
+      <c r="B1685" s="3"/>
+      <c r="C1685" s="3"/>
     </row>
     <row r="1686" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1686" s="3" t="n">
-        <v>1682</v>
-      </c>
-      <c r="B1686" s="3" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C1686" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1686" s="3"/>
+      <c r="B1686" s="3"/>
+      <c r="C1686" s="3"/>
     </row>
     <row r="1687" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1687" s="3" t="n">
-        <v>1683</v>
-      </c>
-      <c r="B1687" s="3" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C1687" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1687" s="3"/>
+      <c r="B1687" s="3"/>
+      <c r="C1687" s="3"/>
     </row>
     <row r="1688" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1688" s="3" t="n">
-        <v>1684</v>
-      </c>
-      <c r="B1688" s="3" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C1688" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1688" s="3"/>
+      <c r="B1688" s="3"/>
+      <c r="C1688" s="3"/>
     </row>
     <row r="1689" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1689" s="3" t="n">
-        <v>1685</v>
-      </c>
-      <c r="B1689" s="3" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C1689" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1689" s="3"/>
+      <c r="B1689" s="3"/>
+      <c r="C1689" s="3"/>
     </row>
     <row r="1690" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1690" s="3" t="n">
-        <v>1686</v>
-      </c>
-      <c r="B1690" s="3" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C1690" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1690" s="3"/>
+      <c r="B1690" s="3"/>
+      <c r="C1690" s="3"/>
     </row>
     <row r="1691" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1691" s="3" t="n">
-        <v>1687</v>
-      </c>
-      <c r="B1691" s="3" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C1691" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1691" s="3"/>
+      <c r="B1691" s="3"/>
+      <c r="C1691" s="3"/>
     </row>
     <row r="1692" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1692" s="3" t="n">
-        <v>1688</v>
-      </c>
-      <c r="B1692" s="3" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C1692" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1692" s="3"/>
+      <c r="B1692" s="3"/>
+      <c r="C1692" s="3"/>
     </row>
     <row r="1693" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1693" s="3" t="n">
-        <v>1689</v>
-      </c>
-      <c r="B1693" s="3" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C1693" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1693" s="3"/>
+      <c r="B1693" s="3"/>
+      <c r="C1693" s="3"/>
     </row>
     <row r="1694" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1694" s="3" t="n">
-        <v>1690</v>
-      </c>
-      <c r="B1694" s="3" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C1694" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1694" s="3"/>
+      <c r="B1694" s="3"/>
+      <c r="C1694" s="3"/>
     </row>
     <row r="1695" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1695" s="3" t="n">
-        <v>1691</v>
-      </c>
-      <c r="B1695" s="3" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C1695" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1695" s="3"/>
+      <c r="B1695" s="3"/>
+      <c r="C1695" s="3"/>
     </row>
     <row r="1696" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1696" s="3" t="n">
-        <v>1692</v>
-      </c>
-      <c r="B1696" s="3" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1696" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1696" s="3"/>
+      <c r="B1696" s="3"/>
+      <c r="C1696" s="3"/>
     </row>
     <row r="1697" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1697" s="3" t="n">
-        <v>1693</v>
-      </c>
-      <c r="B1697" s="3" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C1697" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1697" s="3"/>
+      <c r="B1697" s="3"/>
+      <c r="C1697" s="3"/>
     </row>
     <row r="1698" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1698" s="3" t="n">
-        <v>1694</v>
-      </c>
-      <c r="B1698" s="3" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C1698" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1698" s="3"/>
+      <c r="B1698" s="3"/>
+      <c r="C1698" s="3"/>
     </row>
     <row r="1699" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1699" s="3" t="n">
-        <v>1695</v>
-      </c>
-      <c r="B1699" s="3" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C1699" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1699" s="3"/>
+      <c r="B1699" s="3"/>
+      <c r="C1699" s="3"/>
     </row>
     <row r="1700" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1700" s="3" t="n">
-        <v>1696</v>
-      </c>
-      <c r="B1700" s="3" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C1700" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1700" s="3"/>
+      <c r="B1700" s="3"/>
+      <c r="C1700" s="3"/>
     </row>
     <row r="1701" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1701" s="3" t="n">
-        <v>1697</v>
-      </c>
-      <c r="B1701" s="3" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C1701" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1701" s="3"/>
+      <c r="B1701" s="3"/>
+      <c r="C1701" s="3"/>
     </row>
     <row r="1702" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1702" s="3" t="n">
-        <v>1698</v>
-      </c>
-      <c r="B1702" s="3" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C1702" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1702" s="3"/>
+      <c r="B1702" s="3"/>
+      <c r="C1702" s="3"/>
     </row>
     <row r="1703" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1703" s="3" t="n">
-        <v>1699</v>
-      </c>
-      <c r="B1703" s="3" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C1703" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1703" s="3"/>
+      <c r="B1703" s="3"/>
+      <c r="C1703" s="3"/>
     </row>
     <row r="1704" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1704" s="3" t="n">
-        <v>1700</v>
-      </c>
-      <c r="B1704" s="3" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C1704" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1704" s="3"/>
+      <c r="B1704" s="3"/>
+      <c r="C1704" s="3"/>
     </row>
     <row r="1705" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1705" s="3" t="n">
-        <v>1701</v>
-      </c>
-      <c r="B1705" s="3" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C1705" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1705" s="3"/>
+      <c r="B1705" s="3"/>
+      <c r="C1705" s="3"/>
     </row>
     <row r="1706" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1706" s="3" t="n">
-        <v>1702</v>
-      </c>
-      <c r="B1706" s="3" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C1706" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1706" s="3"/>
+      <c r="B1706" s="3"/>
+      <c r="C1706" s="3"/>
     </row>
     <row r="1707" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1707" s="3" t="n">
-        <v>1703</v>
-      </c>
-      <c r="B1707" s="3" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C1707" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1707" s="3"/>
+      <c r="B1707" s="3"/>
+      <c r="C1707" s="3"/>
     </row>
     <row r="1708" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1708" s="3" t="n">
-        <v>1704</v>
-      </c>
-      <c r="B1708" s="3" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C1708" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1708" s="3"/>
+      <c r="B1708" s="3"/>
+      <c r="C1708" s="3"/>
     </row>
     <row r="1709" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1709" s="3" t="n">
-        <v>1705</v>
-      </c>
-      <c r="B1709" s="3" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C1709" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1709" s="3"/>
+      <c r="B1709" s="3"/>
+      <c r="C1709" s="3"/>
     </row>
     <row r="1710" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1710" s="3" t="n">
-        <v>1706</v>
-      </c>
-      <c r="B1710" s="3" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C1710" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1710" s="3"/>
+      <c r="B1710" s="3"/>
+      <c r="C1710" s="3"/>
     </row>
     <row r="1711" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1711" s="3" t="n">
-        <v>1707</v>
-      </c>
-      <c r="B1711" s="3" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C1711" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1711" s="3"/>
+      <c r="B1711" s="3"/>
+      <c r="C1711" s="3"/>
     </row>
     <row r="1712" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1712" s="3" t="n">
-        <v>1708</v>
-      </c>
-      <c r="B1712" s="3" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C1712" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1712" s="3"/>
+      <c r="B1712" s="3"/>
+      <c r="C1712" s="3"/>
     </row>
     <row r="1713" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1713" s="3" t="n">
-        <v>1709</v>
-      </c>
-      <c r="B1713" s="3" t="s">
-        <v>1716</v>
-      </c>
-      <c r="C1713" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1713" s="3"/>
+      <c r="B1713" s="3"/>
+      <c r="C1713" s="3"/>
     </row>
     <row r="1714" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1714" s="3" t="n">
-        <v>1710</v>
-      </c>
-      <c r="B1714" s="3" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C1714" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1714" s="3"/>
+      <c r="B1714" s="3"/>
+      <c r="C1714" s="3"/>
     </row>
     <row r="1715" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1715" s="3" t="n">
-        <v>1711</v>
-      </c>
-      <c r="B1715" s="3" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C1715" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1715" s="3"/>
+      <c r="B1715" s="3"/>
+      <c r="C1715" s="3"/>
     </row>
     <row r="1716" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1716" s="3" t="n">
-        <v>1712</v>
-      </c>
-      <c r="B1716" s="3" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C1716" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1716" s="3"/>
+      <c r="B1716" s="3"/>
+      <c r="C1716" s="3"/>
     </row>
     <row r="1717" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1717" s="3" t="n">
-        <v>1713</v>
-      </c>
-      <c r="B1717" s="3" t="s">
-        <v>1720</v>
-      </c>
-      <c r="C1717" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1717" s="3"/>
+      <c r="B1717" s="3"/>
+      <c r="C1717" s="3"/>
     </row>
     <row r="1718" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1718" s="3" t="n">
-        <v>1714</v>
-      </c>
-      <c r="B1718" s="3" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C1718" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1718" s="3"/>
+      <c r="B1718" s="3"/>
+      <c r="C1718" s="3"/>
     </row>
     <row r="1719" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1719" s="3" t="n">
-        <v>1715</v>
-      </c>
-      <c r="B1719" s="3" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C1719" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1719" s="3"/>
+      <c r="B1719" s="3"/>
+      <c r="C1719" s="3"/>
     </row>
     <row r="1720" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1720" s="3" t="n">
-        <v>1716</v>
-      </c>
-      <c r="B1720" s="3" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C1720" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1720" s="3"/>
+      <c r="B1720" s="3"/>
+      <c r="C1720" s="3"/>
     </row>
     <row r="1721" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1721" s="3" t="n">
-        <v>1717</v>
-      </c>
-      <c r="B1721" s="3" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C1721" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1721" s="3"/>
+      <c r="B1721" s="3"/>
+      <c r="C1721" s="3"/>
     </row>
     <row r="1722" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1722" s="3" t="n">
-        <v>1718</v>
-      </c>
-      <c r="B1722" s="3" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C1722" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1722" s="3"/>
+      <c r="B1722" s="3"/>
+      <c r="C1722" s="3"/>
     </row>
     <row r="1723" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1723" s="3" t="n">
-        <v>1719</v>
-      </c>
-      <c r="B1723" s="3" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C1723" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1723" s="3"/>
+      <c r="B1723" s="3"/>
+      <c r="C1723" s="3"/>
     </row>
     <row r="1724" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1724" s="3" t="n">
-        <v>1720</v>
-      </c>
-      <c r="B1724" s="3" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C1724" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1724" s="3"/>
+      <c r="B1724" s="3"/>
+      <c r="C1724" s="3"/>
     </row>
     <row r="1725" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1725" s="3" t="n">
-        <v>1721</v>
-      </c>
-      <c r="B1725" s="3" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C1725" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1725" s="3"/>
+      <c r="B1725" s="3"/>
+      <c r="C1725" s="3"/>
     </row>
     <row r="1726" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1726" s="3" t="n">
-        <v>1722</v>
-      </c>
-      <c r="B1726" s="3" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C1726" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1726" s="3"/>
+      <c r="B1726" s="3"/>
+      <c r="C1726" s="3"/>
     </row>
     <row r="1727" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1727" s="3" t="n">
-        <v>1723</v>
-      </c>
-      <c r="B1727" s="3" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C1727" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1727" s="3"/>
+      <c r="B1727" s="3"/>
+      <c r="C1727" s="3"/>
     </row>
     <row r="1728" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1728" s="3" t="n">
-        <v>1724</v>
-      </c>
-      <c r="B1728" s="3" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C1728" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1728" s="3"/>
+      <c r="B1728" s="3"/>
+      <c r="C1728" s="3"/>
     </row>
     <row r="1729" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1729" s="3" t="n">
-        <v>1725</v>
-      </c>
-      <c r="B1729" s="3" t="s">
-        <v>1732</v>
-      </c>
-      <c r="C1729" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1729" s="3"/>
+      <c r="B1729" s="3"/>
+      <c r="C1729" s="3"/>
     </row>
     <row r="1730" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1730" s="3" t="n">
-        <v>1726</v>
-      </c>
-      <c r="B1730" s="3" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C1730" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1730" s="3"/>
+      <c r="B1730" s="3"/>
+      <c r="C1730" s="3"/>
     </row>
     <row r="1731" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1731" s="3" t="n">
-        <v>1727</v>
-      </c>
-      <c r="B1731" s="3" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C1731" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1731" s="3"/>
+      <c r="B1731" s="3"/>
+      <c r="C1731" s="3"/>
     </row>
     <row r="1732" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1732" s="3" t="n">
-        <v>1728</v>
-      </c>
-      <c r="B1732" s="3" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C1732" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1732" s="3"/>
+      <c r="B1732" s="3"/>
+      <c r="C1732" s="3"/>
     </row>
     <row r="1733" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1733" s="3" t="n">
-        <v>1729</v>
-      </c>
-      <c r="B1733" s="3" t="s">
-        <v>1736</v>
-      </c>
-      <c r="C1733" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1733" s="3"/>
+      <c r="B1733" s="3"/>
+      <c r="C1733" s="3"/>
     </row>
     <row r="1734" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1734" s="3" t="n">
-        <v>1730</v>
-      </c>
-      <c r="B1734" s="3" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C1734" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1734" s="3"/>
+      <c r="B1734" s="3"/>
+      <c r="C1734" s="3"/>
     </row>
     <row r="1735" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1735" s="3" t="n">
-        <v>1731</v>
-      </c>
-      <c r="B1735" s="3" t="s">
-        <v>1738</v>
-      </c>
-      <c r="C1735" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1735" s="3"/>
+      <c r="B1735" s="3"/>
+      <c r="C1735" s="3"/>
     </row>
     <row r="1736" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1736" s="3" t="n">
-        <v>1732</v>
-      </c>
-      <c r="B1736" s="3" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C1736" s="3" t="n">
-        <v>3003</v>
-      </c>
+      <c r="A1736" s="3"/>
+      <c r="B1736" s="3"/>
+      <c r="C1736" s="3"/>
     </row>
     <row r="1737" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1737" s="3" t="n">
-        <v>1733</v>
-      </c>
-      <c r="B1737" s="3" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C1737" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1737" s="3"/>
+      <c r="B1737" s="3"/>
+      <c r="C1737" s="3"/>
     </row>
     <row r="1738" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1738" s="3" t="n">
-        <v>1734</v>
-      </c>
-      <c r="B1738" s="3" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C1738" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1738" s="3"/>
+      <c r="B1738" s="3"/>
+      <c r="C1738" s="3"/>
     </row>
     <row r="1739" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1739" s="3" t="n">
-        <v>1735</v>
-      </c>
-      <c r="B1739" s="3" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C1739" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1739" s="3"/>
+      <c r="B1739" s="3"/>
+      <c r="C1739" s="3"/>
     </row>
     <row r="1740" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1740" s="3" t="n">
-        <v>1736</v>
-      </c>
-      <c r="B1740" s="3" t="s">
-        <v>1743</v>
-      </c>
-      <c r="C1740" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1740" s="3"/>
+      <c r="B1740" s="3"/>
+      <c r="C1740" s="3"/>
     </row>
     <row r="1741" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1741" s="3" t="n">
-        <v>1737</v>
-      </c>
-      <c r="B1741" s="3" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C1741" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1741" s="3"/>
+      <c r="B1741" s="3"/>
+      <c r="C1741" s="3"/>
     </row>
     <row r="1742" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1742" s="3" t="n">
-        <v>1738</v>
-      </c>
-      <c r="B1742" s="3" t="s">
-        <v>1745</v>
-      </c>
-      <c r="C1742" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1742" s="3"/>
+      <c r="B1742" s="3"/>
+      <c r="C1742" s="3"/>
     </row>
     <row r="1743" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1743" s="3" t="n">
-        <v>1739</v>
-      </c>
-      <c r="B1743" s="3" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C1743" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1743" s="3"/>
+      <c r="B1743" s="3"/>
+      <c r="C1743" s="3"/>
     </row>
     <row r="1744" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1744" s="3" t="n">
-        <v>1740</v>
-      </c>
-      <c r="B1744" s="3" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C1744" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1744" s="3"/>
+      <c r="B1744" s="3"/>
+      <c r="C1744" s="3"/>
     </row>
     <row r="1745" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1745" s="3" t="n">
-        <v>1741</v>
-      </c>
-      <c r="B1745" s="3" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C1745" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1745" s="3"/>
+      <c r="B1745" s="3"/>
+      <c r="C1745" s="3"/>
     </row>
     <row r="1746" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1746" s="3" t="n">
-        <v>1742</v>
-      </c>
-      <c r="B1746" s="3" t="s">
-        <v>1749</v>
-      </c>
-      <c r="C1746" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1746" s="3"/>
+      <c r="B1746" s="3"/>
+      <c r="C1746" s="3"/>
     </row>
     <row r="1747" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1747" s="3" t="n">
-        <v>1743</v>
-      </c>
-      <c r="B1747" s="3" t="s">
-        <v>1750</v>
-      </c>
-      <c r="C1747" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1747" s="3"/>
+      <c r="B1747" s="3"/>
+      <c r="C1747" s="3"/>
     </row>
     <row r="1748" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1748" s="3" t="n">
-        <v>1744</v>
-      </c>
-      <c r="B1748" s="3" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C1748" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1748" s="3"/>
+      <c r="B1748" s="3"/>
+      <c r="C1748" s="3"/>
     </row>
     <row r="1749" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1749" s="3" t="n">
-        <v>1745</v>
-      </c>
-      <c r="B1749" s="3" t="s">
-        <v>1752</v>
-      </c>
-      <c r="C1749" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1749" s="3"/>
+      <c r="B1749" s="3"/>
+      <c r="C1749" s="3"/>
     </row>
     <row r="1750" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1750" s="3" t="n">
-        <v>1746</v>
-      </c>
-      <c r="B1750" s="3" t="s">
-        <v>1753</v>
-      </c>
-      <c r="C1750" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1750" s="3"/>
+      <c r="B1750" s="3"/>
+      <c r="C1750" s="3"/>
     </row>
     <row r="1751" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1751" s="3" t="n">
-        <v>1747</v>
-      </c>
-      <c r="B1751" s="3" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C1751" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1751" s="3"/>
+      <c r="B1751" s="3"/>
+      <c r="C1751" s="3"/>
     </row>
     <row r="1752" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1752" s="3" t="n">
-        <v>1748</v>
-      </c>
-      <c r="B1752" s="3" t="s">
-        <v>1755</v>
-      </c>
-      <c r="C1752" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1752" s="3"/>
+      <c r="B1752" s="3"/>
+      <c r="C1752" s="3"/>
     </row>
     <row r="1753" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1753" s="3" t="n">
-        <v>1749</v>
-      </c>
-      <c r="B1753" s="3" t="s">
-        <v>1756</v>
-      </c>
-      <c r="C1753" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1753" s="3"/>
+      <c r="B1753" s="3"/>
+      <c r="C1753" s="3"/>
     </row>
     <row r="1754" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1754" s="3" t="n">
-        <v>1750</v>
-      </c>
-      <c r="B1754" s="3" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C1754" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1754" s="3"/>
+      <c r="B1754" s="3"/>
+      <c r="C1754" s="3"/>
     </row>
     <row r="1755" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1755" s="3" t="n">
-        <v>1751</v>
-      </c>
-      <c r="B1755" s="3" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C1755" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1755" s="3"/>
+      <c r="B1755" s="3"/>
+      <c r="C1755" s="3"/>
     </row>
     <row r="1756" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1756" s="3" t="n">
-        <v>1752</v>
-      </c>
-      <c r="B1756" s="3" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C1756" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1756" s="3"/>
+      <c r="B1756" s="3"/>
+      <c r="C1756" s="3"/>
     </row>
     <row r="1757" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1757" s="3" t="n">
-        <v>1753</v>
-      </c>
-      <c r="B1757" s="3" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C1757" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1757" s="3"/>
+      <c r="B1757" s="3"/>
+      <c r="C1757" s="3"/>
     </row>
     <row r="1758" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1758" s="3" t="n">
-        <v>1754</v>
-      </c>
-      <c r="B1758" s="3" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C1758" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1758" s="3"/>
+      <c r="B1758" s="3"/>
+      <c r="C1758" s="3"/>
     </row>
     <row r="1759" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1759" s="3" t="n">
-        <v>1755</v>
-      </c>
-      <c r="B1759" s="3" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C1759" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1759" s="3"/>
+      <c r="B1759" s="3"/>
+      <c r="C1759" s="3"/>
     </row>
     <row r="1760" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1760" s="3" t="n">
-        <v>1756</v>
-      </c>
-      <c r="B1760" s="3" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C1760" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1760" s="3"/>
+      <c r="B1760" s="3"/>
+      <c r="C1760" s="3"/>
     </row>
     <row r="1761" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1761" s="3" t="n">
-        <v>1757</v>
-      </c>
-      <c r="B1761" s="3" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C1761" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1761" s="3"/>
+      <c r="B1761" s="3"/>
+      <c r="C1761" s="3"/>
     </row>
     <row r="1762" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1762" s="3" t="n">
-        <v>1758</v>
-      </c>
-      <c r="B1762" s="3" t="s">
-        <v>1765</v>
-      </c>
-      <c r="C1762" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1762" s="3"/>
+      <c r="B1762" s="3"/>
+      <c r="C1762" s="3"/>
     </row>
     <row r="1763" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1763" s="3" t="n">
-        <v>1759</v>
-      </c>
-      <c r="B1763" s="3" t="s">
-        <v>1766</v>
-      </c>
-      <c r="C1763" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1763" s="3"/>
+      <c r="B1763" s="3"/>
+      <c r="C1763" s="3"/>
     </row>
     <row r="1764" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1764" s="3" t="n">
-        <v>1760</v>
-      </c>
-      <c r="B1764" s="3" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C1764" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1764" s="3"/>
+      <c r="B1764" s="3"/>
+      <c r="C1764" s="3"/>
     </row>
     <row r="1765" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1765" s="3" t="n">
-        <v>1761</v>
-      </c>
-      <c r="B1765" s="3" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C1765" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1765" s="3"/>
+      <c r="B1765" s="3"/>
+      <c r="C1765" s="3"/>
     </row>
     <row r="1766" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1766" s="3" t="n">
-        <v>1762</v>
-      </c>
-      <c r="B1766" s="3" t="s">
-        <v>1769</v>
-      </c>
-      <c r="C1766" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1766" s="3"/>
+      <c r="B1766" s="3"/>
+      <c r="C1766" s="3"/>
     </row>
     <row r="1767" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1767" s="3" t="n">
-        <v>1763</v>
-      </c>
-      <c r="B1767" s="3" t="s">
-        <v>1770</v>
-      </c>
-      <c r="C1767" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1767" s="3"/>
+      <c r="B1767" s="3"/>
+      <c r="C1767" s="3"/>
     </row>
     <row r="1768" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1768" s="3" t="n">
-        <v>1764</v>
-      </c>
-      <c r="B1768" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C1768" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1768" s="3"/>
+      <c r="B1768" s="3"/>
+      <c r="C1768" s="3"/>
     </row>
     <row r="1769" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1769" s="3" t="n">
-        <v>1765</v>
-      </c>
-      <c r="B1769" s="3" t="s">
-        <v>1772</v>
-      </c>
-      <c r="C1769" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1769" s="3"/>
+      <c r="B1769" s="3"/>
+      <c r="C1769" s="3"/>
     </row>
     <row r="1770" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1770" s="3" t="n">
-        <v>1766</v>
-      </c>
-      <c r="B1770" s="3" t="s">
-        <v>1773</v>
-      </c>
-      <c r="C1770" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1770" s="3"/>
+      <c r="B1770" s="3"/>
+      <c r="C1770" s="3"/>
     </row>
     <row r="1771" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1771" s="3" t="n">
-        <v>1767</v>
-      </c>
-      <c r="B1771" s="3" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C1771" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1771" s="3"/>
+      <c r="B1771" s="3"/>
+      <c r="C1771" s="3"/>
     </row>
     <row r="1772" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1772" s="3" t="n">
-        <v>1768</v>
-      </c>
-      <c r="B1772" s="3" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C1772" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1772" s="3"/>
+      <c r="B1772" s="3"/>
+      <c r="C1772" s="3"/>
     </row>
     <row r="1773" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1773" s="3" t="n">
-        <v>1769</v>
-      </c>
-      <c r="B1773" s="3" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C1773" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1773" s="3"/>
+      <c r="B1773" s="3"/>
+      <c r="C1773" s="3"/>
     </row>
     <row r="1774" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1774" s="3" t="n">
-        <v>1770</v>
-      </c>
-      <c r="B1774" s="3" t="s">
-        <v>1777</v>
-      </c>
-      <c r="C1774" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1774" s="3"/>
+      <c r="B1774" s="3"/>
+      <c r="C1774" s="3"/>
     </row>
     <row r="1775" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1775" s="3" t="n">
-        <v>1771</v>
-      </c>
-      <c r="B1775" s="3" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C1775" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1775" s="3"/>
+      <c r="B1775" s="3"/>
+      <c r="C1775" s="3"/>
     </row>
     <row r="1776" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1776" s="3" t="n">
-        <v>1772</v>
-      </c>
-      <c r="B1776" s="3" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C1776" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1776" s="3"/>
+      <c r="B1776" s="3"/>
+      <c r="C1776" s="3"/>
     </row>
     <row r="1777" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1777" s="3" t="n">
-        <v>1773</v>
-      </c>
-      <c r="B1777" s="3" t="s">
-        <v>1780</v>
-      </c>
-      <c r="C1777" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1777" s="3"/>
+      <c r="B1777" s="3"/>
+      <c r="C1777" s="3"/>
     </row>
     <row r="1778" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1778" s="3" t="n">
-        <v>1774</v>
-      </c>
-      <c r="B1778" s="3" t="s">
-        <v>1781</v>
-      </c>
-      <c r="C1778" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1778" s="3"/>
+      <c r="B1778" s="3"/>
+      <c r="C1778" s="3"/>
     </row>
     <row r="1779" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1779" s="3" t="n">
-        <v>1775</v>
-      </c>
-      <c r="B1779" s="3" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C1779" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1779" s="3"/>
+      <c r="B1779" s="3"/>
+      <c r="C1779" s="3"/>
     </row>
     <row r="1780" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1780" s="3" t="n">
-        <v>1776</v>
-      </c>
-      <c r="B1780" s="3" t="s">
-        <v>1783</v>
-      </c>
-      <c r="C1780" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1780" s="3"/>
+      <c r="B1780" s="3"/>
+      <c r="C1780" s="3"/>
     </row>
     <row r="1781" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1781" s="3" t="n">
-        <v>1777</v>
-      </c>
-      <c r="B1781" s="3" t="s">
-        <v>1784</v>
-      </c>
-      <c r="C1781" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1781" s="3"/>
+      <c r="B1781" s="3"/>
+      <c r="C1781" s="3"/>
     </row>
     <row r="1782" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1782" s="3" t="n">
-        <v>1778</v>
-      </c>
-      <c r="B1782" s="3" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C1782" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1782" s="3"/>
+      <c r="B1782" s="3"/>
+      <c r="C1782" s="3"/>
     </row>
     <row r="1783" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1783" s="3" t="n">
-        <v>1779</v>
-      </c>
-      <c r="B1783" s="3" t="s">
-        <v>1786</v>
-      </c>
-      <c r="C1783" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1783" s="3"/>
+      <c r="B1783" s="3"/>
+      <c r="C1783" s="3"/>
     </row>
     <row r="1784" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1784" s="3" t="n">
-        <v>1780</v>
-      </c>
-      <c r="B1784" s="3" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C1784" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1784" s="3"/>
+      <c r="B1784" s="3"/>
+      <c r="C1784" s="3"/>
     </row>
     <row r="1785" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1785" s="3" t="n">
-        <v>1781</v>
-      </c>
-      <c r="B1785" s="3" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C1785" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1785" s="3"/>
+      <c r="B1785" s="3"/>
+      <c r="C1785" s="3"/>
     </row>
     <row r="1786" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1786" s="3" t="n">
-        <v>1782</v>
-      </c>
-      <c r="B1786" s="3" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C1786" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1786" s="3"/>
+      <c r="B1786" s="3"/>
+      <c r="C1786" s="3"/>
     </row>
     <row r="1787" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1787" s="3" t="n">
-        <v>1783</v>
-      </c>
-      <c r="B1787" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="C1787" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1787" s="3"/>
+      <c r="B1787" s="3"/>
+      <c r="C1787" s="3"/>
     </row>
     <row r="1788" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1788" s="3" t="n">
-        <v>1784</v>
-      </c>
-      <c r="B1788" s="3" t="s">
-        <v>1791</v>
-      </c>
-      <c r="C1788" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1788" s="3"/>
+      <c r="B1788" s="3"/>
+      <c r="C1788" s="3"/>
     </row>
     <row r="1789" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1789" s="3" t="n">
-        <v>1785</v>
-      </c>
-      <c r="B1789" s="3" t="s">
-        <v>1792</v>
-      </c>
-      <c r="C1789" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1789" s="3"/>
+      <c r="B1789" s="3"/>
+      <c r="C1789" s="3"/>
     </row>
     <row r="1790" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1790" s="3" t="n">
-        <v>1786</v>
-      </c>
-      <c r="B1790" s="3" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C1790" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1790" s="3"/>
+      <c r="B1790" s="3"/>
+      <c r="C1790" s="3"/>
     </row>
     <row r="1791" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1791" s="3" t="n">
-        <v>1787</v>
-      </c>
-      <c r="B1791" s="3" t="s">
-        <v>1794</v>
-      </c>
-      <c r="C1791" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1791" s="3"/>
+      <c r="B1791" s="3"/>
+      <c r="C1791" s="3"/>
     </row>
     <row r="1792" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1792" s="3" t="n">
-        <v>1788</v>
-      </c>
-      <c r="B1792" s="3" t="s">
-        <v>1795</v>
-      </c>
-      <c r="C1792" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1792" s="3"/>
+      <c r="B1792" s="3"/>
+      <c r="C1792" s="3"/>
     </row>
     <row r="1793" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1793" s="3" t="n">
-        <v>1789</v>
-      </c>
-      <c r="B1793" s="3" t="s">
-        <v>1796</v>
-      </c>
-      <c r="C1793" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1793" s="3"/>
+      <c r="B1793" s="3"/>
+      <c r="C1793" s="3"/>
     </row>
     <row r="1794" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1794" s="3" t="n">
-        <v>1790</v>
-      </c>
-      <c r="B1794" s="3" t="s">
-        <v>1797</v>
-      </c>
-      <c r="C1794" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1794" s="3"/>
+      <c r="B1794" s="3"/>
+      <c r="C1794" s="3"/>
     </row>
     <row r="1795" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1795" s="3" t="n">
-        <v>1791</v>
-      </c>
-      <c r="B1795" s="3" t="s">
-        <v>1798</v>
-      </c>
-      <c r="C1795" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1795" s="3"/>
+      <c r="B1795" s="3"/>
+      <c r="C1795" s="3"/>
     </row>
     <row r="1796" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1796" s="3" t="n">
-        <v>1792</v>
-      </c>
-      <c r="B1796" s="3" t="s">
-        <v>1799</v>
-      </c>
-      <c r="C1796" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1796" s="3"/>
+      <c r="B1796" s="3"/>
+      <c r="C1796" s="3"/>
     </row>
     <row r="1797" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1797" s="3" t="n">
-        <v>1793</v>
-      </c>
-      <c r="B1797" s="3" t="s">
-        <v>1800</v>
-      </c>
-      <c r="C1797" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1797" s="3"/>
+      <c r="B1797" s="3"/>
+      <c r="C1797" s="3"/>
     </row>
     <row r="1798" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1798" s="3" t="n">
-        <v>1794</v>
-      </c>
-      <c r="B1798" s="3" t="s">
-        <v>1801</v>
-      </c>
-      <c r="C1798" s="3" t="n">
-        <v>3004</v>
-      </c>
+      <c r="A1798" s="3"/>
+      <c r="B1798" s="3"/>
+      <c r="C1798" s="3"/>
     </row>
     <row r="1799" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1799" s="3" t="n">
-        <v>1795</v>
-      </c>
-      <c r="B1799" s="3" t="s">
-        <v>1802</v>
-      </c>
-      <c r="C1799" s="3" t="n">
-        <v>3005</v>
-      </c>
+      <c r="A1799" s="3"/>
+      <c r="B1799" s="3"/>
+      <c r="C1799" s="3"/>
     </row>
     <row r="1800" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1800" s="3" t="n">
-        <v>1796</v>
-      </c>
-      <c r="B1800" s="3" t="s">
-        <v>1803</v>
-      </c>
-      <c r="C1800" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1800" s="3"/>
+      <c r="B1800" s="3"/>
+      <c r="C1800" s="3"/>
     </row>
     <row r="1801" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1801" s="3" t="n">
-        <v>1797</v>
-      </c>
-      <c r="B1801" s="3" t="s">
-        <v>1804</v>
-      </c>
-      <c r="C1801" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1801" s="3"/>
+      <c r="B1801" s="3"/>
+      <c r="C1801" s="3"/>
     </row>
     <row r="1802" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1802" s="3" t="n">
-        <v>1798</v>
-      </c>
-      <c r="B1802" s="3" t="s">
-        <v>1805</v>
-      </c>
-      <c r="C1802" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1802" s="3"/>
+      <c r="B1802" s="3"/>
+      <c r="C1802" s="3"/>
     </row>
     <row r="1803" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1803" s="3" t="n">
-        <v>1799</v>
-      </c>
-      <c r="B1803" s="3" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C1803" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1803" s="3"/>
+      <c r="B1803" s="3"/>
+      <c r="C1803" s="3"/>
     </row>
     <row r="1804" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1804" s="3" t="n">
-        <v>1800</v>
-      </c>
-      <c r="B1804" s="3" t="s">
-        <v>1807</v>
-      </c>
-      <c r="C1804" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1804" s="3"/>
+      <c r="B1804" s="3"/>
+      <c r="C1804" s="3"/>
     </row>
     <row r="1805" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1805" s="3" t="n">
-        <v>1801</v>
-      </c>
-      <c r="B1805" s="3" t="s">
-        <v>1808</v>
-      </c>
-      <c r="C1805" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1805" s="3"/>
+      <c r="B1805" s="3"/>
+      <c r="C1805" s="3"/>
     </row>
     <row r="1806" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1806" s="3" t="n">
-        <v>1802</v>
-      </c>
-      <c r="B1806" s="3" t="s">
-        <v>1809</v>
-      </c>
-      <c r="C1806" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1806" s="3"/>
+      <c r="B1806" s="3"/>
+      <c r="C1806" s="3"/>
     </row>
     <row r="1807" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1807" s="3" t="n">
-        <v>1803</v>
-      </c>
-      <c r="B1807" s="3" t="s">
-        <v>1810</v>
-      </c>
-      <c r="C1807" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1807" s="3"/>
+      <c r="B1807" s="3"/>
+      <c r="C1807" s="3"/>
     </row>
     <row r="1808" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1808" s="3" t="n">
-        <v>1804</v>
-      </c>
-      <c r="B1808" s="3" t="s">
-        <v>1811</v>
-      </c>
-      <c r="C1808" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1808" s="3"/>
+      <c r="B1808" s="3"/>
+      <c r="C1808" s="3"/>
     </row>
     <row r="1809" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1809" s="3" t="n">
-        <v>1805</v>
-      </c>
-      <c r="B1809" s="3" t="s">
-        <v>1812</v>
-      </c>
-      <c r="C1809" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1809" s="3"/>
+      <c r="B1809" s="3"/>
+      <c r="C1809" s="3"/>
     </row>
     <row r="1810" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1810" s="3" t="n">
-        <v>1806</v>
-      </c>
-      <c r="B1810" s="3" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C1810" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1810" s="3"/>
+      <c r="B1810" s="3"/>
+      <c r="C1810" s="3"/>
     </row>
     <row r="1811" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1811" s="3" t="n">
-        <v>1807</v>
-      </c>
-      <c r="B1811" s="3" t="s">
-        <v>1814</v>
-      </c>
-      <c r="C1811" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1811" s="3"/>
+      <c r="B1811" s="3"/>
+      <c r="C1811" s="3"/>
     </row>
     <row r="1812" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1812" s="3" t="n">
-        <v>1808</v>
-      </c>
-      <c r="B1812" s="3" t="s">
-        <v>1815</v>
-      </c>
-      <c r="C1812" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1812" s="3"/>
+      <c r="B1812" s="3"/>
+      <c r="C1812" s="3"/>
     </row>
     <row r="1813" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1813" s="3" t="n">
-        <v>1809</v>
-      </c>
-      <c r="B1813" s="3" t="s">
-        <v>1816</v>
-      </c>
-      <c r="C1813" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1813" s="3"/>
+      <c r="B1813" s="3"/>
+      <c r="C1813" s="3"/>
     </row>
     <row r="1814" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1814" s="3" t="n">
-        <v>1810</v>
-      </c>
-      <c r="B1814" s="3" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C1814" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1814" s="3"/>
+      <c r="B1814" s="3"/>
+      <c r="C1814" s="3"/>
     </row>
     <row r="1815" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1815" s="3" t="n">
-        <v>1811</v>
-      </c>
-      <c r="B1815" s="3" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C1815" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1815" s="3"/>
+      <c r="B1815" s="3"/>
+      <c r="C1815" s="3"/>
     </row>
     <row r="1816" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1816" s="3" t="n">
-        <v>1812</v>
-      </c>
-      <c r="B1816" s="3" t="s">
-        <v>1819</v>
-      </c>
-      <c r="C1816" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1816" s="3"/>
+      <c r="B1816" s="3"/>
+      <c r="C1816" s="3"/>
     </row>
     <row r="1817" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1817" s="3" t="n">
-        <v>1813</v>
-      </c>
-      <c r="B1817" s="3" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C1817" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1817" s="3"/>
+      <c r="B1817" s="3"/>
+      <c r="C1817" s="3"/>
     </row>
     <row r="1818" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1818" s="3" t="n">
-        <v>1814</v>
-      </c>
-      <c r="B1818" s="3" t="s">
-        <v>1821</v>
-      </c>
-      <c r="C1818" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1818" s="3"/>
+      <c r="B1818" s="3"/>
+      <c r="C1818" s="3"/>
     </row>
     <row r="1819" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1819" s="3" t="n">
-        <v>1815</v>
-      </c>
-      <c r="B1819" s="3" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C1819" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1819" s="3"/>
+      <c r="B1819" s="3"/>
+      <c r="C1819" s="3"/>
     </row>
     <row r="1820" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1820" s="3" t="n">
-        <v>1816</v>
-      </c>
-      <c r="B1820" s="3" t="s">
-        <v>1823</v>
-      </c>
-      <c r="C1820" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1820" s="3"/>
+      <c r="B1820" s="3"/>
+      <c r="C1820" s="3"/>
     </row>
     <row r="1821" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1821" s="3" t="n">
-        <v>1817</v>
-      </c>
-      <c r="B1821" s="3" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C1821" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1821" s="3"/>
+      <c r="B1821" s="3"/>
+      <c r="C1821" s="3"/>
     </row>
     <row r="1822" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1822" s="3" t="n">
-        <v>1818</v>
-      </c>
-      <c r="B1822" s="3" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C1822" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1822" s="3"/>
+      <c r="B1822" s="3"/>
+      <c r="C1822" s="3"/>
     </row>
     <row r="1823" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1823" s="3" t="n">
-        <v>1819</v>
-      </c>
-      <c r="B1823" s="3" t="s">
-        <v>1826</v>
-      </c>
-      <c r="C1823" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1823" s="3"/>
+      <c r="B1823" s="3"/>
+      <c r="C1823" s="3"/>
     </row>
     <row r="1824" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1824" s="3" t="n">
-        <v>1820</v>
-      </c>
-      <c r="B1824" s="3" t="s">
-        <v>1827</v>
-      </c>
-      <c r="C1824" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1824" s="3"/>
+      <c r="B1824" s="3"/>
+      <c r="C1824" s="3"/>
     </row>
     <row r="1825" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1825" s="3" t="n">
-        <v>1821</v>
-      </c>
-      <c r="B1825" s="3" t="s">
-        <v>1828</v>
-      </c>
-      <c r="C1825" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1825" s="3"/>
+      <c r="B1825" s="3"/>
+      <c r="C1825" s="3"/>
     </row>
     <row r="1826" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1826" s="3" t="n">
-        <v>1822</v>
-      </c>
-      <c r="B1826" s="3" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C1826" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1826" s="3"/>
+      <c r="B1826" s="3"/>
+      <c r="C1826" s="3"/>
     </row>
     <row r="1827" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1827" s="3" t="n">
-        <v>1823</v>
-      </c>
-      <c r="B1827" s="3" t="s">
-        <v>1830</v>
-      </c>
-      <c r="C1827" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1827" s="3"/>
+      <c r="B1827" s="3"/>
+      <c r="C1827" s="3"/>
     </row>
     <row r="1828" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1828" s="3" t="n">
-        <v>1824</v>
-      </c>
-      <c r="B1828" s="3" t="s">
-        <v>1831</v>
-      </c>
-      <c r="C1828" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1828" s="3"/>
+      <c r="B1828" s="3"/>
+      <c r="C1828" s="3"/>
     </row>
     <row r="1829" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1829" s="3" t="n">
-        <v>1825</v>
-      </c>
-      <c r="B1829" s="3" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C1829" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1829" s="3"/>
+      <c r="B1829" s="3"/>
+      <c r="C1829" s="3"/>
     </row>
     <row r="1830" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1830" s="3" t="n">
-        <v>1826</v>
-      </c>
-      <c r="B1830" s="3" t="s">
-        <v>1833</v>
-      </c>
-      <c r="C1830" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1830" s="3"/>
+      <c r="B1830" s="3"/>
+      <c r="C1830" s="3"/>
     </row>
     <row r="1831" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1831" s="3" t="n">
-        <v>1827</v>
-      </c>
-      <c r="B1831" s="3" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C1831" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1831" s="3"/>
+      <c r="B1831" s="3"/>
+      <c r="C1831" s="3"/>
     </row>
     <row r="1832" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1832" s="3" t="n">
-        <v>1828</v>
-      </c>
-      <c r="B1832" s="3" t="s">
-        <v>1835</v>
-      </c>
-      <c r="C1832" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1832" s="3"/>
+      <c r="B1832" s="3"/>
+      <c r="C1832" s="3"/>
     </row>
     <row r="1833" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1833" s="3" t="n">
-        <v>1829</v>
-      </c>
-      <c r="B1833" s="3" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C1833" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1833" s="3"/>
+      <c r="B1833" s="3"/>
+      <c r="C1833" s="3"/>
     </row>
     <row r="1834" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1834" s="3" t="n">
-        <v>1830</v>
-      </c>
-      <c r="B1834" s="3" t="s">
-        <v>1837</v>
-      </c>
-      <c r="C1834" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1834" s="3"/>
+      <c r="B1834" s="3"/>
+      <c r="C1834" s="3"/>
     </row>
     <row r="1835" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1835" s="3" t="n">
-        <v>1831</v>
-      </c>
-      <c r="B1835" s="3" t="s">
-        <v>1838</v>
-      </c>
-      <c r="C1835" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1835" s="3"/>
+      <c r="B1835" s="3"/>
+      <c r="C1835" s="3"/>
     </row>
     <row r="1836" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1836" s="3" t="n">
-        <v>1832</v>
-      </c>
-      <c r="B1836" s="3" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C1836" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1836" s="3"/>
+      <c r="B1836" s="3"/>
+      <c r="C1836" s="3"/>
     </row>
     <row r="1837" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1837" s="3" t="n">
-        <v>1833</v>
-      </c>
-      <c r="B1837" s="3" t="s">
-        <v>1840</v>
-      </c>
-      <c r="C1837" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1837" s="3"/>
+      <c r="B1837" s="3"/>
+      <c r="C1837" s="3"/>
     </row>
     <row r="1838" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1838" s="3" t="n">
-        <v>1834</v>
-      </c>
-      <c r="B1838" s="3" t="s">
-        <v>1841</v>
-      </c>
-      <c r="C1838" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1838" s="3"/>
+      <c r="B1838" s="3"/>
+      <c r="C1838" s="3"/>
     </row>
     <row r="1839" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1839" s="3" t="n">
-        <v>1835</v>
-      </c>
-      <c r="B1839" s="3" t="s">
-        <v>1842</v>
-      </c>
-      <c r="C1839" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1839" s="3"/>
+      <c r="B1839" s="3"/>
+      <c r="C1839" s="3"/>
     </row>
     <row r="1840" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1840" s="3" t="n">
-        <v>1836</v>
-      </c>
-      <c r="B1840" s="3" t="s">
-        <v>1843</v>
-      </c>
-      <c r="C1840" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1840" s="3"/>
+      <c r="B1840" s="3"/>
+      <c r="C1840" s="3"/>
     </row>
     <row r="1841" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1841" s="3" t="n">
-        <v>1837</v>
-      </c>
-      <c r="B1841" s="3" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C1841" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1841" s="3"/>
+      <c r="B1841" s="3"/>
+      <c r="C1841" s="3"/>
     </row>
     <row r="1842" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1842" s="3" t="n">
-        <v>1838</v>
-      </c>
-      <c r="B1842" s="3" t="s">
-        <v>1845</v>
-      </c>
-      <c r="C1842" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1842" s="3"/>
+      <c r="B1842" s="3"/>
+      <c r="C1842" s="3"/>
     </row>
     <row r="1843" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1843" s="3" t="n">
-        <v>1839</v>
-      </c>
-      <c r="B1843" s="3" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C1843" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1843" s="3"/>
+      <c r="B1843" s="3"/>
+      <c r="C1843" s="3"/>
     </row>
     <row r="1844" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1844" s="3" t="n">
-        <v>1840</v>
-      </c>
-      <c r="B1844" s="3" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C1844" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1844" s="3"/>
+      <c r="B1844" s="3"/>
+      <c r="C1844" s="3"/>
     </row>
     <row r="1845" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1845" s="3" t="n">
-        <v>1841</v>
-      </c>
-      <c r="B1845" s="3" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C1845" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1845" s="3"/>
+      <c r="B1845" s="3"/>
+      <c r="C1845" s="3"/>
     </row>
     <row r="1846" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1846" s="3" t="n">
-        <v>1842</v>
-      </c>
-      <c r="B1846" s="3" t="s">
-        <v>1849</v>
-      </c>
-      <c r="C1846" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1846" s="3"/>
+      <c r="B1846" s="3"/>
+      <c r="C1846" s="3"/>
     </row>
     <row r="1847" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1847" s="3" t="n">
-        <v>1843</v>
-      </c>
-      <c r="B1847" s="3" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C1847" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1847" s="3"/>
+      <c r="B1847" s="3"/>
+      <c r="C1847" s="3"/>
     </row>
     <row r="1848" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1848" s="3" t="n">
-        <v>1844</v>
-      </c>
-      <c r="B1848" s="3" t="s">
-        <v>1851</v>
-      </c>
-      <c r="C1848" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1848" s="3"/>
+      <c r="B1848" s="3"/>
+      <c r="C1848" s="3"/>
     </row>
     <row r="1849" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1849" s="3" t="n">
-        <v>1845</v>
-      </c>
-      <c r="B1849" s="3" t="s">
-        <v>1852</v>
-      </c>
-      <c r="C1849" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1849" s="3"/>
+      <c r="B1849" s="3"/>
+      <c r="C1849" s="3"/>
     </row>
     <row r="1850" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1850" s="3" t="n">
-        <v>1846</v>
-      </c>
-      <c r="B1850" s="3" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C1850" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1850" s="3"/>
+      <c r="B1850" s="3"/>
+      <c r="C1850" s="3"/>
     </row>
     <row r="1851" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1851" s="3" t="n">
-        <v>1847</v>
-      </c>
-      <c r="B1851" s="3" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C1851" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1851" s="3"/>
+      <c r="B1851" s="3"/>
+      <c r="C1851" s="3"/>
     </row>
     <row r="1852" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1852" s="3" t="n">
-        <v>1848</v>
-      </c>
-      <c r="B1852" s="3" t="s">
-        <v>1855</v>
-      </c>
-      <c r="C1852" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1852" s="3"/>
+      <c r="B1852" s="3"/>
+      <c r="C1852" s="3"/>
     </row>
     <row r="1853" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1853" s="3" t="n">
-        <v>1849</v>
-      </c>
-      <c r="B1853" s="3" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C1853" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1853" s="3"/>
+      <c r="B1853" s="3"/>
+      <c r="C1853" s="3"/>
     </row>
     <row r="1854" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1854" s="3" t="n">
-        <v>1850</v>
-      </c>
-      <c r="B1854" s="3" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C1854" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1854" s="3"/>
+      <c r="B1854" s="3"/>
+      <c r="C1854" s="3"/>
     </row>
     <row r="1855" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1855" s="3" t="n">
-        <v>1851</v>
-      </c>
-      <c r="B1855" s="3" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C1855" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1855" s="3"/>
+      <c r="B1855" s="3"/>
+      <c r="C1855" s="3"/>
     </row>
     <row r="1856" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1856" s="3" t="n">
-        <v>1852</v>
-      </c>
-      <c r="B1856" s="3" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C1856" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1856" s="3"/>
+      <c r="B1856" s="3"/>
+      <c r="C1856" s="3"/>
     </row>
     <row r="1857" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1857" s="3" t="n">
-        <v>1853</v>
-      </c>
-      <c r="B1857" s="3" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C1857" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1857" s="3"/>
+      <c r="B1857" s="3"/>
+      <c r="C1857" s="3"/>
     </row>
     <row r="1858" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1858" s="3" t="n">
-        <v>1854</v>
-      </c>
-      <c r="B1858" s="3" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C1858" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1858" s="3"/>
+      <c r="B1858" s="3"/>
+      <c r="C1858" s="3"/>
     </row>
     <row r="1859" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1859" s="3" t="n">
-        <v>1855</v>
-      </c>
-      <c r="B1859" s="3" t="s">
-        <v>1862</v>
-      </c>
-      <c r="C1859" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1859" s="3"/>
+      <c r="B1859" s="3"/>
+      <c r="C1859" s="3"/>
     </row>
     <row r="1860" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1860" s="3" t="n">
-        <v>1856</v>
-      </c>
-      <c r="B1860" s="3" t="s">
-        <v>1863</v>
-      </c>
-      <c r="C1860" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1860" s="3"/>
+      <c r="B1860" s="3"/>
+      <c r="C1860" s="3"/>
     </row>
     <row r="1861" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1861" s="3" t="n">
-        <v>1857</v>
-      </c>
-      <c r="B1861" s="3" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C1861" s="3" t="n">
-        <v>3006</v>
-      </c>
+      <c r="A1861" s="3"/>
+      <c r="B1861" s="3"/>
+      <c r="C1861" s="3"/>
     </row>
     <row r="1862" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1862" s="3" t="n">
-        <v>1858</v>
-      </c>
-      <c r="B1862" s="3" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C1862" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1862" s="3"/>
+      <c r="B1862" s="3"/>
+      <c r="C1862" s="3"/>
     </row>
     <row r="1863" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1863" s="3" t="n">
-        <v>1859</v>
-      </c>
-      <c r="B1863" s="3" t="s">
-        <v>1866</v>
-      </c>
-      <c r="C1863" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1863" s="3"/>
+      <c r="B1863" s="3"/>
+      <c r="C1863" s="3"/>
     </row>
     <row r="1864" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1864" s="3" t="n">
-        <v>1860</v>
-      </c>
-      <c r="B1864" s="3" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C1864" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1864" s="3"/>
+      <c r="B1864" s="3"/>
+      <c r="C1864" s="3"/>
     </row>
     <row r="1865" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1865" s="3" t="n">
-        <v>1861</v>
-      </c>
-      <c r="B1865" s="3" t="s">
-        <v>1868</v>
-      </c>
-      <c r="C1865" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1865" s="3"/>
+      <c r="B1865" s="3"/>
+      <c r="C1865" s="3"/>
     </row>
     <row r="1866" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1866" s="3" t="n">
-        <v>1862</v>
-      </c>
-      <c r="B1866" s="3" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C1866" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1866" s="3"/>
+      <c r="B1866" s="3"/>
+      <c r="C1866" s="3"/>
     </row>
     <row r="1867" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1867" s="3" t="n">
-        <v>1863</v>
-      </c>
-      <c r="B1867" s="3" t="s">
-        <v>1870</v>
-      </c>
-      <c r="C1867" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1867" s="3"/>
+      <c r="B1867" s="3"/>
+      <c r="C1867" s="3"/>
     </row>
     <row r="1868" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1868" s="3" t="n">
-        <v>1864</v>
-      </c>
-      <c r="B1868" s="3" t="s">
-        <v>1871</v>
-      </c>
-      <c r="C1868" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1868" s="3"/>
+      <c r="B1868" s="3"/>
+      <c r="C1868" s="3"/>
     </row>
     <row r="1869" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1869" s="3" t="n">
-        <v>1865</v>
-      </c>
-      <c r="B1869" s="3" t="s">
-        <v>1872</v>
-      </c>
-      <c r="C1869" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1869" s="3"/>
+      <c r="B1869" s="3"/>
+      <c r="C1869" s="3"/>
     </row>
     <row r="1870" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1870" s="3" t="n">
-        <v>1866</v>
-      </c>
-      <c r="B1870" s="3" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C1870" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1870" s="3"/>
+      <c r="B1870" s="3"/>
+      <c r="C1870" s="3"/>
     </row>
     <row r="1871" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1871" s="3" t="n">
-        <v>1867</v>
-      </c>
-      <c r="B1871" s="3" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C1871" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1871" s="3"/>
+      <c r="B1871" s="3"/>
+      <c r="C1871" s="3"/>
     </row>
     <row r="1872" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1872" s="3" t="n">
-        <v>1868</v>
-      </c>
-      <c r="B1872" s="3" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C1872" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1872" s="3"/>
+      <c r="B1872" s="3"/>
+      <c r="C1872" s="3"/>
     </row>
     <row r="1873" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1873" s="3" t="n">
-        <v>1869</v>
-      </c>
-      <c r="B1873" s="3" t="s">
-        <v>1876</v>
-      </c>
-      <c r="C1873" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1873" s="3"/>
+      <c r="B1873" s="3"/>
+      <c r="C1873" s="3"/>
     </row>
     <row r="1874" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1874" s="3" t="n">
-        <v>1870</v>
-      </c>
-      <c r="B1874" s="3" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C1874" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1874" s="3"/>
+      <c r="B1874" s="3"/>
+      <c r="C1874" s="3"/>
     </row>
     <row r="1875" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1875" s="3" t="n">
-        <v>1871</v>
-      </c>
-      <c r="B1875" s="3" t="s">
-        <v>1878</v>
-      </c>
-      <c r="C1875" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1875" s="3"/>
+      <c r="B1875" s="3"/>
+      <c r="C1875" s="3"/>
     </row>
     <row r="1876" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1876" s="3" t="n">
-        <v>1872</v>
-      </c>
-      <c r="B1876" s="3" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C1876" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1876" s="3"/>
+      <c r="B1876" s="3"/>
+      <c r="C1876" s="3"/>
     </row>
     <row r="1877" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1877" s="3" t="n">
-        <v>1873</v>
-      </c>
-      <c r="B1877" s="3" t="s">
-        <v>1880</v>
-      </c>
-      <c r="C1877" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1877" s="3"/>
+      <c r="B1877" s="3"/>
+      <c r="C1877" s="3"/>
     </row>
     <row r="1878" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1878" s="3" t="n">
-        <v>1874</v>
-      </c>
-      <c r="B1878" s="3" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C1878" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1878" s="3"/>
+      <c r="B1878" s="3"/>
+      <c r="C1878" s="3"/>
     </row>
     <row r="1879" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1879" s="3" t="n">
-        <v>1875</v>
-      </c>
-      <c r="B1879" s="3" t="s">
-        <v>1882</v>
-      </c>
-      <c r="C1879" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1879" s="3"/>
+      <c r="B1879" s="3"/>
+      <c r="C1879" s="3"/>
     </row>
     <row r="1880" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1880" s="3" t="n">
-        <v>1876</v>
-      </c>
-      <c r="B1880" s="3" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C1880" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1880" s="3"/>
+      <c r="B1880" s="3"/>
+      <c r="C1880" s="3"/>
     </row>
     <row r="1881" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1881" s="3" t="n">
-        <v>1877</v>
-      </c>
-      <c r="B1881" s="3" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C1881" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1881" s="3"/>
+      <c r="B1881" s="3"/>
+      <c r="C1881" s="3"/>
     </row>
     <row r="1882" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1882" s="3" t="n">
-        <v>1878</v>
-      </c>
-      <c r="B1882" s="3" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C1882" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1882" s="3"/>
+      <c r="B1882" s="3"/>
+      <c r="C1882" s="3"/>
     </row>
     <row r="1883" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1883" s="3" t="n">
-        <v>1879</v>
-      </c>
-      <c r="B1883" s="3" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C1883" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1883" s="3"/>
+      <c r="B1883" s="3"/>
+      <c r="C1883" s="3"/>
     </row>
     <row r="1884" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1884" s="3" t="n">
-        <v>1880</v>
-      </c>
-      <c r="B1884" s="3" t="s">
-        <v>1887</v>
-      </c>
-      <c r="C1884" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1884" s="3"/>
+      <c r="B1884" s="3"/>
+      <c r="C1884" s="3"/>
     </row>
     <row r="1885" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1885" s="3" t="n">
-        <v>1881</v>
-      </c>
-      <c r="B1885" s="3" t="s">
-        <v>1888</v>
-      </c>
-      <c r="C1885" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1885" s="3"/>
+      <c r="B1885" s="3"/>
+      <c r="C1885" s="3"/>
     </row>
     <row r="1886" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1886" s="3" t="n">
-        <v>1882</v>
-      </c>
-      <c r="B1886" s="3" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C1886" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1886" s="3"/>
+      <c r="B1886" s="3"/>
+      <c r="C1886" s="3"/>
     </row>
     <row r="1887" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1887" s="3" t="n">
-        <v>1883</v>
-      </c>
-      <c r="B1887" s="3" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C1887" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1887" s="3"/>
+      <c r="B1887" s="3"/>
+      <c r="C1887" s="3"/>
     </row>
     <row r="1888" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1888" s="3" t="n">
-        <v>1884</v>
-      </c>
-      <c r="B1888" s="3" t="s">
-        <v>1891</v>
-      </c>
-      <c r="C1888" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1888" s="3"/>
+      <c r="B1888" s="3"/>
+      <c r="C1888" s="3"/>
     </row>
     <row r="1889" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1889" s="3" t="n">
-        <v>1885</v>
-      </c>
-      <c r="B1889" s="3" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C1889" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1889" s="3"/>
+      <c r="B1889" s="3"/>
+      <c r="C1889" s="3"/>
     </row>
     <row r="1890" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1890" s="3" t="n">
-        <v>1886</v>
-      </c>
-      <c r="B1890" s="3" t="s">
-        <v>1893</v>
-      </c>
-      <c r="C1890" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1890" s="3"/>
+      <c r="B1890" s="3"/>
+      <c r="C1890" s="3"/>
     </row>
     <row r="1891" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1891" s="3" t="n">
-        <v>1887</v>
-      </c>
-      <c r="B1891" s="3" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C1891" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1891" s="3"/>
+      <c r="B1891" s="3"/>
+      <c r="C1891" s="3"/>
     </row>
     <row r="1892" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1892" s="3" t="n">
-        <v>1888</v>
-      </c>
-      <c r="B1892" s="3" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1892" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1892" s="3"/>
+      <c r="B1892" s="3"/>
+      <c r="C1892" s="3"/>
     </row>
     <row r="1893" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1893" s="3" t="n">
-        <v>1889</v>
-      </c>
-      <c r="B1893" s="3" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C1893" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1893" s="3"/>
+      <c r="B1893" s="3"/>
+      <c r="C1893" s="3"/>
     </row>
     <row r="1894" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1894" s="3" t="n">
-        <v>1890</v>
-      </c>
-      <c r="B1894" s="3" t="s">
-        <v>1897</v>
-      </c>
-      <c r="C1894" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1894" s="3"/>
+      <c r="B1894" s="3"/>
+      <c r="C1894" s="3"/>
     </row>
     <row r="1895" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1895" s="3" t="n">
-        <v>1891</v>
-      </c>
-      <c r="B1895" s="3" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C1895" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1895" s="3"/>
+      <c r="B1895" s="3"/>
+      <c r="C1895" s="3"/>
     </row>
     <row r="1896" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1896" s="3" t="n">
-        <v>1892</v>
-      </c>
-      <c r="B1896" s="3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C1896" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1896" s="3"/>
+      <c r="B1896" s="3"/>
+      <c r="C1896" s="3"/>
     </row>
     <row r="1897" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1897" s="3" t="n">
-        <v>1893</v>
-      </c>
-      <c r="B1897" s="3" t="s">
-        <v>1900</v>
-      </c>
-      <c r="C1897" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1897" s="3"/>
+      <c r="B1897" s="3"/>
+      <c r="C1897" s="3"/>
     </row>
     <row r="1898" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1898" s="3" t="n">
-        <v>1894</v>
-      </c>
-      <c r="B1898" s="3" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C1898" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1898" s="3"/>
+      <c r="B1898" s="3"/>
+      <c r="C1898" s="3"/>
     </row>
     <row r="1899" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1899" s="3" t="n">
-        <v>1895</v>
-      </c>
-      <c r="B1899" s="3" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C1899" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1899" s="3"/>
+      <c r="B1899" s="3"/>
+      <c r="C1899" s="3"/>
     </row>
     <row r="1900" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1900" s="3" t="n">
-        <v>1896</v>
-      </c>
-      <c r="B1900" s="3" t="s">
-        <v>1903</v>
-      </c>
-      <c r="C1900" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1900" s="3"/>
+      <c r="B1900" s="3"/>
+      <c r="C1900" s="3"/>
     </row>
     <row r="1901" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1901" s="3" t="n">
-        <v>1897</v>
-      </c>
-      <c r="B1901" s="3" t="s">
-        <v>1904</v>
-      </c>
-      <c r="C1901" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1901" s="3"/>
+      <c r="B1901" s="3"/>
+      <c r="C1901" s="3"/>
     </row>
     <row r="1902" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1902" s="3" t="n">
-        <v>1898</v>
-      </c>
-      <c r="B1902" s="3" t="s">
-        <v>1905</v>
-      </c>
-      <c r="C1902" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1902" s="3"/>
+      <c r="B1902" s="3"/>
+      <c r="C1902" s="3"/>
     </row>
     <row r="1903" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1903" s="3" t="n">
-        <v>1899</v>
-      </c>
-      <c r="B1903" s="3" t="s">
-        <v>1906</v>
-      </c>
-      <c r="C1903" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1903" s="3"/>
+      <c r="B1903" s="3"/>
+      <c r="C1903" s="3"/>
     </row>
     <row r="1904" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1904" s="3" t="n">
-        <v>1900</v>
-      </c>
-      <c r="B1904" s="3" t="s">
-        <v>1907</v>
-      </c>
-      <c r="C1904" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1904" s="3"/>
+      <c r="B1904" s="3"/>
+      <c r="C1904" s="3"/>
     </row>
     <row r="1905" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1905" s="3" t="n">
-        <v>1901</v>
-      </c>
-      <c r="B1905" s="3" t="s">
-        <v>1908</v>
-      </c>
-      <c r="C1905" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1905" s="3"/>
+      <c r="B1905" s="3"/>
+      <c r="C1905" s="3"/>
     </row>
     <row r="1906" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1906" s="3" t="n">
-        <v>1902</v>
-      </c>
-      <c r="B1906" s="3" t="s">
-        <v>1909</v>
-      </c>
-      <c r="C1906" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1906" s="3"/>
+      <c r="B1906" s="3"/>
+      <c r="C1906" s="3"/>
     </row>
     <row r="1907" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1907" s="3" t="n">
-        <v>1903</v>
-      </c>
-      <c r="B1907" s="3" t="s">
-        <v>1910</v>
-      </c>
-      <c r="C1907" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1907" s="3"/>
+      <c r="B1907" s="3"/>
+      <c r="C1907" s="3"/>
     </row>
     <row r="1908" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1908" s="3" t="n">
-        <v>1904</v>
-      </c>
-      <c r="B1908" s="3" t="s">
-        <v>1911</v>
-      </c>
-      <c r="C1908" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1908" s="3"/>
+      <c r="B1908" s="3"/>
+      <c r="C1908" s="3"/>
     </row>
     <row r="1909" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1909" s="3" t="n">
-        <v>1905</v>
-      </c>
-      <c r="B1909" s="3" t="s">
-        <v>1912</v>
-      </c>
-      <c r="C1909" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1909" s="3"/>
+      <c r="B1909" s="3"/>
+      <c r="C1909" s="3"/>
     </row>
     <row r="1910" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1910" s="3" t="n">
-        <v>1906</v>
-      </c>
-      <c r="B1910" s="3" t="s">
-        <v>1913</v>
-      </c>
-      <c r="C1910" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1910" s="3"/>
+      <c r="B1910" s="3"/>
+      <c r="C1910" s="3"/>
     </row>
     <row r="1911" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1911" s="3" t="n">
-        <v>1907</v>
-      </c>
-      <c r="B1911" s="3" t="s">
-        <v>1914</v>
-      </c>
-      <c r="C1911" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1911" s="3"/>
+      <c r="B1911" s="3"/>
+      <c r="C1911" s="3"/>
     </row>
     <row r="1912" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1912" s="3" t="n">
-        <v>1908</v>
-      </c>
-      <c r="B1912" s="3" t="s">
-        <v>1915</v>
-      </c>
-      <c r="C1912" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1912" s="3"/>
+      <c r="B1912" s="3"/>
+      <c r="C1912" s="3"/>
     </row>
     <row r="1913" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1913" s="3" t="n">
-        <v>1909</v>
-      </c>
-      <c r="B1913" s="3" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C1913" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1913" s="3"/>
+      <c r="B1913" s="3"/>
+      <c r="C1913" s="3"/>
     </row>
     <row r="1914" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1914" s="3" t="n">
-        <v>1910</v>
-      </c>
-      <c r="B1914" s="3" t="s">
-        <v>1917</v>
-      </c>
-      <c r="C1914" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1914" s="3"/>
+      <c r="B1914" s="3"/>
+      <c r="C1914" s="3"/>
     </row>
     <row r="1915" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1915" s="3" t="n">
-        <v>1911</v>
-      </c>
-      <c r="B1915" s="3" t="s">
-        <v>1918</v>
-      </c>
-      <c r="C1915" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1915" s="3"/>
+      <c r="B1915" s="3"/>
+      <c r="C1915" s="3"/>
     </row>
     <row r="1916" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1916" s="3" t="n">
-        <v>1912</v>
-      </c>
-      <c r="B1916" s="3" t="s">
-        <v>1919</v>
-      </c>
-      <c r="C1916" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1916" s="3"/>
+      <c r="B1916" s="3"/>
+      <c r="C1916" s="3"/>
     </row>
     <row r="1917" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1917" s="3" t="n">
-        <v>1913</v>
-      </c>
-      <c r="B1917" s="3" t="s">
-        <v>1920</v>
-      </c>
-      <c r="C1917" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1917" s="3"/>
+      <c r="B1917" s="3"/>
+      <c r="C1917" s="3"/>
     </row>
     <row r="1918" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1918" s="3" t="n">
-        <v>1914</v>
-      </c>
-      <c r="B1918" s="3" t="s">
-        <v>1921</v>
-      </c>
-      <c r="C1918" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1918" s="3"/>
+      <c r="B1918" s="3"/>
+      <c r="C1918" s="3"/>
     </row>
     <row r="1919" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1919" s="3" t="n">
-        <v>1915</v>
-      </c>
-      <c r="B1919" s="3" t="s">
-        <v>1922</v>
-      </c>
-      <c r="C1919" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1919" s="3"/>
+      <c r="B1919" s="3"/>
+      <c r="C1919" s="3"/>
     </row>
     <row r="1920" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1920" s="3" t="n">
-        <v>1916</v>
-      </c>
-      <c r="B1920" s="3" t="s">
-        <v>1923</v>
-      </c>
-      <c r="C1920" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1920" s="3"/>
+      <c r="B1920" s="3"/>
+      <c r="C1920" s="3"/>
     </row>
     <row r="1921" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1921" s="3" t="n">
-        <v>1917</v>
-      </c>
-      <c r="B1921" s="3" t="s">
-        <v>1924</v>
-      </c>
-      <c r="C1921" s="3" t="n">
-        <v>3007</v>
-      </c>
+      <c r="A1921" s="3"/>
+      <c r="B1921" s="3"/>
+      <c r="C1921" s="3"/>
     </row>
     <row r="1922" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1922" s="3" t="n">
-        <v>1918</v>
-      </c>
-      <c r="B1922" s="3" t="s">
-        <v>1925</v>
-      </c>
-      <c r="C1922" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1923" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1923" s="3" t="n">
-        <v>1919</v>
-      </c>
-      <c r="B1923" s="3" t="s">
-        <v>1926</v>
-      </c>
-      <c r="C1923" s="3" t="n">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1924" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1924" s="3" t="n">
-        <v>1920</v>
-      </c>
-      <c r="B1924" s="3" t="s">
-        <v>1927</v>
-      </c>
-      <c r="C1924" s="3" t="n">
-        <v>3008</v>
-      </c>
-    </row>
+      <c r="A1922" s="3"/>
+      <c r="B1922" s="3"/>
+      <c r="C1922" s="3"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/pet-simulator/Excel/DropPoint_资源生成点表.xlsx
+++ b/pet-simulator/Excel/DropPoint_资源生成点表.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -5181,6 +5181,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -5188,8 +5294,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1123" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1131" activeCellId="0" sqref="G1131"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1591" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1611" activeCellId="0" sqref="F1611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24611,7 +24717,10 @@
         <v>1612</v>
       </c>
       <c r="C1607" s="15" t="n">
-        <v>3003</v>
+        <v>2007</v>
+      </c>
+      <c r="D1607" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1608" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24622,7 +24731,10 @@
         <v>1613</v>
       </c>
       <c r="C1608" s="15" t="n">
-        <v>3004</v>
+        <v>2008</v>
+      </c>
+      <c r="D1608" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1609" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24633,7 +24745,10 @@
         <v>1614</v>
       </c>
       <c r="C1609" s="15" t="n">
-        <v>3005</v>
+        <v>2009</v>
+      </c>
+      <c r="D1609" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1610" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24644,7 +24759,10 @@
         <v>1615</v>
       </c>
       <c r="C1610" s="15" t="n">
-        <v>3006</v>
+        <v>2010</v>
+      </c>
+      <c r="D1610" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1611" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/pet-simulator/Excel/DropPoint_资源生成点表.xlsx
+++ b/pet-simulator/Excel/DropPoint_资源生成点表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="1616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="1554">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -3908,39 +3908,24 @@
     <t xml:space="preserve">-32525|123958|79629</t>
   </si>
   <si>
-    <t xml:space="preserve">2258.41|100302.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">2582.41|100233.08|73139.95</t>
   </si>
   <si>
     <t xml:space="preserve">2479.41|100468.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">2758.41|100109.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">2623.41|99839.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">2623.41|100651.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">2894.41|99903.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">2267.41|99829.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">2190.41|100569.08|73139.95</t>
   </si>
   <si>
     <t xml:space="preserve">1526.41|100057.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">1664.41|100233.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">1803.41|100406.08|73139.95</t>
   </si>
   <si>
@@ -3950,9 +3935,6 @@
     <t xml:space="preserve">1705.41|99839.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">1705.41|100651.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">1349.41|99829.08|73139.95</t>
   </si>
   <si>
@@ -3962,18 +3944,12 @@
     <t xml:space="preserve">1272.41|100084.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">1733.41|99075.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">1547.41|99320.08|73139.95</t>
   </si>
   <si>
     <t xml:space="preserve">1871.41|99251.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">2010.41|99424.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">2218.41|99257.08|73139.95</t>
   </si>
   <si>
@@ -3983,9 +3959,6 @@
     <t xml:space="preserve">1912.41|99669.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">2183.41|98921.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">1556.41|98847.08|73139.95</t>
   </si>
   <si>
@@ -3995,9 +3968,6 @@
     <t xml:space="preserve">2689.41|99075.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">2503.41|99320.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">2827.41|99251.08|73139.95</t>
   </si>
   <si>
@@ -4010,15 +3980,9 @@
     <t xml:space="preserve">3003.41|99127.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">2868.41|98857.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">2868.41|99669.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">2512.41|98847.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">2435.41|99587.08|73139.95</t>
   </si>
   <si>
@@ -4028,30 +3992,18 @@
     <t xml:space="preserve">2885.41|98113.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">3023.41|98289.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">2920.41|98524.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">3162.41|98462.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">3370.41|98295.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">3064.41|97895.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">3064.41|98707.08|73139.95</t>
   </si>
   <si>
     <t xml:space="preserve">3335.41|97959.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">2631.41|98625.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">2631.41|98140.08|73139.95</t>
   </si>
   <si>
@@ -4064,9 +4016,6 @@
     <t xml:space="preserve">1131.41|98642.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">1131.41|99012.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">2021.41|98524.08|73139.95</t>
   </si>
   <si>
@@ -4079,9 +4028,6 @@
     <t xml:space="preserve">2165.41|97895.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">2436.41|97959.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">1809.41|97885.08|73139.95</t>
   </si>
   <si>
@@ -4091,9 +4037,6 @@
     <t xml:space="preserve">3810.41|98113.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">3624.41|98358.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">3845.41|98524.08|73139.95</t>
   </si>
   <si>
@@ -4103,9 +4046,6 @@
     <t xml:space="preserve">4295.41|98295.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">3989.41|97895.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">3989.41|98707.08|73139.95</t>
   </si>
   <si>
@@ -4118,15 +4058,9 @@
     <t xml:space="preserve">3556.41|98140.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">3651.41|99084.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">3789.41|99260.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">3686.41|99495.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">4136.41|99266.08|73139.95</t>
   </si>
   <si>
@@ -4136,18 +4070,12 @@
     <t xml:space="preserve">3830.41|99678.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">4101.41|98930.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">3397.41|99596.08|73139.95</t>
   </si>
   <si>
     <t xml:space="preserve">3397.41|99111.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">3222.41|100313.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">3546.41|100244.08|73139.95</t>
   </si>
   <si>
@@ -4157,9 +4085,6 @@
     <t xml:space="preserve">3722.41|100120.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">3587.41|99850.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">3587.41|100662.08|73139.95</t>
   </si>
   <si>
@@ -4184,9 +4109,6 @@
     <t xml:space="preserve">3074.41|101036.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">2888.41|101281.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">3109.41|101447.08|73139.95</t>
   </si>
   <si>
@@ -4196,9 +4118,6 @@
     <t xml:space="preserve">3388.41|101088.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">3253.41|101630.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">3524.41|100882.08|73139.95</t>
   </si>
   <si>
@@ -4217,9 +4136,6 @@
     <t xml:space="preserve">4326.41|99332.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">4403.41|98592.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">5030.41|98666.08|73139.95</t>
   </si>
   <si>
@@ -4229,9 +4145,6 @@
     <t xml:space="preserve">4759.41|98602.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">5065.41|99002.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">4857.41|99169.08|73139.95</t>
   </si>
   <si>
@@ -4241,9 +4154,6 @@
     <t xml:space="preserve">4718.41|98996.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">4394.41|99065.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">4580.41|98820.08|73139.95</t>
   </si>
   <si>
@@ -4259,9 +4169,6 @@
     <t xml:space="preserve">4557.41|100564.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">4557.41|99752.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">4692.41|100022.08|73139.95</t>
   </si>
   <si>
@@ -4274,9 +4181,6 @@
     <t xml:space="preserve">5594.41|100540.08|73139.95</t>
   </si>
   <si>
-    <t xml:space="preserve">5238.41|100451.08|73139.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">4863.41|100152.08|73139.95</t>
   </si>
   <si>
@@ -4343,9 +4247,6 @@
     <t xml:space="preserve">-8583.59|84233.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-8163.59|84233.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-8325.59|83454.08|77527.95</t>
   </si>
   <si>
@@ -4355,9 +4256,6 @@
     <t xml:space="preserve">-8168.59|82743.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-7821.59|82743.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-7556.59|82950.08|77527.95</t>
   </si>
   <si>
@@ -4367,9 +4265,6 @@
     <t xml:space="preserve">-8549.59|82743.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-8708.59|83014.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-8583.59|83284.08|77527.95</t>
   </si>
   <si>
@@ -4379,9 +4274,6 @@
     <t xml:space="preserve">-7569.59|83903.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-7273.59|83494.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-7412.59|83192.08|77527.95</t>
   </si>
   <si>
@@ -4391,18 +4283,12 @@
     <t xml:space="preserve">-7827.59|83733.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-7407.59|83733.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-6677.59|84330.08|77527.95</t>
   </si>
   <si>
     <t xml:space="preserve">-6677.59|83921.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-6381.59|83921.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-6901.59|83619.08|77527.95</t>
   </si>
   <si>
@@ -4412,9 +4298,6 @@
     <t xml:space="preserve">-6935.59|84160.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-6677.59|83437.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-6677.59|83028.08|77527.95</t>
   </si>
   <si>
@@ -4424,9 +4307,6 @@
     <t xml:space="preserve">-6520.59|82726.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-6690.59|82461.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-7060.59|82997.08|77527.95</t>
   </si>
   <si>
@@ -4436,18 +4316,12 @@
     <t xml:space="preserve">-6515.59|83267.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-6147.59|82473.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-6147.59|82064.08|77527.95</t>
   </si>
   <si>
     <t xml:space="preserve">-5990.59|81762.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-6371.59|81762.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-6530.59|82033.08|77527.95</t>
   </si>
   <si>
@@ -4457,9 +4331,6 @@
     <t xml:space="preserve">-7087.59|82473.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-7087.59|82064.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-6930.59|81762.08|77527.95</t>
   </si>
   <si>
@@ -4472,9 +4343,6 @@
     <t xml:space="preserve">-6925.59|82303.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-8066.59|82473.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-7770.59|82064.08|77527.95</t>
   </si>
   <si>
@@ -4487,9 +4355,6 @@
     <t xml:space="preserve">-8324.59|82303.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-7904.59|82303.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-7850.59|81249.08|77527.95</t>
   </si>
   <si>
@@ -4502,9 +4367,6 @@
     <t xml:space="preserve">-8108.59|81488.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-7688.59|81488.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-6893.59|81249.08|77527.95</t>
   </si>
   <si>
@@ -4517,9 +4379,6 @@
     <t xml:space="preserve">-7151.59|81488.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-6731.59|81488.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-6164.59|80645.08|77613.95</t>
   </si>
   <si>
@@ -4529,18 +4388,12 @@
     <t xml:space="preserve">-6164.59|81453.08|77613.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-6007.59|80343.08|77613.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-6388.59|80343.08|77613.95</t>
   </si>
   <si>
     <t xml:space="preserve">-6547.59|80614.08|77613.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-6002.59|80884.08|77613.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-10032.59|80947.08|77527.95</t>
   </si>
   <si>
@@ -4553,9 +4406,6 @@
     <t xml:space="preserve">-8851.59|81249.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-8555.59|81249.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-10289.59|82192.08|77527.95</t>
   </si>
   <si>
@@ -4565,9 +4415,6 @@
     <t xml:space="preserve">-10323.59|82733.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-9903.59|83115.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-9773.59|83632.08|77527.95</t>
   </si>
   <si>
@@ -4580,9 +4427,6 @@
     <t xml:space="preserve">-9378.59|82619.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-8911.59|82844.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-8812.59|82494.08|77527.95</t>
   </si>
   <si>
@@ -4592,18 +4436,12 @@
     <t xml:space="preserve">-10362.59|83340.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-10521.59|83611.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-10396.59|83881.08|77527.95</t>
   </si>
   <si>
     <t xml:space="preserve">-9926.59|82421.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-9729.59|81957.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-9556.59|82366.08|77527.95</t>
   </si>
   <si>
@@ -4613,18 +4451,12 @@
     <t xml:space="preserve">-8885.59|83642.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-9024.59|83340.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-9405.59|83340.08|77527.95</t>
   </si>
   <si>
     <t xml:space="preserve">-8074.59|80057.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-8233.59|80328.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-7850.59|80359.08|77527.95</t>
   </si>
   <si>
@@ -4640,36 +4472,24 @@
     <t xml:space="preserve">-10891.59|80755.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-10595.59|80755.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-11274.59|80724.08|77527.95</t>
   </si>
   <si>
     <t xml:space="preserve">-10734.59|80453.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-11149.59|81849.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-10219.59|81786.08|77527.95</t>
   </si>
   <si>
     <t xml:space="preserve">-10931.59|82194.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-10595.59|81610.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-11274.59|81579.08|77527.95</t>
   </si>
   <si>
     <t xml:space="preserve">-11115.59|81308.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-9973.59|80101.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-9715.59|79862.08|77527.95</t>
   </si>
   <si>
@@ -4679,9 +4499,6 @@
     <t xml:space="preserve">-9939.59|79560.08|77527.95</t>
   </si>
   <si>
-    <t xml:space="preserve">-9558.59|79560.08|77527.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">-8693.59|79824.08|77527.95</t>
   </si>
   <si>
@@ -4701,9 +4518,6 @@
   </si>
   <si>
     <t xml:space="preserve">-6939.59|79862.08|77527.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6643.59|79862.08|77527.95</t>
   </si>
   <si>
     <t xml:space="preserve">-16357.59|94860.08|93366.95</t>
@@ -5292,10 +5106,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E1860"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1591" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1611" activeCellId="0" sqref="F1611"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1529" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1546" activeCellId="0" sqref="G1546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0859375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22363,7 +22177,7 @@
         <v>1398</v>
       </c>
       <c r="C1393" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1394" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22374,7 +22188,7 @@
         <v>1399</v>
       </c>
       <c r="C1394" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1395" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22385,7 +22199,7 @@
         <v>1400</v>
       </c>
       <c r="C1395" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1396" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22396,7 +22210,7 @@
         <v>1401</v>
       </c>
       <c r="C1396" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1397" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22407,7 +22221,7 @@
         <v>1402</v>
       </c>
       <c r="C1397" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1398" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22418,7 +22232,7 @@
         <v>1403</v>
       </c>
       <c r="C1398" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1399" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22429,7 +22243,7 @@
         <v>1404</v>
       </c>
       <c r="C1399" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1400" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22440,7 +22254,7 @@
         <v>1405</v>
       </c>
       <c r="C1400" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1401" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22451,7 +22265,7 @@
         <v>1406</v>
       </c>
       <c r="C1401" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1402" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22462,7 +22276,7 @@
         <v>1407</v>
       </c>
       <c r="C1402" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1403" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22473,7 +22287,7 @@
         <v>1408</v>
       </c>
       <c r="C1403" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1404" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22484,7 +22298,7 @@
         <v>1409</v>
       </c>
       <c r="C1404" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1405" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22495,7 +22309,7 @@
         <v>1410</v>
       </c>
       <c r="C1405" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1406" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22506,7 +22320,7 @@
         <v>1411</v>
       </c>
       <c r="C1406" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1407" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22517,7 +22331,7 @@
         <v>1412</v>
       </c>
       <c r="C1407" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1408" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22528,7 +22342,7 @@
         <v>1413</v>
       </c>
       <c r="C1408" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1409" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22539,7 +22353,7 @@
         <v>1414</v>
       </c>
       <c r="C1409" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1410" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22550,7 +22364,7 @@
         <v>1415</v>
       </c>
       <c r="C1410" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1411" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22561,7 +22375,7 @@
         <v>1416</v>
       </c>
       <c r="C1411" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1412" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22572,7 +22386,7 @@
         <v>1417</v>
       </c>
       <c r="C1412" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1413" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22583,7 +22397,7 @@
         <v>1418</v>
       </c>
       <c r="C1413" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1414" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22594,7 +22408,7 @@
         <v>1419</v>
       </c>
       <c r="C1414" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1415" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22605,7 +22419,7 @@
         <v>1420</v>
       </c>
       <c r="C1415" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1416" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22616,7 +22430,7 @@
         <v>1421</v>
       </c>
       <c r="C1416" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1417" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22627,7 +22441,7 @@
         <v>1422</v>
       </c>
       <c r="C1417" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1418" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22638,7 +22452,7 @@
         <v>1423</v>
       </c>
       <c r="C1418" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1419" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22649,7 +22463,7 @@
         <v>1424</v>
       </c>
       <c r="C1419" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1420" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22660,7 +22474,7 @@
         <v>1425</v>
       </c>
       <c r="C1420" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1421" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22671,7 +22485,7 @@
         <v>1426</v>
       </c>
       <c r="C1421" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1422" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22682,7 +22496,7 @@
         <v>1427</v>
       </c>
       <c r="C1422" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1423" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22693,7 +22507,7 @@
         <v>1428</v>
       </c>
       <c r="C1423" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1424" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22704,7 +22518,7 @@
         <v>1429</v>
       </c>
       <c r="C1424" s="3" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1425" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22971,7 +22785,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="1449" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1449" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1449" s="3" t="n">
         <v>1445</v>
       </c>
@@ -23408,7 +23222,7 @@
         <v>1493</v>
       </c>
       <c r="C1488" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1489" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23419,7 +23233,7 @@
         <v>1494</v>
       </c>
       <c r="C1489" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1490" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23430,7 +23244,7 @@
         <v>1495</v>
       </c>
       <c r="C1490" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1491" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23441,7 +23255,7 @@
         <v>1496</v>
       </c>
       <c r="C1491" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1492" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23452,7 +23266,7 @@
         <v>1497</v>
       </c>
       <c r="C1492" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1493" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23463,7 +23277,7 @@
         <v>1498</v>
       </c>
       <c r="C1493" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1494" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23474,7 +23288,7 @@
         <v>1499</v>
       </c>
       <c r="C1494" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1495" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23485,7 +23299,7 @@
         <v>1500</v>
       </c>
       <c r="C1495" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1496" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23496,7 +23310,7 @@
         <v>1501</v>
       </c>
       <c r="C1496" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1497" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23507,7 +23321,7 @@
         <v>1502</v>
       </c>
       <c r="C1497" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1498" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23518,7 +23332,7 @@
         <v>1503</v>
       </c>
       <c r="C1498" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1499" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23529,7 +23343,7 @@
         <v>1504</v>
       </c>
       <c r="C1499" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1500" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23540,7 +23354,7 @@
         <v>1505</v>
       </c>
       <c r="C1500" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1501" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23551,7 +23365,7 @@
         <v>1506</v>
       </c>
       <c r="C1501" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1502" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23562,7 +23376,7 @@
         <v>1507</v>
       </c>
       <c r="C1502" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1503" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23573,7 +23387,7 @@
         <v>1508</v>
       </c>
       <c r="C1503" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1504" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23584,7 +23398,7 @@
         <v>1509</v>
       </c>
       <c r="C1504" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1505" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23595,7 +23409,7 @@
         <v>1510</v>
       </c>
       <c r="C1505" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1506" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23606,7 +23420,7 @@
         <v>1511</v>
       </c>
       <c r="C1506" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1507" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23617,7 +23431,7 @@
         <v>1512</v>
       </c>
       <c r="C1507" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1508" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23628,7 +23442,7 @@
         <v>1513</v>
       </c>
       <c r="C1508" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1509" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23639,7 +23453,7 @@
         <v>1514</v>
       </c>
       <c r="C1509" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1510" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23650,7 +23464,7 @@
         <v>1515</v>
       </c>
       <c r="C1510" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1511" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23661,7 +23475,7 @@
         <v>1516</v>
       </c>
       <c r="C1511" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1512" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23672,7 +23486,7 @@
         <v>1517</v>
       </c>
       <c r="C1512" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1513" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23683,7 +23497,7 @@
         <v>1518</v>
       </c>
       <c r="C1513" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1514" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23694,7 +23508,7 @@
         <v>1519</v>
       </c>
       <c r="C1514" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1515" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23705,7 +23519,7 @@
         <v>1520</v>
       </c>
       <c r="C1515" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1516" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23716,7 +23530,7 @@
         <v>1521</v>
       </c>
       <c r="C1516" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1517" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23727,7 +23541,7 @@
         <v>1522</v>
       </c>
       <c r="C1517" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1518" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23738,7 +23552,7 @@
         <v>1523</v>
       </c>
       <c r="C1518" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1519" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23749,7 +23563,7 @@
         <v>1524</v>
       </c>
       <c r="C1519" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1520" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23760,7 +23574,7 @@
         <v>1525</v>
       </c>
       <c r="C1520" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1521" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23771,7 +23585,7 @@
         <v>1526</v>
       </c>
       <c r="C1521" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1522" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23782,7 +23596,7 @@
         <v>1527</v>
       </c>
       <c r="C1522" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1523" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23793,7 +23607,7 @@
         <v>1528</v>
       </c>
       <c r="C1523" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1524" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23804,7 +23618,7 @@
         <v>1529</v>
       </c>
       <c r="C1524" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1525" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23815,7 +23629,7 @@
         <v>1530</v>
       </c>
       <c r="C1525" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1526" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23826,7 +23640,7 @@
         <v>1531</v>
       </c>
       <c r="C1526" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1527" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23837,7 +23651,7 @@
         <v>1532</v>
       </c>
       <c r="C1527" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1528" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23848,7 +23662,7 @@
         <v>1533</v>
       </c>
       <c r="C1528" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1529" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23859,7 +23673,7 @@
         <v>1534</v>
       </c>
       <c r="C1529" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1530" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23870,7 +23684,7 @@
         <v>1535</v>
       </c>
       <c r="C1530" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1531" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23881,7 +23695,7 @@
         <v>1536</v>
       </c>
       <c r="C1531" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1532" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23892,7 +23706,7 @@
         <v>1537</v>
       </c>
       <c r="C1532" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1533" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23903,7 +23717,7 @@
         <v>1538</v>
       </c>
       <c r="C1533" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1534" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23914,7 +23728,7 @@
         <v>1539</v>
       </c>
       <c r="C1534" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1535" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23925,7 +23739,7 @@
         <v>1540</v>
       </c>
       <c r="C1535" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1536" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23936,7 +23750,7 @@
         <v>1541</v>
       </c>
       <c r="C1536" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1537" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23947,7 +23761,7 @@
         <v>1542</v>
       </c>
       <c r="C1537" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1538" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23958,7 +23772,7 @@
         <v>1543</v>
       </c>
       <c r="C1538" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1539" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23969,7 +23783,7 @@
         <v>1544</v>
       </c>
       <c r="C1539" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1540" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23980,7 +23794,7 @@
         <v>1545</v>
       </c>
       <c r="C1540" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1541" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23991,7 +23805,7 @@
         <v>1546</v>
       </c>
       <c r="C1541" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1542" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24002,7 +23816,7 @@
         <v>1547</v>
       </c>
       <c r="C1542" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1543" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24013,7 +23827,7 @@
         <v>1548</v>
       </c>
       <c r="C1543" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1544" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24024,746 +23838,374 @@
         <v>1549</v>
       </c>
       <c r="C1544" s="3" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1545" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1545" s="3" t="n">
         <v>1541</v>
       </c>
-      <c r="B1545" s="13" t="s">
+      <c r="B1545" s="14" t="s">
         <v>1550</v>
       </c>
-      <c r="C1545" s="3" t="n">
-        <v>2008</v>
+      <c r="C1545" s="15" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D1545" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1546" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1546" s="3" t="n">
         <v>1542</v>
       </c>
-      <c r="B1546" s="13" t="s">
+      <c r="B1546" s="14" t="s">
         <v>1551</v>
       </c>
-      <c r="C1546" s="3" t="n">
+      <c r="C1546" s="15" t="n">
         <v>2008</v>
+      </c>
+      <c r="D1546" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1547" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1547" s="3" t="n">
         <v>1543</v>
       </c>
-      <c r="B1547" s="13" t="s">
+      <c r="B1547" s="14" t="s">
         <v>1552</v>
       </c>
-      <c r="C1547" s="3" t="n">
-        <v>2008</v>
+      <c r="C1547" s="15" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D1547" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1548" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1548" s="3" t="n">
         <v>1544</v>
       </c>
-      <c r="B1548" s="13" t="s">
+      <c r="B1548" s="14" t="s">
         <v>1553</v>
       </c>
-      <c r="C1548" s="3" t="n">
-        <v>2008</v>
+      <c r="C1548" s="15" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D1548" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1549" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1549" s="3" t="n">
-        <v>1545</v>
-      </c>
-      <c r="B1549" s="13" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C1549" s="3" t="n">
-        <v>2008</v>
-      </c>
+      <c r="A1549" s="3"/>
+      <c r="B1549" s="3"/>
+      <c r="C1549" s="3"/>
     </row>
     <row r="1550" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1550" s="3" t="n">
-        <v>1546</v>
-      </c>
-      <c r="B1550" s="13" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C1550" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1550" s="3"/>
+      <c r="B1550" s="3"/>
+      <c r="C1550" s="3"/>
     </row>
     <row r="1551" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1551" s="3" t="n">
-        <v>1547</v>
-      </c>
-      <c r="B1551" s="13" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C1551" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1551" s="3"/>
+      <c r="B1551" s="3"/>
+      <c r="C1551" s="3"/>
     </row>
     <row r="1552" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1552" s="3" t="n">
-        <v>1548</v>
-      </c>
-      <c r="B1552" s="13" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C1552" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1552" s="3"/>
+      <c r="B1552" s="3"/>
+      <c r="C1552" s="3"/>
     </row>
     <row r="1553" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1553" s="3" t="n">
-        <v>1549</v>
-      </c>
-      <c r="B1553" s="13" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C1553" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1553" s="3"/>
+      <c r="B1553" s="3"/>
+      <c r="C1553" s="3"/>
     </row>
     <row r="1554" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1554" s="3" t="n">
-        <v>1550</v>
-      </c>
-      <c r="B1554" s="13" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C1554" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1554" s="3"/>
+      <c r="B1554" s="3"/>
+      <c r="C1554" s="3"/>
     </row>
     <row r="1555" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1555" s="3" t="n">
-        <v>1551</v>
-      </c>
-      <c r="B1555" s="13" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C1555" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1555" s="3"/>
+      <c r="B1555" s="3"/>
+      <c r="C1555" s="3"/>
     </row>
     <row r="1556" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1556" s="3" t="n">
-        <v>1552</v>
-      </c>
-      <c r="B1556" s="13" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C1556" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1556" s="3"/>
+      <c r="B1556" s="3"/>
+      <c r="C1556" s="3"/>
     </row>
     <row r="1557" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1557" s="3" t="n">
-        <v>1553</v>
-      </c>
-      <c r="B1557" s="13" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C1557" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1557" s="3"/>
+      <c r="B1557" s="3"/>
+      <c r="C1557" s="3"/>
     </row>
     <row r="1558" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1558" s="3" t="n">
-        <v>1554</v>
-      </c>
-      <c r="B1558" s="13" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C1558" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1558" s="3"/>
+      <c r="B1558" s="3"/>
+      <c r="C1558" s="3"/>
     </row>
     <row r="1559" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1559" s="3" t="n">
-        <v>1555</v>
-      </c>
-      <c r="B1559" s="13" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C1559" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1559" s="3"/>
+      <c r="B1559" s="3"/>
+      <c r="C1559" s="3"/>
     </row>
     <row r="1560" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1560" s="3" t="n">
-        <v>1556</v>
-      </c>
-      <c r="B1560" s="13" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C1560" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1560" s="3"/>
+      <c r="B1560" s="3"/>
+      <c r="C1560" s="3"/>
     </row>
     <row r="1561" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1561" s="3" t="n">
-        <v>1557</v>
-      </c>
-      <c r="B1561" s="13" t="s">
-        <v>1566</v>
-      </c>
-      <c r="C1561" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1561" s="3"/>
+      <c r="B1561" s="3"/>
+      <c r="C1561" s="3"/>
     </row>
     <row r="1562" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1562" s="3" t="n">
-        <v>1558</v>
-      </c>
-      <c r="B1562" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C1562" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1562" s="3"/>
+      <c r="B1562" s="3"/>
+      <c r="C1562" s="3"/>
     </row>
     <row r="1563" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1563" s="3" t="n">
-        <v>1559</v>
-      </c>
-      <c r="B1563" s="13" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C1563" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1563" s="3"/>
+      <c r="B1563" s="3"/>
+      <c r="C1563" s="3"/>
     </row>
     <row r="1564" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1564" s="3" t="n">
-        <v>1560</v>
-      </c>
-      <c r="B1564" s="13" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C1564" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1564" s="3"/>
+      <c r="B1564" s="3"/>
+      <c r="C1564" s="3"/>
     </row>
     <row r="1565" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1565" s="3" t="n">
-        <v>1561</v>
-      </c>
-      <c r="B1565" s="13" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C1565" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1565" s="3"/>
+      <c r="B1565" s="3"/>
+      <c r="C1565" s="3"/>
     </row>
     <row r="1566" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1566" s="3" t="n">
-        <v>1562</v>
-      </c>
-      <c r="B1566" s="13" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C1566" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1566" s="3"/>
+      <c r="B1566" s="3"/>
+      <c r="C1566" s="3"/>
     </row>
     <row r="1567" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1567" s="3" t="n">
-        <v>1563</v>
-      </c>
-      <c r="B1567" s="13" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C1567" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1567" s="3"/>
+      <c r="B1567" s="3"/>
+      <c r="C1567" s="3"/>
     </row>
     <row r="1568" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1568" s="3" t="n">
-        <v>1564</v>
-      </c>
-      <c r="B1568" s="13" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C1568" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1568" s="3"/>
+      <c r="B1568" s="3"/>
+      <c r="C1568" s="3"/>
     </row>
     <row r="1569" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1569" s="3" t="n">
-        <v>1565</v>
-      </c>
-      <c r="B1569" s="13" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C1569" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1569" s="3"/>
+      <c r="B1569" s="3"/>
+      <c r="C1569" s="3"/>
     </row>
     <row r="1570" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1570" s="3" t="n">
-        <v>1566</v>
-      </c>
-      <c r="B1570" s="13" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C1570" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1570" s="3"/>
+      <c r="B1570" s="3"/>
+      <c r="C1570" s="3"/>
     </row>
     <row r="1571" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1571" s="3" t="n">
-        <v>1567</v>
-      </c>
-      <c r="B1571" s="13" t="s">
-        <v>1576</v>
-      </c>
-      <c r="C1571" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1571" s="3"/>
+      <c r="B1571" s="3"/>
+      <c r="C1571" s="3"/>
     </row>
     <row r="1572" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1572" s="3" t="n">
-        <v>1568</v>
-      </c>
-      <c r="B1572" s="13" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C1572" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1572" s="3"/>
+      <c r="B1572" s="3"/>
+      <c r="C1572" s="3"/>
     </row>
     <row r="1573" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1573" s="3" t="n">
-        <v>1569</v>
-      </c>
-      <c r="B1573" s="13" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C1573" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1573" s="3"/>
+      <c r="B1573" s="3"/>
+      <c r="C1573" s="3"/>
     </row>
     <row r="1574" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1574" s="3" t="n">
-        <v>1570</v>
-      </c>
-      <c r="B1574" s="13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C1574" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1574" s="3"/>
+      <c r="B1574" s="3"/>
+      <c r="C1574" s="3"/>
     </row>
     <row r="1575" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1575" s="3" t="n">
-        <v>1571</v>
-      </c>
-      <c r="B1575" s="13" t="s">
-        <v>1580</v>
-      </c>
-      <c r="C1575" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1575" s="3"/>
+      <c r="B1575" s="3"/>
+      <c r="C1575" s="3"/>
     </row>
     <row r="1576" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1576" s="3" t="n">
-        <v>1572</v>
-      </c>
-      <c r="B1576" s="13" t="s">
-        <v>1581</v>
-      </c>
-      <c r="C1576" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1576" s="3"/>
+      <c r="B1576" s="3"/>
+      <c r="C1576" s="3"/>
     </row>
     <row r="1577" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1577" s="3" t="n">
-        <v>1573</v>
-      </c>
-      <c r="B1577" s="13" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C1577" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1577" s="3"/>
+      <c r="B1577" s="3"/>
+      <c r="C1577" s="3"/>
     </row>
     <row r="1578" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1578" s="3" t="n">
-        <v>1574</v>
-      </c>
-      <c r="B1578" s="13" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C1578" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1578" s="3"/>
+      <c r="B1578" s="3"/>
+      <c r="C1578" s="3"/>
     </row>
     <row r="1579" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1579" s="3" t="n">
-        <v>1575</v>
-      </c>
-      <c r="B1579" s="13" t="s">
-        <v>1584</v>
-      </c>
-      <c r="C1579" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1579" s="3"/>
+      <c r="B1579" s="3"/>
+      <c r="C1579" s="3"/>
     </row>
     <row r="1580" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1580" s="3" t="n">
-        <v>1576</v>
-      </c>
-      <c r="B1580" s="13" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C1580" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1580" s="3"/>
+      <c r="B1580" s="3"/>
+      <c r="C1580" s="3"/>
     </row>
     <row r="1581" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1581" s="3" t="n">
-        <v>1577</v>
-      </c>
-      <c r="B1581" s="13" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C1581" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1581" s="3"/>
+      <c r="B1581" s="3"/>
+      <c r="C1581" s="3"/>
     </row>
     <row r="1582" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1582" s="3" t="n">
-        <v>1578</v>
-      </c>
-      <c r="B1582" s="13" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C1582" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1582" s="3"/>
+      <c r="B1582" s="3"/>
+      <c r="C1582" s="3"/>
     </row>
     <row r="1583" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1583" s="3" t="n">
-        <v>1579</v>
-      </c>
-      <c r="B1583" s="13" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C1583" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1583" s="3"/>
+      <c r="B1583" s="3"/>
+      <c r="C1583" s="3"/>
     </row>
     <row r="1584" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1584" s="3" t="n">
-        <v>1580</v>
-      </c>
-      <c r="B1584" s="13" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C1584" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1584" s="3"/>
+      <c r="B1584" s="3"/>
+      <c r="C1584" s="3"/>
     </row>
     <row r="1585" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1585" s="3" t="n">
-        <v>1581</v>
-      </c>
-      <c r="B1585" s="13" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C1585" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1585" s="3"/>
+      <c r="B1585" s="3"/>
+      <c r="C1585" s="3"/>
     </row>
     <row r="1586" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1586" s="3" t="n">
-        <v>1582</v>
-      </c>
-      <c r="B1586" s="13" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C1586" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1586" s="3"/>
+      <c r="B1586" s="3"/>
+      <c r="C1586" s="3"/>
     </row>
     <row r="1587" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1587" s="3" t="n">
-        <v>1583</v>
-      </c>
-      <c r="B1587" s="13" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C1587" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1587" s="3"/>
+      <c r="B1587" s="3"/>
+      <c r="C1587" s="3"/>
     </row>
     <row r="1588" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1588" s="3" t="n">
-        <v>1584</v>
-      </c>
-      <c r="B1588" s="13" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C1588" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1588" s="3"/>
+      <c r="B1588" s="3"/>
+      <c r="C1588" s="3"/>
     </row>
     <row r="1589" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1589" s="3" t="n">
-        <v>1585</v>
-      </c>
-      <c r="B1589" s="13" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C1589" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1589" s="3"/>
+      <c r="B1589" s="3"/>
+      <c r="C1589" s="3"/>
     </row>
     <row r="1590" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1590" s="3" t="n">
-        <v>1586</v>
-      </c>
-      <c r="B1590" s="13" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C1590" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1590" s="3"/>
+      <c r="B1590" s="3"/>
+      <c r="C1590" s="3"/>
     </row>
     <row r="1591" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1591" s="3" t="n">
-        <v>1587</v>
-      </c>
-      <c r="B1591" s="13" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C1591" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1591" s="3"/>
+      <c r="B1591" s="3"/>
+      <c r="C1591" s="3"/>
     </row>
     <row r="1592" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1592" s="3" t="n">
-        <v>1588</v>
-      </c>
-      <c r="B1592" s="13" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C1592" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1592" s="3"/>
+      <c r="B1592" s="3"/>
+      <c r="C1592" s="3"/>
     </row>
     <row r="1593" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1593" s="3" t="n">
-        <v>1589</v>
-      </c>
-      <c r="B1593" s="13" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C1593" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1593" s="3"/>
+      <c r="B1593" s="3"/>
+      <c r="C1593" s="3"/>
     </row>
     <row r="1594" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1594" s="3" t="n">
-        <v>1590</v>
-      </c>
-      <c r="B1594" s="13" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C1594" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1594" s="3"/>
+      <c r="B1594" s="3"/>
+      <c r="C1594" s="3"/>
     </row>
     <row r="1595" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1595" s="3" t="n">
-        <v>1591</v>
-      </c>
-      <c r="B1595" s="13" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C1595" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1595" s="3"/>
+      <c r="B1595" s="3"/>
+      <c r="C1595" s="3"/>
     </row>
     <row r="1596" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1596" s="3" t="n">
-        <v>1592</v>
-      </c>
-      <c r="B1596" s="13" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C1596" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1596" s="3"/>
+      <c r="B1596" s="3"/>
+      <c r="C1596" s="3"/>
     </row>
     <row r="1597" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1597" s="3" t="n">
-        <v>1593</v>
-      </c>
-      <c r="B1597" s="13" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C1597" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1597" s="3"/>
+      <c r="B1597" s="3"/>
+      <c r="C1597" s="3"/>
     </row>
     <row r="1598" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1598" s="3" t="n">
-        <v>1594</v>
-      </c>
-      <c r="B1598" s="13" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C1598" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1598" s="3"/>
+      <c r="B1598" s="3"/>
+      <c r="C1598" s="3"/>
     </row>
     <row r="1599" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1599" s="3" t="n">
-        <v>1595</v>
-      </c>
-      <c r="B1599" s="13" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C1599" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1599" s="3"/>
+      <c r="B1599" s="3"/>
+      <c r="C1599" s="3"/>
     </row>
     <row r="1600" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1600" s="3" t="n">
-        <v>1596</v>
-      </c>
-      <c r="B1600" s="13" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C1600" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1600" s="3"/>
+      <c r="B1600" s="3"/>
+      <c r="C1600" s="3"/>
     </row>
     <row r="1601" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1601" s="3" t="n">
-        <v>1597</v>
-      </c>
-      <c r="B1601" s="13" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C1601" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1601" s="3"/>
+      <c r="B1601" s="3"/>
+      <c r="C1601" s="3"/>
     </row>
     <row r="1602" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1602" s="3" t="n">
-        <v>1598</v>
-      </c>
-      <c r="B1602" s="13" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C1602" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1602" s="3"/>
+      <c r="B1602" s="3"/>
+      <c r="C1602" s="3"/>
     </row>
     <row r="1603" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1603" s="3" t="n">
-        <v>1599</v>
-      </c>
-      <c r="B1603" s="13" t="s">
-        <v>1608</v>
-      </c>
-      <c r="C1603" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1603" s="3"/>
+      <c r="B1603" s="3"/>
+      <c r="C1603" s="3"/>
     </row>
     <row r="1604" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1604" s="3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="B1604" s="13" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C1604" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1604" s="3"/>
+      <c r="B1604" s="3"/>
+      <c r="C1604" s="3"/>
     </row>
     <row r="1605" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1605" s="3" t="n">
-        <v>1601</v>
-      </c>
-      <c r="B1605" s="13" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C1605" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1605" s="3"/>
+      <c r="B1605" s="3"/>
+      <c r="C1605" s="3"/>
     </row>
     <row r="1606" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1606" s="3" t="n">
-        <v>1602</v>
-      </c>
-      <c r="B1606" s="13" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C1606" s="3" t="n">
-        <v>2009</v>
-      </c>
+      <c r="A1606" s="3"/>
+      <c r="B1606" s="3"/>
+      <c r="C1606" s="3"/>
     </row>
     <row r="1607" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1607" s="3" t="n">
-        <v>1603</v>
-      </c>
-      <c r="B1607" s="14" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C1607" s="15" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D1607" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A1607" s="3"/>
+      <c r="B1607" s="3"/>
+      <c r="C1607" s="3"/>
     </row>
     <row r="1608" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1608" s="3" t="n">
-        <v>1604</v>
-      </c>
-      <c r="B1608" s="14" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C1608" s="15" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D1608" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A1608" s="3"/>
+      <c r="B1608" s="3"/>
+      <c r="C1608" s="3"/>
     </row>
     <row r="1609" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1609" s="3" t="n">
-        <v>1605</v>
-      </c>
-      <c r="B1609" s="14" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C1609" s="15" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D1609" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A1609" s="3"/>
+      <c r="B1609" s="3"/>
+      <c r="C1609" s="3"/>
     </row>
     <row r="1610" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1610" s="3" t="n">
-        <v>1606</v>
-      </c>
-      <c r="B1610" s="14" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C1610" s="15" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D1610" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A1610" s="3"/>
+      <c r="B1610" s="3"/>
+      <c r="C1610" s="3"/>
     </row>
     <row r="1611" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1611" s="3"/>
@@ -26015,318 +25457,6 @@
       <c r="B1860" s="3"/>
       <c r="C1860" s="3"/>
     </row>
-    <row r="1861" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1861" s="3"/>
-      <c r="B1861" s="3"/>
-      <c r="C1861" s="3"/>
-    </row>
-    <row r="1862" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1862" s="3"/>
-      <c r="B1862" s="3"/>
-      <c r="C1862" s="3"/>
-    </row>
-    <row r="1863" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1863" s="3"/>
-      <c r="B1863" s="3"/>
-      <c r="C1863" s="3"/>
-    </row>
-    <row r="1864" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1864" s="3"/>
-      <c r="B1864" s="3"/>
-      <c r="C1864" s="3"/>
-    </row>
-    <row r="1865" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1865" s="3"/>
-      <c r="B1865" s="3"/>
-      <c r="C1865" s="3"/>
-    </row>
-    <row r="1866" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1866" s="3"/>
-      <c r="B1866" s="3"/>
-      <c r="C1866" s="3"/>
-    </row>
-    <row r="1867" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1867" s="3"/>
-      <c r="B1867" s="3"/>
-      <c r="C1867" s="3"/>
-    </row>
-    <row r="1868" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1868" s="3"/>
-      <c r="B1868" s="3"/>
-      <c r="C1868" s="3"/>
-    </row>
-    <row r="1869" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1869" s="3"/>
-      <c r="B1869" s="3"/>
-      <c r="C1869" s="3"/>
-    </row>
-    <row r="1870" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1870" s="3"/>
-      <c r="B1870" s="3"/>
-      <c r="C1870" s="3"/>
-    </row>
-    <row r="1871" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1871" s="3"/>
-      <c r="B1871" s="3"/>
-      <c r="C1871" s="3"/>
-    </row>
-    <row r="1872" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1872" s="3"/>
-      <c r="B1872" s="3"/>
-      <c r="C1872" s="3"/>
-    </row>
-    <row r="1873" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1873" s="3"/>
-      <c r="B1873" s="3"/>
-      <c r="C1873" s="3"/>
-    </row>
-    <row r="1874" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1874" s="3"/>
-      <c r="B1874" s="3"/>
-      <c r="C1874" s="3"/>
-    </row>
-    <row r="1875" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1875" s="3"/>
-      <c r="B1875" s="3"/>
-      <c r="C1875" s="3"/>
-    </row>
-    <row r="1876" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1876" s="3"/>
-      <c r="B1876" s="3"/>
-      <c r="C1876" s="3"/>
-    </row>
-    <row r="1877" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1877" s="3"/>
-      <c r="B1877" s="3"/>
-      <c r="C1877" s="3"/>
-    </row>
-    <row r="1878" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1878" s="3"/>
-      <c r="B1878" s="3"/>
-      <c r="C1878" s="3"/>
-    </row>
-    <row r="1879" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1879" s="3"/>
-      <c r="B1879" s="3"/>
-      <c r="C1879" s="3"/>
-    </row>
-    <row r="1880" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1880" s="3"/>
-      <c r="B1880" s="3"/>
-      <c r="C1880" s="3"/>
-    </row>
-    <row r="1881" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1881" s="3"/>
-      <c r="B1881" s="3"/>
-      <c r="C1881" s="3"/>
-    </row>
-    <row r="1882" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1882" s="3"/>
-      <c r="B1882" s="3"/>
-      <c r="C1882" s="3"/>
-    </row>
-    <row r="1883" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1883" s="3"/>
-      <c r="B1883" s="3"/>
-      <c r="C1883" s="3"/>
-    </row>
-    <row r="1884" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1884" s="3"/>
-      <c r="B1884" s="3"/>
-      <c r="C1884" s="3"/>
-    </row>
-    <row r="1885" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1885" s="3"/>
-      <c r="B1885" s="3"/>
-      <c r="C1885" s="3"/>
-    </row>
-    <row r="1886" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1886" s="3"/>
-      <c r="B1886" s="3"/>
-      <c r="C1886" s="3"/>
-    </row>
-    <row r="1887" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1887" s="3"/>
-      <c r="B1887" s="3"/>
-      <c r="C1887" s="3"/>
-    </row>
-    <row r="1888" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1888" s="3"/>
-      <c r="B1888" s="3"/>
-      <c r="C1888" s="3"/>
-    </row>
-    <row r="1889" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1889" s="3"/>
-      <c r="B1889" s="3"/>
-      <c r="C1889" s="3"/>
-    </row>
-    <row r="1890" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1890" s="3"/>
-      <c r="B1890" s="3"/>
-      <c r="C1890" s="3"/>
-    </row>
-    <row r="1891" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1891" s="3"/>
-      <c r="B1891" s="3"/>
-      <c r="C1891" s="3"/>
-    </row>
-    <row r="1892" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1892" s="3"/>
-      <c r="B1892" s="3"/>
-      <c r="C1892" s="3"/>
-    </row>
-    <row r="1893" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1893" s="3"/>
-      <c r="B1893" s="3"/>
-      <c r="C1893" s="3"/>
-    </row>
-    <row r="1894" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1894" s="3"/>
-      <c r="B1894" s="3"/>
-      <c r="C1894" s="3"/>
-    </row>
-    <row r="1895" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1895" s="3"/>
-      <c r="B1895" s="3"/>
-      <c r="C1895" s="3"/>
-    </row>
-    <row r="1896" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1896" s="3"/>
-      <c r="B1896" s="3"/>
-      <c r="C1896" s="3"/>
-    </row>
-    <row r="1897" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1897" s="3"/>
-      <c r="B1897" s="3"/>
-      <c r="C1897" s="3"/>
-    </row>
-    <row r="1898" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1898" s="3"/>
-      <c r="B1898" s="3"/>
-      <c r="C1898" s="3"/>
-    </row>
-    <row r="1899" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1899" s="3"/>
-      <c r="B1899" s="3"/>
-      <c r="C1899" s="3"/>
-    </row>
-    <row r="1900" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1900" s="3"/>
-      <c r="B1900" s="3"/>
-      <c r="C1900" s="3"/>
-    </row>
-    <row r="1901" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1901" s="3"/>
-      <c r="B1901" s="3"/>
-      <c r="C1901" s="3"/>
-    </row>
-    <row r="1902" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1902" s="3"/>
-      <c r="B1902" s="3"/>
-      <c r="C1902" s="3"/>
-    </row>
-    <row r="1903" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1903" s="3"/>
-      <c r="B1903" s="3"/>
-      <c r="C1903" s="3"/>
-    </row>
-    <row r="1904" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1904" s="3"/>
-      <c r="B1904" s="3"/>
-      <c r="C1904" s="3"/>
-    </row>
-    <row r="1905" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1905" s="3"/>
-      <c r="B1905" s="3"/>
-      <c r="C1905" s="3"/>
-    </row>
-    <row r="1906" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1906" s="3"/>
-      <c r="B1906" s="3"/>
-      <c r="C1906" s="3"/>
-    </row>
-    <row r="1907" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1907" s="3"/>
-      <c r="B1907" s="3"/>
-      <c r="C1907" s="3"/>
-    </row>
-    <row r="1908" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1908" s="3"/>
-      <c r="B1908" s="3"/>
-      <c r="C1908" s="3"/>
-    </row>
-    <row r="1909" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1909" s="3"/>
-      <c r="B1909" s="3"/>
-      <c r="C1909" s="3"/>
-    </row>
-    <row r="1910" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1910" s="3"/>
-      <c r="B1910" s="3"/>
-      <c r="C1910" s="3"/>
-    </row>
-    <row r="1911" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1911" s="3"/>
-      <c r="B1911" s="3"/>
-      <c r="C1911" s="3"/>
-    </row>
-    <row r="1912" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1912" s="3"/>
-      <c r="B1912" s="3"/>
-      <c r="C1912" s="3"/>
-    </row>
-    <row r="1913" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1913" s="3"/>
-      <c r="B1913" s="3"/>
-      <c r="C1913" s="3"/>
-    </row>
-    <row r="1914" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1914" s="3"/>
-      <c r="B1914" s="3"/>
-      <c r="C1914" s="3"/>
-    </row>
-    <row r="1915" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1915" s="3"/>
-      <c r="B1915" s="3"/>
-      <c r="C1915" s="3"/>
-    </row>
-    <row r="1916" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1916" s="3"/>
-      <c r="B1916" s="3"/>
-      <c r="C1916" s="3"/>
-    </row>
-    <row r="1917" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1917" s="3"/>
-      <c r="B1917" s="3"/>
-      <c r="C1917" s="3"/>
-    </row>
-    <row r="1918" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1918" s="3"/>
-      <c r="B1918" s="3"/>
-      <c r="C1918" s="3"/>
-    </row>
-    <row r="1919" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1919" s="3"/>
-      <c r="B1919" s="3"/>
-      <c r="C1919" s="3"/>
-    </row>
-    <row r="1920" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1920" s="3"/>
-      <c r="B1920" s="3"/>
-      <c r="C1920" s="3"/>
-    </row>
-    <row r="1921" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1921" s="3"/>
-      <c r="B1921" s="3"/>
-      <c r="C1921" s="3"/>
-    </row>
-    <row r="1922" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1922" s="3"/>
-      <c r="B1922" s="3"/>
-      <c r="C1922" s="3"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/pet-simulator/Excel/DropPoint_资源生成点表.xlsx
+++ b/pet-simulator/Excel/DropPoint_资源生成点表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE6C352-3E7A-4123-B817-380D2C51ACC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC110D95-4591-4EC1-9BC4-1AA1EF1AEA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="1916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1936">
   <si>
     <t>int</t>
   </si>
@@ -5783,15 +5783,99 @@
   </si>
   <si>
     <t>1681.57|98581.88|73130.14</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1681.57|100712.88|73130.14</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3657.57|101915.88|73130.14</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5497.57|100427.88|73130.14</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4579.57|98659.88|73130.14</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3547.57|100312.88|73130.14</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>-8035.7|83434|77570</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10024.70|83434.00|77570.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10531.70|81129.00|77570.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6542.70|80529.00|77492.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6542.70|82699.00|77492.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6773.70|83835.00|77492.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>-16210|95290|93577</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-17468.00|95290.00|93577.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-14786.00|95573.00|93577.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-16207.00|97007.00|93577.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-16207.00|94435.00|93577.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-16058.00|101746.00|94007.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>-16330|105395|93552</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-14940.00|105638.00|93552.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-15023.00|106718.00|93552.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-16316.00|106903.00|93552.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-17194.00|106476.00|93552.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-17289.00|105439.00|93552.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6221,8 +6305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1930"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1906" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I1924" sqref="I1924"/>
+    <sheetView tabSelected="1" topLeftCell="A1911" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1932" sqref="B1932"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -29573,7 +29657,7 @@
         <v>1904</v>
       </c>
       <c r="B1908" s="16" t="s">
-        <v>1913</v>
+        <v>1918</v>
       </c>
       <c r="C1908" s="17">
         <v>2008</v>
@@ -29587,7 +29671,7 @@
         <v>1905</v>
       </c>
       <c r="B1909" s="16" t="s">
-        <v>1914</v>
+        <v>1924</v>
       </c>
       <c r="C1909" s="17">
         <v>2009</v>
@@ -29601,7 +29685,7 @@
         <v>1906</v>
       </c>
       <c r="B1910" s="16" t="s">
-        <v>1915</v>
+        <v>1930</v>
       </c>
       <c r="C1910" s="17">
         <v>2010</v>
@@ -29614,6 +29698,9 @@
       <c r="A1911" s="5">
         <v>1907</v>
       </c>
+      <c r="B1911" s="1" t="s">
+        <v>1913</v>
+      </c>
       <c r="C1911" s="17">
         <v>2007</v>
       </c>
@@ -29625,6 +29712,9 @@
       <c r="A1912" s="5">
         <v>1908</v>
       </c>
+      <c r="B1912" s="16" t="s">
+        <v>1919</v>
+      </c>
       <c r="C1912" s="17">
         <v>2008</v>
       </c>
@@ -29636,6 +29726,9 @@
       <c r="A1913" s="5">
         <v>1909</v>
       </c>
+      <c r="B1913" s="16" t="s">
+        <v>1925</v>
+      </c>
       <c r="C1913" s="17">
         <v>2009</v>
       </c>
@@ -29647,6 +29740,9 @@
       <c r="A1914" s="5">
         <v>1910</v>
       </c>
+      <c r="B1914" s="16" t="s">
+        <v>1931</v>
+      </c>
       <c r="C1914" s="17">
         <v>2010</v>
       </c>
@@ -29658,6 +29754,9 @@
       <c r="A1915" s="5">
         <v>1911</v>
       </c>
+      <c r="B1915" s="16" t="s">
+        <v>1914</v>
+      </c>
       <c r="C1915" s="17">
         <v>2007</v>
       </c>
@@ -29669,6 +29768,9 @@
       <c r="A1916" s="5">
         <v>1912</v>
       </c>
+      <c r="B1916" s="16" t="s">
+        <v>1920</v>
+      </c>
       <c r="C1916" s="17">
         <v>2008</v>
       </c>
@@ -29680,6 +29782,9 @@
       <c r="A1917" s="5">
         <v>1913</v>
       </c>
+      <c r="B1917" s="16" t="s">
+        <v>1926</v>
+      </c>
       <c r="C1917" s="17">
         <v>2009</v>
       </c>
@@ -29691,6 +29796,9 @@
       <c r="A1918" s="5">
         <v>1914</v>
       </c>
+      <c r="B1918" s="16" t="s">
+        <v>1932</v>
+      </c>
       <c r="C1918" s="17">
         <v>2010</v>
       </c>
@@ -29702,6 +29810,9 @@
       <c r="A1919" s="5">
         <v>1915</v>
       </c>
+      <c r="B1919" s="16" t="s">
+        <v>1915</v>
+      </c>
       <c r="C1919" s="17">
         <v>2007</v>
       </c>
@@ -29713,6 +29824,9 @@
       <c r="A1920" s="5">
         <v>1916</v>
       </c>
+      <c r="B1920" s="16" t="s">
+        <v>1921</v>
+      </c>
       <c r="C1920" s="17">
         <v>2008</v>
       </c>
@@ -29724,6 +29838,9 @@
       <c r="A1921" s="5">
         <v>1917</v>
       </c>
+      <c r="B1921" s="16" t="s">
+        <v>1927</v>
+      </c>
       <c r="C1921" s="17">
         <v>2009</v>
       </c>
@@ -29735,6 +29852,9 @@
       <c r="A1922" s="5">
         <v>1918</v>
       </c>
+      <c r="B1922" s="16" t="s">
+        <v>1933</v>
+      </c>
       <c r="C1922" s="17">
         <v>2010</v>
       </c>
@@ -29746,6 +29866,9 @@
       <c r="A1923" s="5">
         <v>1919</v>
       </c>
+      <c r="B1923" s="16" t="s">
+        <v>1916</v>
+      </c>
       <c r="C1923" s="17">
         <v>2007</v>
       </c>
@@ -29757,6 +29880,9 @@
       <c r="A1924" s="5">
         <v>1920</v>
       </c>
+      <c r="B1924" s="16" t="s">
+        <v>1922</v>
+      </c>
       <c r="C1924" s="17">
         <v>2008</v>
       </c>
@@ -29768,6 +29894,9 @@
       <c r="A1925" s="5">
         <v>1921</v>
       </c>
+      <c r="B1925" s="16" t="s">
+        <v>1928</v>
+      </c>
       <c r="C1925" s="17">
         <v>2009</v>
       </c>
@@ -29779,6 +29908,9 @@
       <c r="A1926" s="5">
         <v>1922</v>
       </c>
+      <c r="B1926" s="16" t="s">
+        <v>1934</v>
+      </c>
       <c r="C1926" s="17">
         <v>2010</v>
       </c>
@@ -29790,6 +29922,9 @@
       <c r="A1927" s="5">
         <v>1923</v>
       </c>
+      <c r="B1927" s="16" t="s">
+        <v>1917</v>
+      </c>
       <c r="C1927" s="17">
         <v>2007</v>
       </c>
@@ -29801,6 +29936,9 @@
       <c r="A1928" s="5">
         <v>1924</v>
       </c>
+      <c r="B1928" s="16" t="s">
+        <v>1923</v>
+      </c>
       <c r="C1928" s="17">
         <v>2008</v>
       </c>
@@ -29812,6 +29950,9 @@
       <c r="A1929" s="5">
         <v>1925</v>
       </c>
+      <c r="B1929" s="16" t="s">
+        <v>1929</v>
+      </c>
       <c r="C1929" s="17">
         <v>2009</v>
       </c>
@@ -29822,6 +29963,9 @@
     <row r="1930" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1930" s="5">
         <v>1926</v>
+      </c>
+      <c r="B1930" s="16" t="s">
+        <v>1935</v>
       </c>
       <c r="C1930" s="17">
         <v>2010</v>

--- a/pet-simulator/Excel/DropPoint_资源生成点表.xlsx
+++ b/pet-simulator/Excel/DropPoint_资源生成点表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC110D95-4591-4EC1-9BC4-1AA1EF1AEA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5506,9 +5500,6 @@
     <t>-10323.59|82733.08|77527.95</t>
   </si>
   <si>
-    <t>-9773.59|83632.08|77527.95</t>
-  </si>
-  <si>
     <t>-9516.59|82953.08|77527.95</t>
   </si>
   <si>
@@ -5810,6 +5801,66 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>-16210|95290|93577</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-16330|105395|93552</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-14940.00|105638.00|93552.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-15023.00|106718.00|93552.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-16316.00|106903.00|93552.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-17194.00|106476.00|93552.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-17289.00|105439.00|93552.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9627.59|84127.08|77527.95</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5595.70|81297.00|77734.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5495.70|79573.00|77668.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-16058.00|101746.00|94007.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-16058.00|100961.00|94007.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-14091.00|94736.00|93606.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-15346.00|97833.00|93565.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-16145.00|102713.00|93577.00</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>-10024.70|83434.00|77570.00</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5818,70 +5869,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>-6542.70|80529.00|77492.00</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-6542.70|82699.00|77492.00</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-6773.70|83835.00|77492.00</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-16210|95290|93577</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-17468.00|95290.00|93577.00</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-14786.00|95573.00|93577.00</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-16207.00|97007.00|93577.00</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-16207.00|94435.00|93577.00</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-16058.00|101746.00|94007.00</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-16330|105395|93552</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-14940.00|105638.00|93552.00</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-15023.00|106718.00|93552.00</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-16316.00|106903.00|93552.00</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-17194.00|106476.00|93552.00</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-17289.00|105439.00|93552.00</t>
+    <t>-8739.70|78613.00|77543.00</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -6008,7 +6003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6041,6 +6036,9 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6302,11 +6300,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1930"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T1942"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1911" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1932" sqref="B1932"/>
+    <sheetView tabSelected="1" topLeftCell="A1908" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D1922" sqref="D1922"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -28630,8 +28628,8 @@
       <c r="A1815" s="5">
         <v>1811</v>
       </c>
-      <c r="B1815" s="14" t="s">
-        <v>1820</v>
+      <c r="B1815" s="19" t="s">
+        <v>1925</v>
       </c>
       <c r="C1815" s="3">
         <v>2008</v>
@@ -28642,7 +28640,7 @@
         <v>1812</v>
       </c>
       <c r="B1816" s="14" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="C1816" s="3">
         <v>2008</v>
@@ -28653,7 +28651,7 @@
         <v>1813</v>
       </c>
       <c r="B1817" s="14" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C1817" s="3">
         <v>2008</v>
@@ -28664,7 +28662,7 @@
         <v>1814</v>
       </c>
       <c r="B1818" s="14" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C1818" s="3">
         <v>2008</v>
@@ -28675,7 +28673,7 @@
         <v>1815</v>
       </c>
       <c r="B1819" s="14" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C1819" s="3">
         <v>2008</v>
@@ -28686,7 +28684,7 @@
         <v>1816</v>
       </c>
       <c r="B1820" s="14" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C1820" s="3">
         <v>2008</v>
@@ -28697,7 +28695,7 @@
         <v>1817</v>
       </c>
       <c r="B1821" s="14" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C1821" s="3">
         <v>2008</v>
@@ -28708,7 +28706,7 @@
         <v>1818</v>
       </c>
       <c r="B1822" s="14" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="C1822" s="3">
         <v>2008</v>
@@ -28719,7 +28717,7 @@
         <v>1819</v>
       </c>
       <c r="B1823" s="14" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C1823" s="3">
         <v>2008</v>
@@ -28730,7 +28728,7 @@
         <v>1820</v>
       </c>
       <c r="B1824" s="14" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C1824" s="3">
         <v>2008</v>
@@ -28741,7 +28739,7 @@
         <v>1821</v>
       </c>
       <c r="B1825" s="14" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C1825" s="3">
         <v>2008</v>
@@ -28752,7 +28750,7 @@
         <v>1822</v>
       </c>
       <c r="B1826" s="14" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="C1826" s="3">
         <v>2008</v>
@@ -28763,7 +28761,7 @@
         <v>1823</v>
       </c>
       <c r="B1827" s="14" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C1827" s="3">
         <v>2008</v>
@@ -28774,7 +28772,7 @@
         <v>1824</v>
       </c>
       <c r="B1828" s="14" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C1828" s="3">
         <v>2008</v>
@@ -28785,7 +28783,7 @@
         <v>1825</v>
       </c>
       <c r="B1829" s="14" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C1829" s="3">
         <v>2008</v>
@@ -28796,7 +28794,7 @@
         <v>1826</v>
       </c>
       <c r="B1830" s="14" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C1830" s="3">
         <v>2008</v>
@@ -28807,7 +28805,7 @@
         <v>1827</v>
       </c>
       <c r="B1831" s="14" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C1831" s="3">
         <v>2008</v>
@@ -28818,7 +28816,7 @@
         <v>1828</v>
       </c>
       <c r="B1832" s="14" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C1832" s="3">
         <v>2008</v>
@@ -28829,7 +28827,7 @@
         <v>1829</v>
       </c>
       <c r="B1833" s="14" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C1833" s="3">
         <v>2008</v>
@@ -28840,7 +28838,7 @@
         <v>1830</v>
       </c>
       <c r="B1834" s="14" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C1834" s="3">
         <v>2008</v>
@@ -28851,7 +28849,7 @@
         <v>1831</v>
       </c>
       <c r="B1835" s="14" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C1835" s="3">
         <v>2008</v>
@@ -28862,7 +28860,7 @@
         <v>1832</v>
       </c>
       <c r="B1836" s="14" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C1836" s="3">
         <v>2008</v>
@@ -28873,7 +28871,7 @@
         <v>1833</v>
       </c>
       <c r="B1837" s="14" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="C1837" s="3">
         <v>2008</v>
@@ -28884,7 +28882,7 @@
         <v>1834</v>
       </c>
       <c r="B1838" s="14" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C1838" s="3">
         <v>2008</v>
@@ -28895,7 +28893,7 @@
         <v>1835</v>
       </c>
       <c r="B1839" s="14" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C1839" s="3">
         <v>2008</v>
@@ -28906,7 +28904,7 @@
         <v>1836</v>
       </c>
       <c r="B1840" s="14" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="C1840" s="3">
         <v>2008</v>
@@ -28917,7 +28915,7 @@
         <v>1837</v>
       </c>
       <c r="B1841" s="14" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C1841" s="3">
         <v>2008</v>
@@ -28928,7 +28926,7 @@
         <v>1838</v>
       </c>
       <c r="B1842" s="14" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C1842" s="3">
         <v>2008</v>
@@ -28939,7 +28937,7 @@
         <v>1839</v>
       </c>
       <c r="B1843" s="14" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="C1843" s="3">
         <v>2008</v>
@@ -28950,7 +28948,7 @@
         <v>1840</v>
       </c>
       <c r="B1844" s="14" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="C1844" s="3">
         <v>2008</v>
@@ -28961,7 +28959,7 @@
         <v>1841</v>
       </c>
       <c r="B1845" s="14" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C1845" s="3">
         <v>2008</v>
@@ -28972,7 +28970,7 @@
         <v>1842</v>
       </c>
       <c r="B1846" s="14" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C1846" s="3">
         <v>2008</v>
@@ -28983,7 +28981,7 @@
         <v>1843</v>
       </c>
       <c r="B1847" s="14" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C1847" s="3">
         <v>2008</v>
@@ -28994,7 +28992,7 @@
         <v>1844</v>
       </c>
       <c r="B1848" s="14" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="C1848" s="3">
         <v>2008</v>
@@ -29005,7 +29003,7 @@
         <v>1845</v>
       </c>
       <c r="B1849" s="14" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C1849" s="3">
         <v>2008</v>
@@ -29016,7 +29014,7 @@
         <v>1846</v>
       </c>
       <c r="B1850" s="14" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C1850" s="3">
         <v>2009</v>
@@ -29027,7 +29025,7 @@
         <v>1847</v>
       </c>
       <c r="B1851" s="14" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C1851" s="3">
         <v>2009</v>
@@ -29038,7 +29036,7 @@
         <v>1848</v>
       </c>
       <c r="B1852" s="14" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C1852" s="3">
         <v>2009</v>
@@ -29049,7 +29047,7 @@
         <v>1849</v>
       </c>
       <c r="B1853" s="14" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C1853" s="3">
         <v>2009</v>
@@ -29060,7 +29058,7 @@
         <v>1850</v>
       </c>
       <c r="B1854" s="14" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C1854" s="3">
         <v>2009</v>
@@ -29071,7 +29069,7 @@
         <v>1851</v>
       </c>
       <c r="B1855" s="14" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C1855" s="3">
         <v>2009</v>
@@ -29082,7 +29080,7 @@
         <v>1852</v>
       </c>
       <c r="B1856" s="14" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C1856" s="3">
         <v>2009</v>
@@ -29093,7 +29091,7 @@
         <v>1853</v>
       </c>
       <c r="B1857" s="14" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C1857" s="3">
         <v>2009</v>
@@ -29104,7 +29102,7 @@
         <v>1854</v>
       </c>
       <c r="B1858" s="14" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C1858" s="3">
         <v>2009</v>
@@ -29115,7 +29113,7 @@
         <v>1855</v>
       </c>
       <c r="B1859" s="14" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C1859" s="3">
         <v>2009</v>
@@ -29126,7 +29124,7 @@
         <v>1856</v>
       </c>
       <c r="B1860" s="14" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C1860" s="3">
         <v>2009</v>
@@ -29137,7 +29135,7 @@
         <v>1857</v>
       </c>
       <c r="B1861" s="14" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C1861" s="3">
         <v>2009</v>
@@ -29148,7 +29146,7 @@
         <v>1858</v>
       </c>
       <c r="B1862" s="14" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C1862" s="3">
         <v>2009</v>
@@ -29159,7 +29157,7 @@
         <v>1859</v>
       </c>
       <c r="B1863" s="14" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C1863" s="3">
         <v>2009</v>
@@ -29170,7 +29168,7 @@
         <v>1860</v>
       </c>
       <c r="B1864" s="14" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C1864" s="3">
         <v>2009</v>
@@ -29181,7 +29179,7 @@
         <v>1861</v>
       </c>
       <c r="B1865" s="14" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C1865" s="3">
         <v>2009</v>
@@ -29192,7 +29190,7 @@
         <v>1862</v>
       </c>
       <c r="B1866" s="14" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C1866" s="3">
         <v>2009</v>
@@ -29203,7 +29201,7 @@
         <v>1863</v>
       </c>
       <c r="B1867" s="14" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C1867" s="3">
         <v>2009</v>
@@ -29214,7 +29212,7 @@
         <v>1864</v>
       </c>
       <c r="B1868" s="14" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C1868" s="3">
         <v>2009</v>
@@ -29225,7 +29223,7 @@
         <v>1865</v>
       </c>
       <c r="B1869" s="14" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C1869" s="3">
         <v>2009</v>
@@ -29236,7 +29234,7 @@
         <v>1866</v>
       </c>
       <c r="B1870" s="14" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="C1870" s="3">
         <v>2009</v>
@@ -29247,7 +29245,7 @@
         <v>1867</v>
       </c>
       <c r="B1871" s="14" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C1871" s="3">
         <v>2009</v>
@@ -29258,7 +29256,7 @@
         <v>1868</v>
       </c>
       <c r="B1872" s="14" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C1872" s="3">
         <v>2009</v>
@@ -29269,7 +29267,7 @@
         <v>1869</v>
       </c>
       <c r="B1873" s="14" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C1873" s="3">
         <v>2009</v>
@@ -29280,7 +29278,7 @@
         <v>1870</v>
       </c>
       <c r="B1874" s="14" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C1874" s="3">
         <v>2009</v>
@@ -29291,7 +29289,7 @@
         <v>1871</v>
       </c>
       <c r="B1875" s="14" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C1875" s="3">
         <v>2009</v>
@@ -29302,7 +29300,7 @@
         <v>1872</v>
       </c>
       <c r="B1876" s="14" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C1876" s="3">
         <v>2009</v>
@@ -29313,7 +29311,7 @@
         <v>1873</v>
       </c>
       <c r="B1877" s="14" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C1877" s="3">
         <v>2009</v>
@@ -29324,7 +29322,7 @@
         <v>1874</v>
       </c>
       <c r="B1878" s="14" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C1878" s="3">
         <v>2009</v>
@@ -29335,7 +29333,7 @@
         <v>1875</v>
       </c>
       <c r="B1879" s="14" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C1879" s="3">
         <v>2009</v>
@@ -29346,7 +29344,7 @@
         <v>1876</v>
       </c>
       <c r="B1880" s="14" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C1880" s="3">
         <v>2009</v>
@@ -29357,7 +29355,7 @@
         <v>1877</v>
       </c>
       <c r="B1881" s="14" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="C1881" s="3">
         <v>2009</v>
@@ -29368,7 +29366,7 @@
         <v>1878</v>
       </c>
       <c r="B1882" s="14" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="C1882" s="3">
         <v>2009</v>
@@ -29379,7 +29377,7 @@
         <v>1879</v>
       </c>
       <c r="B1883" s="14" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C1883" s="3">
         <v>2009</v>
@@ -29390,7 +29388,7 @@
         <v>1880</v>
       </c>
       <c r="B1884" s="14" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="C1884" s="3">
         <v>2009</v>
@@ -29401,7 +29399,7 @@
         <v>1881</v>
       </c>
       <c r="B1885" s="14" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C1885" s="3">
         <v>2009</v>
@@ -29412,7 +29410,7 @@
         <v>1882</v>
       </c>
       <c r="B1886" s="14" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C1886" s="3">
         <v>2009</v>
@@ -29423,7 +29421,7 @@
         <v>1883</v>
       </c>
       <c r="B1887" s="14" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C1887" s="3">
         <v>2009</v>
@@ -29434,7 +29432,7 @@
         <v>1884</v>
       </c>
       <c r="B1888" s="14" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C1888" s="3">
         <v>2009</v>
@@ -29445,7 +29443,7 @@
         <v>1885</v>
       </c>
       <c r="B1889" s="14" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C1889" s="3">
         <v>2009</v>
@@ -29456,7 +29454,7 @@
         <v>1886</v>
       </c>
       <c r="B1890" s="14" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C1890" s="3">
         <v>2009</v>
@@ -29467,7 +29465,7 @@
         <v>1887</v>
       </c>
       <c r="B1891" s="14" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C1891" s="3">
         <v>2009</v>
@@ -29478,7 +29476,7 @@
         <v>1888</v>
       </c>
       <c r="B1892" s="14" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C1892" s="3">
         <v>2009</v>
@@ -29489,7 +29487,7 @@
         <v>1889</v>
       </c>
       <c r="B1893" s="14" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="C1893" s="3">
         <v>2009</v>
@@ -29500,7 +29498,7 @@
         <v>1890</v>
       </c>
       <c r="B1894" s="14" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C1894" s="3">
         <v>2009</v>
@@ -29511,7 +29509,7 @@
         <v>1891</v>
       </c>
       <c r="B1895" s="14" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C1895" s="3">
         <v>2009</v>
@@ -29522,7 +29520,7 @@
         <v>1892</v>
       </c>
       <c r="B1896" s="14" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C1896" s="3">
         <v>2009</v>
@@ -29533,7 +29531,7 @@
         <v>1893</v>
       </c>
       <c r="B1897" s="14" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="C1897" s="3">
         <v>2009</v>
@@ -29544,7 +29542,7 @@
         <v>1894</v>
       </c>
       <c r="B1898" s="14" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="C1898" s="3">
         <v>2009</v>
@@ -29555,7 +29553,7 @@
         <v>1895</v>
       </c>
       <c r="B1899" s="14" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C1899" s="3">
         <v>2009</v>
@@ -29566,7 +29564,7 @@
         <v>1896</v>
       </c>
       <c r="B1900" s="14" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="C1900" s="3">
         <v>2009</v>
@@ -29577,7 +29575,7 @@
         <v>1897</v>
       </c>
       <c r="B1901" s="14" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="C1901" s="3">
         <v>2009</v>
@@ -29588,7 +29586,7 @@
         <v>1898</v>
       </c>
       <c r="B1902" s="14" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C1902" s="3">
         <v>2009</v>
@@ -29599,7 +29597,7 @@
         <v>1899</v>
       </c>
       <c r="B1903" s="14" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C1903" s="3">
         <v>2009</v>
@@ -29610,7 +29608,7 @@
         <v>1900</v>
       </c>
       <c r="B1904" s="14" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C1904" s="3">
         <v>2009</v>
@@ -29621,7 +29619,7 @@
         <v>1901</v>
       </c>
       <c r="B1905" s="14" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="C1905" s="3">
         <v>2009</v>
@@ -29632,7 +29630,7 @@
         <v>1902</v>
       </c>
       <c r="B1906" s="14" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C1906" s="3">
         <v>2009</v>
@@ -29643,7 +29641,7 @@
         <v>1903</v>
       </c>
       <c r="B1907" s="16" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C1907" s="17">
         <v>2007</v>
@@ -29657,7 +29655,7 @@
         <v>1904</v>
       </c>
       <c r="B1908" s="16" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C1908" s="17">
         <v>2008</v>
@@ -29671,7 +29669,7 @@
         <v>1905</v>
       </c>
       <c r="B1909" s="16" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="C1909" s="17">
         <v>2009</v>
@@ -29685,7 +29683,7 @@
         <v>1906</v>
       </c>
       <c r="B1910" s="16" t="s">
-        <v>1930</v>
+        <v>1919</v>
       </c>
       <c r="C1910" s="17">
         <v>2010</v>
@@ -29699,7 +29697,7 @@
         <v>1907</v>
       </c>
       <c r="B1911" s="1" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C1911" s="17">
         <v>2007</v>
@@ -29713,7 +29711,7 @@
         <v>1908</v>
       </c>
       <c r="B1912" s="16" t="s">
-        <v>1919</v>
+        <v>1933</v>
       </c>
       <c r="C1912" s="17">
         <v>2008</v>
@@ -29727,7 +29725,7 @@
         <v>1909</v>
       </c>
       <c r="B1913" s="16" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="C1913" s="17">
         <v>2009</v>
@@ -29741,7 +29739,7 @@
         <v>1910</v>
       </c>
       <c r="B1914" s="16" t="s">
-        <v>1931</v>
+        <v>1920</v>
       </c>
       <c r="C1914" s="17">
         <v>2010</v>
@@ -29755,7 +29753,7 @@
         <v>1911</v>
       </c>
       <c r="B1915" s="16" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="C1915" s="17">
         <v>2007</v>
@@ -29769,7 +29767,7 @@
         <v>1912</v>
       </c>
       <c r="B1916" s="16" t="s">
-        <v>1920</v>
+        <v>1934</v>
       </c>
       <c r="C1916" s="17">
         <v>2008</v>
@@ -29783,7 +29781,7 @@
         <v>1913</v>
       </c>
       <c r="B1917" s="16" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="C1917" s="17">
         <v>2009</v>
@@ -29797,7 +29795,7 @@
         <v>1914</v>
       </c>
       <c r="B1918" s="16" t="s">
-        <v>1932</v>
+        <v>1921</v>
       </c>
       <c r="C1918" s="17">
         <v>2010</v>
@@ -29811,7 +29809,7 @@
         <v>1915</v>
       </c>
       <c r="B1919" s="16" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C1919" s="17">
         <v>2007</v>
@@ -29825,7 +29823,7 @@
         <v>1916</v>
       </c>
       <c r="B1920" s="16" t="s">
-        <v>1921</v>
+        <v>1935</v>
       </c>
       <c r="C1920" s="17">
         <v>2008</v>
@@ -29839,7 +29837,7 @@
         <v>1917</v>
       </c>
       <c r="B1921" s="16" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="C1921" s="17">
         <v>2009</v>
@@ -29853,7 +29851,7 @@
         <v>1918</v>
       </c>
       <c r="B1922" s="16" t="s">
-        <v>1933</v>
+        <v>1922</v>
       </c>
       <c r="C1922" s="17">
         <v>2010</v>
@@ -29867,7 +29865,7 @@
         <v>1919</v>
       </c>
       <c r="B1923" s="16" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C1923" s="17">
         <v>2007</v>
@@ -29881,7 +29879,7 @@
         <v>1920</v>
       </c>
       <c r="B1924" s="16" t="s">
-        <v>1922</v>
+        <v>1927</v>
       </c>
       <c r="C1924" s="17">
         <v>2008</v>
@@ -29895,7 +29893,7 @@
         <v>1921</v>
       </c>
       <c r="B1925" s="16" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="C1925" s="17">
         <v>2009</v>
@@ -29909,7 +29907,7 @@
         <v>1922</v>
       </c>
       <c r="B1926" s="16" t="s">
-        <v>1934</v>
+        <v>1923</v>
       </c>
       <c r="C1926" s="17">
         <v>2010</v>
@@ -29923,7 +29921,7 @@
         <v>1923</v>
       </c>
       <c r="B1927" s="16" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C1927" s="17">
         <v>2007</v>
@@ -29937,7 +29935,7 @@
         <v>1924</v>
       </c>
       <c r="B1928" s="16" t="s">
-        <v>1923</v>
+        <v>1926</v>
       </c>
       <c r="C1928" s="17">
         <v>2008</v>
@@ -29951,7 +29949,7 @@
         <v>1925</v>
       </c>
       <c r="B1929" s="16" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="C1929" s="17">
         <v>2009</v>
@@ -29965,7 +29963,7 @@
         <v>1926</v>
       </c>
       <c r="B1930" s="16" t="s">
-        <v>1935</v>
+        <v>1924</v>
       </c>
       <c r="C1930" s="17">
         <v>2010</v>
@@ -29973,6 +29971,42 @@
       <c r="D1930" s="18">
         <v>1</v>
       </c>
+    </row>
+    <row r="1931" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1931" s="16"/>
+    </row>
+    <row r="1932" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1932" s="16"/>
+    </row>
+    <row r="1933" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1933" s="16"/>
+    </row>
+    <row r="1934" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1934" s="16"/>
+    </row>
+    <row r="1935" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1935" s="16"/>
+    </row>
+    <row r="1936" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1936" s="16"/>
+    </row>
+    <row r="1937" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B1937" s="16"/>
+    </row>
+    <row r="1938" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B1938" s="16"/>
+    </row>
+    <row r="1939" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B1939" s="16"/>
+    </row>
+    <row r="1940" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B1940" s="16"/>
+    </row>
+    <row r="1941" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B1941" s="16"/>
+    </row>
+    <row r="1942" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B1942" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
